--- a/Alternatives/Alternative2_01/transit_fare/farematrix_alt2.xlsx
+++ b/Alternatives/Alternative2_01/transit_fare/farematrix_alt2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="0" windowWidth="25600" windowHeight="16640" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16260" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="farematrix.csv" sheetId="1" r:id="rId1"/>
@@ -260,8 +260,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -281,7 +291,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -289,6 +299,11 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -296,6 +311,11 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -627,10 +647,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AR1" sqref="AR1"/>
-      <selection pane="bottomLeft" activeCell="BG61" sqref="BG61"/>
+      <selection pane="bottomLeft" activeCell="BF55" sqref="BF55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10273,7 +10293,7 @@
         <v>420</v>
       </c>
       <c r="C58">
-        <f t="shared" ref="C58:BG58" si="32">C59</f>
+        <f t="shared" ref="C58:BE58" si="32">C59</f>
         <v>409</v>
       </c>
       <c r="D58">
@@ -10524,7 +10544,7 @@
         <v>420</v>
       </c>
       <c r="C59">
-        <f t="shared" ref="C59:BK59" si="37">C63+(C36-C35)</f>
+        <f t="shared" ref="C59:BJ59" si="37">C63+(C36-C35)</f>
         <v>409</v>
       </c>
       <c r="D59">
@@ -11274,7 +11294,7 @@
         <v>416</v>
       </c>
       <c r="C62">
-        <f t="shared" ref="C62:BK62" si="116">C63</f>
+        <f t="shared" ref="C62:BB62" si="116">C63</f>
         <v>402</v>
       </c>
       <c r="D62">

--- a/Alternatives/Alternative2_01/transit_fare/farematrix_alt2.xlsx
+++ b/Alternatives/Alternative2_01/transit_fare/farematrix_alt2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16260" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="11700" yWindow="0" windowWidth="16260" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="farematrix.csv" sheetId="1" r:id="rId1"/>
@@ -647,10 +647,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AR1" sqref="AR1"/>
-      <selection pane="bottomLeft" activeCell="BF55" sqref="BF55"/>
+      <selection pane="bottomLeft" activeCell="AE58" sqref="AE58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10043,7 +10043,7 @@
         <v>304</v>
       </c>
       <c r="C57">
-        <f t="shared" ref="C57:AC57" si="2">C56+(C31-C30)</f>
+        <f t="shared" ref="C57:AE57" si="2">C56+(C31-C30)</f>
         <v>294</v>
       </c>
       <c r="D57">
@@ -10151,94 +10151,93 @@
         <v>129</v>
       </c>
       <c r="AD57">
-        <f t="shared" ref="AD57" si="3">AD56+(AD31-AD30)</f>
-        <v>258</v>
+        <v>129</v>
       </c>
       <c r="AE57">
         <v>129</v>
       </c>
       <c r="AF57">
-        <f t="shared" ref="AF57" si="4">AF56+(AF31-AF30)</f>
+        <f t="shared" ref="AF57" si="3">AF56+(AF31-AF30)</f>
         <v>217</v>
       </c>
       <c r="AG57">
-        <f t="shared" ref="AG57" si="5">AG56+(AG31-AG30)</f>
+        <f t="shared" ref="AG57" si="4">AG56+(AG31-AG30)</f>
         <v>217</v>
       </c>
       <c r="AH57">
-        <f t="shared" ref="AH57" si="6">AH56+(AH31-AH30)</f>
+        <f t="shared" ref="AH57" si="5">AH56+(AH31-AH30)</f>
         <v>217</v>
       </c>
       <c r="AI57">
-        <f t="shared" ref="AI57" si="7">AI56+(AI31-AI30)</f>
+        <f t="shared" ref="AI57" si="6">AI56+(AI31-AI30)</f>
         <v>217</v>
       </c>
       <c r="AJ57">
-        <f t="shared" ref="AJ57" si="8">AJ56+(AJ31-AJ30)</f>
+        <f t="shared" ref="AJ57" si="7">AJ56+(AJ31-AJ30)</f>
         <v>234</v>
       </c>
       <c r="AK57">
-        <f t="shared" ref="AK57" si="9">AK56+(AK31-AK30)</f>
+        <f t="shared" ref="AK57" si="8">AK56+(AK31-AK30)</f>
         <v>238</v>
       </c>
       <c r="AL57">
-        <f t="shared" ref="AL57" si="10">AL56+(AL31-AL30)</f>
+        <f t="shared" ref="AL57" si="9">AL56+(AL31-AL30)</f>
         <v>255</v>
       </c>
       <c r="AM57">
-        <f t="shared" ref="AM57" si="11">AM56+(AM31-AM30)</f>
+        <f t="shared" ref="AM57" si="10">AM56+(AM31-AM30)</f>
         <v>266</v>
       </c>
       <c r="AN57">
-        <f t="shared" ref="AN57" si="12">AN56+(AN31-AN30)</f>
+        <f t="shared" ref="AN57" si="11">AN56+(AN31-AN30)</f>
         <v>280</v>
       </c>
       <c r="AO57">
-        <f t="shared" ref="AO57" si="13">AO56+(AO31-AO30)</f>
+        <f t="shared" ref="AO57" si="12">AO56+(AO31-AO30)</f>
         <v>276</v>
       </c>
       <c r="AP57">
-        <f t="shared" ref="AP57" si="14">AP56+(AP31-AP30)</f>
+        <f t="shared" ref="AP57" si="13">AP56+(AP31-AP30)</f>
         <v>290</v>
       </c>
       <c r="AQ57">
-        <f t="shared" ref="AQ57" si="15">AQ56+(AQ31-AQ30)</f>
+        <f t="shared" ref="AQ57" si="14">AQ56+(AQ31-AQ30)</f>
         <v>308</v>
       </c>
       <c r="AR57">
-        <f t="shared" ref="AR57" si="16">AR56+(AR31-AR30)</f>
+        <f t="shared" ref="AR57" si="15">AR56+(AR31-AR30)</f>
         <v>619</v>
       </c>
       <c r="AS57">
-        <f t="shared" ref="AS57" si="17">AS56+(AS31-AS30)</f>
+        <f t="shared" ref="AS57" si="16">AS56+(AS31-AS30)</f>
         <v>567</v>
       </c>
       <c r="AT57">
-        <f t="shared" ref="AT57" si="18">AT56+(AT31-AT30)</f>
+        <f t="shared" ref="AT57" si="17">AT56+(AT31-AT30)</f>
         <v>339</v>
       </c>
       <c r="AU57">
-        <f t="shared" ref="AU57" si="19">AU56+(AU31-AU30)</f>
+        <f t="shared" ref="AU57" si="18">AU56+(AU31-AU30)</f>
         <v>350</v>
       </c>
       <c r="AV57">
-        <f t="shared" ref="AV57" si="20">AV56+(AV31-AV30)</f>
+        <f t="shared" ref="AV57" si="19">AV56+(AV31-AV30)</f>
         <v>360</v>
       </c>
       <c r="AW57">
-        <f t="shared" ref="AW57" si="21">AW56+(AW31-AW30)</f>
+        <f t="shared" ref="AW57" si="20">AW56+(AW31-AW30)</f>
         <v>409</v>
       </c>
       <c r="AX57">
-        <f t="shared" ref="AX57" si="22">AX56+(AX31-AX30)</f>
+        <f t="shared" ref="AX57" si="21">AX56+(AX31-AX30)</f>
         <v>420</v>
       </c>
       <c r="AY57">
-        <f t="shared" ref="AY57" si="23">AY56+(AY31-AY30)</f>
+        <f t="shared" ref="AY57" si="22">AY56+(AY31-AY30)</f>
         <v>420</v>
       </c>
       <c r="AZ57">
-        <f t="shared" ref="AZ57" si="24">AZ56+(AZ31-AZ30)</f>
+        <f t="shared" ref="AZ57" si="23">AZ56+(AZ31-AZ30)</f>
         <v>434</v>
       </c>
       <c r="BA57">
@@ -10246,11 +10245,11 @@
         <v>325</v>
       </c>
       <c r="BB57">
-        <f t="shared" ref="BB57" si="25">BB56+(BB31-BB30)</f>
+        <f t="shared" ref="BB57" si="24">BB56+(BB31-BB30)</f>
         <v>329</v>
       </c>
       <c r="BC57">
-        <f t="shared" ref="BC57" si="26">BC56+(BC31-BC30)</f>
+        <f t="shared" ref="BC57" si="25">BC56+(BC31-BC30)</f>
         <v>129</v>
       </c>
       <c r="BD57">
@@ -10264,23 +10263,23 @@
         <v>245</v>
       </c>
       <c r="BG57">
-        <f t="shared" ref="BG57" si="27">BG56+(BG31-BG30)</f>
+        <f t="shared" ref="BG57" si="26">BG56+(BG31-BG30)</f>
         <v>245</v>
       </c>
       <c r="BH57">
-        <f t="shared" ref="BH57" si="28">BH56+(BH31-BH30)</f>
+        <f t="shared" ref="BH57" si="27">BH56+(BH31-BH30)</f>
         <v>231</v>
       </c>
       <c r="BI57">
-        <f t="shared" ref="BI57" si="29">BI56+(BI31-BI30)</f>
+        <f t="shared" ref="BI57" si="28">BI56+(BI31-BI30)</f>
         <v>231</v>
       </c>
       <c r="BJ57">
-        <f t="shared" ref="BJ57" si="30">BJ56+(BJ31-BJ30)</f>
+        <f t="shared" ref="BJ57" si="29">BJ56+(BJ31-BJ30)</f>
         <v>231</v>
       </c>
       <c r="BK57">
-        <f t="shared" ref="BK57" si="31">BK56+(BK31-BK30)</f>
+        <f t="shared" ref="BK57" si="30">BK56+(BK31-BK30)</f>
         <v>231</v>
       </c>
     </row>
@@ -10293,223 +10292,223 @@
         <v>420</v>
       </c>
       <c r="C58">
-        <f t="shared" ref="C58:BE58" si="32">C59</f>
+        <f t="shared" ref="C58:BE58" si="31">C59</f>
         <v>409</v>
       </c>
       <c r="D58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>346</v>
       </c>
       <c r="E58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>420</v>
       </c>
       <c r="F58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>399</v>
       </c>
       <c r="G58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>364</v>
       </c>
       <c r="H58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>346</v>
       </c>
       <c r="I58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>325</v>
       </c>
       <c r="J58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>311</v>
       </c>
       <c r="K58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>290</v>
       </c>
       <c r="L58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>273</v>
       </c>
       <c r="M58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>245</v>
       </c>
       <c r="N58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>322</v>
       </c>
       <c r="O58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>308</v>
       </c>
       <c r="P58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>297</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>283</v>
       </c>
       <c r="R58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>280</v>
       </c>
       <c r="S58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>273</v>
       </c>
       <c r="T58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>448</v>
       </c>
       <c r="U58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>413</v>
       </c>
       <c r="V58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>399</v>
       </c>
       <c r="W58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>371</v>
       </c>
       <c r="X58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>360</v>
       </c>
       <c r="Y58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>336</v>
       </c>
       <c r="Z58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>311</v>
       </c>
       <c r="AA58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>273</v>
       </c>
       <c r="AB58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>259</v>
       </c>
       <c r="AC58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>245</v>
       </c>
       <c r="AD58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>245</v>
       </c>
       <c r="AE58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>234</v>
       </c>
       <c r="AF58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>129</v>
       </c>
       <c r="AG58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>129</v>
       </c>
       <c r="AH58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>129</v>
       </c>
       <c r="AI58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>258</v>
       </c>
       <c r="AJ58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>129</v>
       </c>
       <c r="AK58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>129</v>
       </c>
       <c r="AL58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>129</v>
       </c>
       <c r="AM58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>129</v>
       </c>
       <c r="AN58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>206</v>
       </c>
       <c r="AO58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>234</v>
       </c>
       <c r="AP58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>252</v>
       </c>
       <c r="AQ58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>280</v>
       </c>
       <c r="AR58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>602</v>
       </c>
       <c r="AS58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>710</v>
       </c>
       <c r="AT58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>451</v>
       </c>
       <c r="AU58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>462</v>
       </c>
       <c r="AV58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>472</v>
       </c>
       <c r="AW58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>525</v>
       </c>
       <c r="AX58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>535</v>
       </c>
       <c r="AY58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>535</v>
       </c>
       <c r="AZ58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>553</v>
       </c>
       <c r="BA58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>437</v>
       </c>
       <c r="BB58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>311</v>
       </c>
       <c r="BC58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>231</v>
       </c>
       <c r="BD58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>231</v>
       </c>
       <c r="BE58">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>231</v>
       </c>
       <c r="BF58">
@@ -10519,19 +10518,19 @@
         <v>129</v>
       </c>
       <c r="BH58">
-        <f t="shared" ref="BH58" si="33">BH59</f>
+        <f t="shared" ref="BH58" si="32">BH59</f>
         <v>129</v>
       </c>
       <c r="BI58">
-        <f t="shared" ref="BI58" si="34">BI59</f>
+        <f t="shared" ref="BI58" si="33">BI59</f>
         <v>129</v>
       </c>
       <c r="BJ58">
-        <f t="shared" ref="BJ58" si="35">BJ59</f>
+        <f t="shared" ref="BJ58" si="34">BJ59</f>
         <v>129</v>
       </c>
       <c r="BK58">
-        <f t="shared" ref="BK58" si="36">BK59</f>
+        <f t="shared" ref="BK58" si="35">BK59</f>
         <v>129</v>
       </c>
     </row>
@@ -10544,241 +10543,241 @@
         <v>420</v>
       </c>
       <c r="C59">
-        <f t="shared" ref="C59:BJ59" si="37">C63+(C36-C35)</f>
+        <f t="shared" ref="C59:BJ59" si="36">C63+(C36-C35)</f>
         <v>409</v>
       </c>
       <c r="D59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>346</v>
       </c>
       <c r="E59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>420</v>
       </c>
       <c r="F59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>399</v>
       </c>
       <c r="G59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>364</v>
       </c>
       <c r="H59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>346</v>
       </c>
       <c r="I59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>325</v>
       </c>
       <c r="J59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>311</v>
       </c>
       <c r="K59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>290</v>
       </c>
       <c r="L59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>273</v>
       </c>
       <c r="M59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>245</v>
       </c>
       <c r="N59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>322</v>
       </c>
       <c r="O59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>308</v>
       </c>
       <c r="P59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>297</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>283</v>
       </c>
       <c r="R59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>280</v>
       </c>
       <c r="S59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>273</v>
       </c>
       <c r="T59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>448</v>
       </c>
       <c r="U59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>413</v>
       </c>
       <c r="V59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>399</v>
       </c>
       <c r="W59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>371</v>
       </c>
       <c r="X59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>360</v>
       </c>
       <c r="Y59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>336</v>
       </c>
       <c r="Z59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>311</v>
       </c>
       <c r="AA59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>273</v>
       </c>
       <c r="AB59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>259</v>
       </c>
       <c r="AC59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>245</v>
       </c>
       <c r="AD59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>245</v>
       </c>
       <c r="AE59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>234</v>
       </c>
       <c r="AF59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>129</v>
       </c>
       <c r="AG59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>129</v>
       </c>
       <c r="AH59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>129</v>
       </c>
       <c r="AI59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>258</v>
       </c>
       <c r="AJ59">
         <v>129</v>
       </c>
       <c r="AK59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>129</v>
       </c>
       <c r="AL59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>129</v>
       </c>
       <c r="AM59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>129</v>
       </c>
       <c r="AN59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>206</v>
       </c>
       <c r="AO59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>234</v>
       </c>
       <c r="AP59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>252</v>
       </c>
       <c r="AQ59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>280</v>
       </c>
       <c r="AR59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>602</v>
       </c>
       <c r="AS59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>710</v>
       </c>
       <c r="AT59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>451</v>
       </c>
       <c r="AU59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>462</v>
       </c>
       <c r="AV59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>472</v>
       </c>
       <c r="AW59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>525</v>
       </c>
       <c r="AX59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>535</v>
       </c>
       <c r="AY59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>535</v>
       </c>
       <c r="AZ59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>553</v>
       </c>
       <c r="BA59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>437</v>
       </c>
       <c r="BB59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>311</v>
       </c>
       <c r="BC59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>231</v>
       </c>
       <c r="BD59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>231</v>
       </c>
       <c r="BE59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>231</v>
       </c>
       <c r="BF59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>129</v>
       </c>
       <c r="BG59">
         <v>0</v>
       </c>
       <c r="BH59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>129</v>
       </c>
       <c r="BI59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>129</v>
       </c>
       <c r="BJ59">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>129</v>
       </c>
       <c r="BK59">
@@ -10794,79 +10793,79 @@
         <v>416</v>
       </c>
       <c r="C60">
-        <f t="shared" ref="C60:U60" si="38">C61-(C34-C33)</f>
+        <f t="shared" ref="C60:U60" si="37">C61-(C34-C33)</f>
         <v>402</v>
       </c>
       <c r="D60">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>339</v>
       </c>
       <c r="E60">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>416</v>
       </c>
       <c r="F60">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>392</v>
       </c>
       <c r="G60">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>360</v>
       </c>
       <c r="H60">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>339</v>
       </c>
       <c r="I60">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>322</v>
       </c>
       <c r="J60">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>304</v>
       </c>
       <c r="K60">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>283</v>
       </c>
       <c r="L60">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>262</v>
       </c>
       <c r="M60">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>231</v>
       </c>
       <c r="N60">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>315</v>
       </c>
       <c r="O60">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>301</v>
       </c>
       <c r="P60">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>290</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>280</v>
       </c>
       <c r="R60">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>273</v>
       </c>
       <c r="S60">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>262</v>
       </c>
       <c r="T60">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>441</v>
       </c>
       <c r="U60">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>406</v>
       </c>
       <c r="V60">
@@ -10874,150 +10873,150 @@
         <v>395</v>
       </c>
       <c r="W60">
-        <f t="shared" ref="W60" si="39">W61-(W34-W33)</f>
+        <f t="shared" ref="W60" si="38">W61-(W34-W33)</f>
         <v>367</v>
       </c>
       <c r="X60">
-        <f t="shared" ref="X60" si="40">X61-(X34-X33)</f>
+        <f t="shared" ref="X60" si="39">X61-(X34-X33)</f>
         <v>357</v>
       </c>
       <c r="Y60">
-        <f t="shared" ref="Y60" si="41">Y61-(Y34-Y33)</f>
+        <f t="shared" ref="Y60" si="40">Y61-(Y34-Y33)</f>
         <v>332</v>
       </c>
       <c r="Z60">
-        <f t="shared" ref="Z60" si="42">Z61-(Z34-Z33)</f>
+        <f t="shared" ref="Z60" si="41">Z61-(Z34-Z33)</f>
         <v>308</v>
       </c>
       <c r="AA60">
-        <f t="shared" ref="AA60" si="43">AA61-(AA34-AA33)</f>
+        <f t="shared" ref="AA60" si="42">AA61-(AA34-AA33)</f>
         <v>262</v>
       </c>
       <c r="AB60">
-        <f t="shared" ref="AB60" si="44">AB61-(AB34-AB33)</f>
+        <f t="shared" ref="AB60" si="43">AB61-(AB34-AB33)</f>
         <v>245</v>
       </c>
       <c r="AC60">
-        <f t="shared" ref="AC60" si="45">AC61-(AC34-AC33)</f>
+        <f t="shared" ref="AC60" si="44">AC61-(AC34-AC33)</f>
         <v>231</v>
       </c>
       <c r="AD60">
-        <f t="shared" ref="AD60" si="46">AD61-(AD34-AD33)</f>
+        <f t="shared" ref="AD60" si="45">AD61-(AD34-AD33)</f>
         <v>231</v>
       </c>
       <c r="AE60">
-        <f t="shared" ref="AE60" si="47">AE61-(AE34-AE33)</f>
+        <f t="shared" ref="AE60" si="46">AE61-(AE34-AE33)</f>
         <v>217</v>
       </c>
       <c r="AF60">
-        <f t="shared" ref="AF60" si="48">AF61-(AF34-AF33)</f>
+        <f t="shared" ref="AF60" si="47">AF61-(AF34-AF33)</f>
         <v>129</v>
       </c>
       <c r="AG60">
         <v>129</v>
       </c>
       <c r="AH60">
-        <f t="shared" ref="AH60" si="49">AH61-(AH34-AH33)</f>
+        <f t="shared" ref="AH60" si="48">AH61-(AH34-AH33)</f>
         <v>258</v>
       </c>
       <c r="AI60">
-        <f t="shared" ref="AI60" si="50">AI61-(AI34-AI33)</f>
+        <f t="shared" ref="AI60" si="49">AI61-(AI34-AI33)</f>
         <v>258</v>
       </c>
       <c r="AJ60">
-        <f t="shared" ref="AJ60" si="51">AJ61-(AJ34-AJ33)</f>
+        <f t="shared" ref="AJ60" si="50">AJ61-(AJ34-AJ33)</f>
         <v>129</v>
       </c>
       <c r="AK60">
-        <f t="shared" ref="AK60" si="52">AK61-(AK34-AK33)</f>
+        <f t="shared" ref="AK60" si="51">AK61-(AK34-AK33)</f>
         <v>129</v>
       </c>
       <c r="AL60">
-        <f t="shared" ref="AL60" si="53">AL61-(AL34-AL33)</f>
+        <f t="shared" ref="AL60" si="52">AL61-(AL34-AL33)</f>
         <v>129</v>
       </c>
       <c r="AM60">
-        <f t="shared" ref="AM60" si="54">AM61-(AM34-AM33)</f>
+        <f t="shared" ref="AM60" si="53">AM61-(AM34-AM33)</f>
         <v>133</v>
       </c>
       <c r="AN60">
-        <f t="shared" ref="AN60" si="55">AN61-(AN34-AN33)</f>
+        <f t="shared" ref="AN60" si="54">AN61-(AN34-AN33)</f>
         <v>220</v>
       </c>
       <c r="AO60">
-        <f t="shared" ref="AO60" si="56">AO61-(AO34-AO33)</f>
+        <f t="shared" ref="AO60" si="55">AO61-(AO34-AO33)</f>
         <v>245</v>
       </c>
       <c r="AP60">
-        <f t="shared" ref="AP60" si="57">AP61-(AP34-AP33)</f>
+        <f t="shared" ref="AP60" si="56">AP61-(AP34-AP33)</f>
         <v>266</v>
       </c>
       <c r="AQ60">
-        <f t="shared" ref="AQ60" si="58">AQ61-(AQ34-AQ33)</f>
+        <f t="shared" ref="AQ60" si="57">AQ61-(AQ34-AQ33)</f>
         <v>290</v>
       </c>
       <c r="AR60">
-        <f t="shared" ref="AR60" si="59">AR61-(AR34-AR33)</f>
+        <f t="shared" ref="AR60" si="58">AR61-(AR34-AR33)</f>
         <v>605</v>
       </c>
       <c r="AS60">
-        <f t="shared" ref="AS60" si="60">AS61-(AS34-AS33)</f>
+        <f t="shared" ref="AS60" si="59">AS61-(AS34-AS33)</f>
         <v>703</v>
       </c>
       <c r="AT60">
-        <f t="shared" ref="AT60" si="61">AT61-(AT34-AT33)</f>
+        <f t="shared" ref="AT60" si="60">AT61-(AT34-AT33)</f>
         <v>448</v>
       </c>
       <c r="AU60">
-        <f t="shared" ref="AU60" si="62">AU61-(AU34-AU33)</f>
+        <f t="shared" ref="AU60" si="61">AU61-(AU34-AU33)</f>
         <v>458</v>
       </c>
       <c r="AV60">
-        <f t="shared" ref="AV60" si="63">AV61-(AV34-AV33)</f>
+        <f t="shared" ref="AV60" si="62">AV61-(AV34-AV33)</f>
         <v>469</v>
       </c>
       <c r="AW60">
-        <f t="shared" ref="AW60" si="64">AW61-(AW34-AW33)</f>
+        <f t="shared" ref="AW60" si="63">AW61-(AW34-AW33)</f>
         <v>521</v>
       </c>
       <c r="AX60">
-        <f t="shared" ref="AX60" si="65">AX61-(AX34-AX33)</f>
+        <f t="shared" ref="AX60" si="64">AX61-(AX34-AX33)</f>
         <v>532</v>
       </c>
       <c r="AY60">
-        <f t="shared" ref="AY60" si="66">AY61-(AY34-AY33)</f>
+        <f t="shared" ref="AY60" si="65">AY61-(AY34-AY33)</f>
         <v>532</v>
       </c>
       <c r="AZ60">
-        <f t="shared" ref="AZ60" si="67">AZ61-(AZ34-AZ33)</f>
+        <f t="shared" ref="AZ60" si="66">AZ61-(AZ34-AZ33)</f>
         <v>546</v>
       </c>
       <c r="BA60">
-        <f t="shared" ref="BA60" si="68">BA61-(BA34-BA33)</f>
+        <f t="shared" ref="BA60" si="67">BA61-(BA34-BA33)</f>
         <v>434</v>
       </c>
       <c r="BB60">
-        <f t="shared" ref="BB60" si="69">BB61-(BB34-BB33)</f>
+        <f t="shared" ref="BB60" si="68">BB61-(BB34-BB33)</f>
         <v>315</v>
       </c>
       <c r="BC60">
-        <f t="shared" ref="BC60" si="70">BC61-(BC34-BC33)</f>
+        <f t="shared" ref="BC60" si="69">BC61-(BC34-BC33)</f>
         <v>231</v>
       </c>
       <c r="BD60">
-        <f t="shared" ref="BD60" si="71">BD61-(BD34-BD33)</f>
+        <f t="shared" ref="BD60" si="70">BD61-(BD34-BD33)</f>
         <v>231</v>
       </c>
       <c r="BE60">
-        <f t="shared" ref="BE60" si="72">BE61-(BE34-BE33)</f>
+        <f t="shared" ref="BE60" si="71">BE61-(BE34-BE33)</f>
         <v>231</v>
       </c>
       <c r="BF60">
-        <f t="shared" ref="BF60" si="73">BF61-(BF34-BF33)</f>
+        <f t="shared" ref="BF60" si="72">BF61-(BF34-BF33)</f>
         <v>129</v>
       </c>
       <c r="BG60">
-        <f t="shared" ref="BG60" si="74">BG61-(BG34-BG33)</f>
+        <f t="shared" ref="BG60" si="73">BG61-(BG34-BG33)</f>
         <v>129</v>
       </c>
       <c r="BH60">
@@ -11027,11 +11026,11 @@
         <v>129</v>
       </c>
       <c r="BJ60">
-        <f t="shared" ref="BJ60" si="75">BJ61-(BJ34-BJ33)</f>
+        <f t="shared" ref="BJ60" si="74">BJ61-(BJ34-BJ33)</f>
         <v>129</v>
       </c>
       <c r="BK60">
-        <f t="shared" ref="BK60" si="76">BK61-(BK34-BK33)</f>
+        <f t="shared" ref="BK60" si="75">BK61-(BK34-BK33)</f>
         <v>129</v>
       </c>
     </row>
@@ -11044,47 +11043,47 @@
         <v>416</v>
       </c>
       <c r="C61">
-        <f t="shared" ref="C61:M61" si="77">C62-(C35-C34)</f>
+        <f t="shared" ref="C61:M61" si="76">C62-(C35-C34)</f>
         <v>402</v>
       </c>
       <c r="D61">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>339</v>
       </c>
       <c r="E61">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>416</v>
       </c>
       <c r="F61">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>392</v>
       </c>
       <c r="G61">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>360</v>
       </c>
       <c r="H61">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>339</v>
       </c>
       <c r="I61">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>322</v>
       </c>
       <c r="J61">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>304</v>
       </c>
       <c r="K61">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>283</v>
       </c>
       <c r="L61">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>262</v>
       </c>
       <c r="M61">
-        <f t="shared" si="77"/>
+        <f t="shared" si="76"/>
         <v>231</v>
       </c>
       <c r="N61">
@@ -11092,23 +11091,23 @@
         <v>315</v>
       </c>
       <c r="O61">
-        <f t="shared" ref="O61" si="78">O62-(O35-O34)</f>
+        <f t="shared" ref="O61" si="77">O62-(O35-O34)</f>
         <v>301</v>
       </c>
       <c r="P61">
-        <f t="shared" ref="P61" si="79">P62-(P35-P34)</f>
+        <f t="shared" ref="P61" si="78">P62-(P35-P34)</f>
         <v>290</v>
       </c>
       <c r="Q61">
-        <f t="shared" ref="Q61" si="80">Q62-(Q35-Q34)</f>
+        <f t="shared" ref="Q61" si="79">Q62-(Q35-Q34)</f>
         <v>280</v>
       </c>
       <c r="R61">
-        <f t="shared" ref="R61" si="81">R62-(R35-R34)</f>
+        <f t="shared" ref="R61" si="80">R62-(R35-R34)</f>
         <v>273</v>
       </c>
       <c r="S61">
-        <f t="shared" ref="S61" si="82">S62-(S35-S34)</f>
+        <f t="shared" ref="S61" si="81">S62-(S35-S34)</f>
         <v>262</v>
       </c>
       <c r="T61">
@@ -11116,23 +11115,23 @@
         <v>441</v>
       </c>
       <c r="U61">
-        <f t="shared" ref="U61" si="83">U62-(U35-U34)</f>
+        <f t="shared" ref="U61" si="82">U62-(U35-U34)</f>
         <v>406</v>
       </c>
       <c r="V61">
-        <f t="shared" ref="V61" si="84">V62-(V35-V34)</f>
+        <f t="shared" ref="V61" si="83">V62-(V35-V34)</f>
         <v>395</v>
       </c>
       <c r="W61">
-        <f t="shared" ref="W61" si="85">W62-(W35-W34)</f>
+        <f t="shared" ref="W61" si="84">W62-(W35-W34)</f>
         <v>367</v>
       </c>
       <c r="X61">
-        <f t="shared" ref="X61" si="86">X62-(X35-X34)</f>
+        <f t="shared" ref="X61" si="85">X62-(X35-X34)</f>
         <v>357</v>
       </c>
       <c r="Y61">
-        <f t="shared" ref="Y61" si="87">Y62-(Y35-Y34)</f>
+        <f t="shared" ref="Y61" si="86">Y62-(Y35-Y34)</f>
         <v>332</v>
       </c>
       <c r="Z61">
@@ -11140,19 +11139,19 @@
         <v>308</v>
       </c>
       <c r="AA61">
-        <f t="shared" ref="AA61" si="88">AA62-(AA35-AA34)</f>
+        <f t="shared" ref="AA61" si="87">AA62-(AA35-AA34)</f>
         <v>262</v>
       </c>
       <c r="AB61">
-        <f t="shared" ref="AB61" si="89">AB62-(AB35-AB34)</f>
+        <f t="shared" ref="AB61" si="88">AB62-(AB35-AB34)</f>
         <v>245</v>
       </c>
       <c r="AC61">
-        <f t="shared" ref="AC61" si="90">AC62-(AC35-AC34)</f>
+        <f t="shared" ref="AC61" si="89">AC62-(AC35-AC34)</f>
         <v>231</v>
       </c>
       <c r="AD61">
-        <f t="shared" ref="AD61" si="91">AD62-(AD35-AD34)</f>
+        <f t="shared" ref="AD61" si="90">AD62-(AD35-AD34)</f>
         <v>231</v>
       </c>
       <c r="AE61">
@@ -11160,18 +11159,18 @@
         <v>217</v>
       </c>
       <c r="AF61">
-        <f t="shared" ref="AF61" si="92">AF62-(AF35-AF34)</f>
+        <f t="shared" ref="AF61" si="91">AF62-(AF35-AF34)</f>
         <v>129</v>
       </c>
       <c r="AG61">
-        <f t="shared" ref="AG61" si="93">AG62-(AG35-AG34)</f>
+        <f t="shared" ref="AG61" si="92">AG62-(AG35-AG34)</f>
         <v>129</v>
       </c>
       <c r="AH61">
         <v>129</v>
       </c>
       <c r="AI61">
-        <f t="shared" ref="AI61" si="94">AI62-(AI35-AI34)</f>
+        <f t="shared" ref="AI61" si="93">AI62-(AI35-AI34)</f>
         <v>258</v>
       </c>
       <c r="AJ61">
@@ -11179,11 +11178,11 @@
         <v>129</v>
       </c>
       <c r="AK61">
-        <f t="shared" ref="AK61" si="95">AK62-(AK35-AK34)</f>
+        <f t="shared" ref="AK61" si="94">AK62-(AK35-AK34)</f>
         <v>129</v>
       </c>
       <c r="AL61">
-        <f t="shared" ref="AL61" si="96">AL62-(AL35-AL34)</f>
+        <f t="shared" ref="AL61" si="95">AL62-(AL35-AL34)</f>
         <v>129</v>
       </c>
       <c r="AM61">
@@ -11191,47 +11190,47 @@
         <v>133</v>
       </c>
       <c r="AN61">
-        <f t="shared" ref="AN61" si="97">AN62-(AN35-AN34)</f>
+        <f t="shared" ref="AN61" si="96">AN62-(AN35-AN34)</f>
         <v>220</v>
       </c>
       <c r="AO61">
-        <f t="shared" ref="AO61" si="98">AO62-(AO35-AO34)</f>
+        <f t="shared" ref="AO61" si="97">AO62-(AO35-AO34)</f>
         <v>245</v>
       </c>
       <c r="AP61">
-        <f t="shared" ref="AP61" si="99">AP62-(AP35-AP34)</f>
+        <f t="shared" ref="AP61" si="98">AP62-(AP35-AP34)</f>
         <v>266</v>
       </c>
       <c r="AQ61">
-        <f t="shared" ref="AQ61" si="100">AQ62-(AQ35-AQ34)</f>
+        <f t="shared" ref="AQ61" si="99">AQ62-(AQ35-AQ34)</f>
         <v>290</v>
       </c>
       <c r="AR61">
-        <f t="shared" ref="AR61" si="101">AR62-(AR35-AR34)</f>
+        <f t="shared" ref="AR61" si="100">AR62-(AR35-AR34)</f>
         <v>605</v>
       </c>
       <c r="AS61">
-        <f t="shared" ref="AS61" si="102">AS62-(AS35-AS34)</f>
+        <f t="shared" ref="AS61" si="101">AS62-(AS35-AS34)</f>
         <v>703</v>
       </c>
       <c r="AT61">
-        <f t="shared" ref="AT61" si="103">AT62-(AT35-AT34)</f>
+        <f t="shared" ref="AT61" si="102">AT62-(AT35-AT34)</f>
         <v>448</v>
       </c>
       <c r="AU61">
-        <f t="shared" ref="AU61" si="104">AU62-(AU35-AU34)</f>
+        <f t="shared" ref="AU61" si="103">AU62-(AU35-AU34)</f>
         <v>458</v>
       </c>
       <c r="AV61">
-        <f t="shared" ref="AV61" si="105">AV62-(AV35-AV34)</f>
+        <f t="shared" ref="AV61" si="104">AV62-(AV35-AV34)</f>
         <v>469</v>
       </c>
       <c r="AW61">
-        <f t="shared" ref="AW61" si="106">AW62-(AW35-AW34)</f>
+        <f t="shared" ref="AW61" si="105">AW62-(AW35-AW34)</f>
         <v>521</v>
       </c>
       <c r="AX61">
-        <f t="shared" ref="AX61" si="107">AX62-(AX35-AX34)</f>
+        <f t="shared" ref="AX61" si="106">AX62-(AX35-AX34)</f>
         <v>532</v>
       </c>
       <c r="AY61">
@@ -11239,23 +11238,23 @@
         <v>532</v>
       </c>
       <c r="AZ61">
-        <f t="shared" ref="AZ61" si="108">AZ62-(AZ35-AZ34)</f>
+        <f t="shared" ref="AZ61" si="107">AZ62-(AZ35-AZ34)</f>
         <v>546</v>
       </c>
       <c r="BA61">
-        <f t="shared" ref="BA61" si="109">BA62-(BA35-BA34)</f>
+        <f t="shared" ref="BA61" si="108">BA62-(BA35-BA34)</f>
         <v>434</v>
       </c>
       <c r="BB61">
-        <f t="shared" ref="BB61" si="110">BB62-(BB35-BB34)</f>
+        <f t="shared" ref="BB61" si="109">BB62-(BB35-BB34)</f>
         <v>315</v>
       </c>
       <c r="BC61">
-        <f t="shared" ref="BC61" si="111">BC62-(BC35-BC34)</f>
+        <f t="shared" ref="BC61" si="110">BC62-(BC35-BC34)</f>
         <v>231</v>
       </c>
       <c r="BD61">
-        <f t="shared" ref="BD61" si="112">BD62-(BD35-BD34)</f>
+        <f t="shared" ref="BD61" si="111">BD62-(BD35-BD34)</f>
         <v>231</v>
       </c>
       <c r="BE61">
@@ -11263,15 +11262,15 @@
         <v>231</v>
       </c>
       <c r="BF61">
-        <f t="shared" ref="BF61" si="113">BF62-(BF35-BF34)</f>
+        <f t="shared" ref="BF61" si="112">BF62-(BF35-BF34)</f>
         <v>129</v>
       </c>
       <c r="BG61">
-        <f t="shared" ref="BG61" si="114">BG62-(BG35-BG34)</f>
+        <f t="shared" ref="BG61" si="113">BG62-(BG35-BG34)</f>
         <v>129</v>
       </c>
       <c r="BH61">
-        <f t="shared" ref="BH61" si="115">BH62-(BH35-BH34)</f>
+        <f t="shared" ref="BH61" si="114">BH62-(BH35-BH34)</f>
         <v>129</v>
       </c>
       <c r="BI61">
@@ -11294,211 +11293,211 @@
         <v>416</v>
       </c>
       <c r="C62">
-        <f t="shared" ref="C62:BB62" si="116">C63</f>
+        <f t="shared" ref="C62:BB62" si="115">C63</f>
         <v>402</v>
       </c>
       <c r="D62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>339</v>
       </c>
       <c r="E62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>416</v>
       </c>
       <c r="F62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>392</v>
       </c>
       <c r="G62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>360</v>
       </c>
       <c r="H62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>339</v>
       </c>
       <c r="I62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>322</v>
       </c>
       <c r="J62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>304</v>
       </c>
       <c r="K62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>283</v>
       </c>
       <c r="L62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>262</v>
       </c>
       <c r="M62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>231</v>
       </c>
       <c r="N62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>315</v>
       </c>
       <c r="O62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>301</v>
       </c>
       <c r="P62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>290</v>
       </c>
       <c r="Q62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>280</v>
       </c>
       <c r="R62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>273</v>
       </c>
       <c r="S62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>262</v>
       </c>
       <c r="T62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>441</v>
       </c>
       <c r="U62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>406</v>
       </c>
       <c r="V62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>395</v>
       </c>
       <c r="W62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>367</v>
       </c>
       <c r="X62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>357</v>
       </c>
       <c r="Y62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>332</v>
       </c>
       <c r="Z62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>308</v>
       </c>
       <c r="AA62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>262</v>
       </c>
       <c r="AB62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>245</v>
       </c>
       <c r="AC62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>231</v>
       </c>
       <c r="AD62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>231</v>
       </c>
       <c r="AE62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>217</v>
       </c>
       <c r="AF62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>129</v>
       </c>
       <c r="AG62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>129</v>
       </c>
       <c r="AH62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>129</v>
       </c>
       <c r="AI62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>129</v>
       </c>
       <c r="AJ62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>129</v>
       </c>
       <c r="AK62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>129</v>
       </c>
       <c r="AL62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>129</v>
       </c>
       <c r="AM62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>133</v>
       </c>
       <c r="AN62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>220</v>
       </c>
       <c r="AO62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>245</v>
       </c>
       <c r="AP62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>266</v>
       </c>
       <c r="AQ62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>290</v>
       </c>
       <c r="AR62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>605</v>
       </c>
       <c r="AS62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>703</v>
       </c>
       <c r="AT62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>448</v>
       </c>
       <c r="AU62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>458</v>
       </c>
       <c r="AV62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>469</v>
       </c>
       <c r="AW62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>521</v>
       </c>
       <c r="AX62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>532</v>
       </c>
       <c r="AY62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>532</v>
       </c>
       <c r="AZ62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>546</v>
       </c>
       <c r="BA62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>434</v>
       </c>
       <c r="BB62">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>315</v>
       </c>
       <c r="BC62">
@@ -11541,210 +11540,210 @@
         <v>416</v>
       </c>
       <c r="C63">
-        <f t="shared" ref="C63:BK63" si="117">C35</f>
+        <f t="shared" ref="C63:BK63" si="116">C35</f>
         <v>402</v>
       </c>
       <c r="D63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>339</v>
       </c>
       <c r="E63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>416</v>
       </c>
       <c r="F63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>392</v>
       </c>
       <c r="G63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>360</v>
       </c>
       <c r="H63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>339</v>
       </c>
       <c r="I63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>322</v>
       </c>
       <c r="J63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>304</v>
       </c>
       <c r="K63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>283</v>
       </c>
       <c r="L63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>262</v>
       </c>
       <c r="M63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>231</v>
       </c>
       <c r="N63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>315</v>
       </c>
       <c r="O63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>301</v>
       </c>
       <c r="P63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>290</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>280</v>
       </c>
       <c r="R63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>273</v>
       </c>
       <c r="S63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>262</v>
       </c>
       <c r="T63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>441</v>
       </c>
       <c r="U63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>406</v>
       </c>
       <c r="V63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>395</v>
       </c>
       <c r="W63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>367</v>
       </c>
       <c r="X63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>357</v>
       </c>
       <c r="Y63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>332</v>
       </c>
       <c r="Z63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>308</v>
       </c>
       <c r="AA63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>262</v>
       </c>
       <c r="AB63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>245</v>
       </c>
       <c r="AC63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>231</v>
       </c>
       <c r="AD63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>231</v>
       </c>
       <c r="AE63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>217</v>
       </c>
       <c r="AF63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>129</v>
       </c>
       <c r="AG63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>129</v>
       </c>
       <c r="AH63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>129</v>
       </c>
       <c r="AI63">
         <v>129</v>
       </c>
       <c r="AJ63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>129</v>
       </c>
       <c r="AK63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>129</v>
       </c>
       <c r="AL63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>129</v>
       </c>
       <c r="AM63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>133</v>
       </c>
       <c r="AN63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>220</v>
       </c>
       <c r="AO63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>245</v>
       </c>
       <c r="AP63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>266</v>
       </c>
       <c r="AQ63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>290</v>
       </c>
       <c r="AR63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>605</v>
       </c>
       <c r="AS63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>703</v>
       </c>
       <c r="AT63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>448</v>
       </c>
       <c r="AU63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>458</v>
       </c>
       <c r="AV63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>469</v>
       </c>
       <c r="AW63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>521</v>
       </c>
       <c r="AX63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>532</v>
       </c>
       <c r="AY63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>532</v>
       </c>
       <c r="AZ63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>546</v>
       </c>
       <c r="BA63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>434</v>
       </c>
       <c r="BB63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>315</v>
       </c>
       <c r="BC63">
@@ -11775,7 +11774,7 @@
         <v>129</v>
       </c>
       <c r="BK63">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
     </row>

--- a/Alternatives/Alternative2_01/transit_fare/farematrix_alt2.xlsx
+++ b/Alternatives/Alternative2_01/transit_fare/farematrix_alt2.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbrooks\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11700" yWindow="0" windowWidth="16260" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3555" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="farematrix.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -210,7 +215,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -320,6 +325,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -647,20 +660,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AR1" sqref="AR1"/>
-      <selection pane="bottomLeft" activeCell="AE58" sqref="AE58"/>
+      <selection pane="bottomLeft" activeCell="AA58" sqref="AA58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -848,7 +861,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:63">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1012,7 +1025,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="3" spans="1:63">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1176,7 +1189,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="4" spans="1:63">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1340,7 +1353,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="5" spans="1:63">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1504,7 +1517,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="6" spans="1:63">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1668,7 +1681,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="7" spans="1:63">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1832,7 +1845,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="8" spans="1:63">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1996,7 +2009,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="9" spans="1:63">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2160,7 +2173,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="10" spans="1:63">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2324,7 +2337,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="11" spans="1:63">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2488,7 +2501,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="12" spans="1:63">
+    <row r="12" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2652,7 +2665,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="13" spans="1:63">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2816,7 +2829,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="14" spans="1:63">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2980,7 +2993,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="15" spans="1:63">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3144,7 +3157,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="16" spans="1:63">
+    <row r="16" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3308,7 +3321,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="17" spans="1:54">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3472,7 +3485,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="18" spans="1:54">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3636,7 +3649,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="1:54">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3800,7 +3813,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="20" spans="1:54">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3964,7 +3977,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="21" spans="1:54">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -4128,7 +4141,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="22" spans="1:54">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -4292,7 +4305,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="23" spans="1:54">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -4456,7 +4469,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="24" spans="1:54">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -4620,7 +4633,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="25" spans="1:54">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -4784,7 +4797,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="26" spans="1:54">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -4948,7 +4961,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="27" spans="1:54">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -5112,7 +5125,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:54">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -5276,7 +5289,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="29" spans="1:54">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -5440,7 +5453,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="30" spans="1:54">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -5604,7 +5617,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="31" spans="1:54">
+    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -5768,7 +5781,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="32" spans="1:54">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -5932,7 +5945,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="33" spans="1:54">
+    <row r="33" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -6096,7 +6109,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="34" spans="1:54">
+    <row r="34" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -6260,7 +6273,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="35" spans="1:54">
+    <row r="35" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -6424,7 +6437,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="36" spans="1:54">
+    <row r="36" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -6588,7 +6601,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="37" spans="1:54">
+    <row r="37" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -6752,7 +6765,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="38" spans="1:54">
+    <row r="38" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -6916,7 +6929,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="39" spans="1:54">
+    <row r="39" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -7080,7 +7093,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="40" spans="1:54">
+    <row r="40" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -7244,7 +7257,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="41" spans="1:54">
+    <row r="41" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -7408,7 +7421,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="42" spans="1:54">
+    <row r="42" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -7572,7 +7585,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="43" spans="1:54">
+    <row r="43" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -7736,7 +7749,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="44" spans="1:54">
+    <row r="44" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -7900,7 +7913,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="45" spans="1:54">
+    <row r="45" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -8064,7 +8077,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="46" spans="1:54">
+    <row r="46" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -8228,7 +8241,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="47" spans="1:54">
+    <row r="47" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -8392,7 +8405,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="48" spans="1:54">
+    <row r="48" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -8556,7 +8569,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="49" spans="1:63">
+    <row r="49" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -8720,7 +8733,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="50" spans="1:63">
+    <row r="50" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -8884,7 +8897,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="51" spans="1:63">
+    <row r="51" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -9048,7 +9061,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="52" spans="1:63">
+    <row r="52" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -9212,7 +9225,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="53" spans="1:63">
+    <row r="53" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -9376,7 +9389,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="54" spans="1:63">
+    <row r="54" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -9540,7 +9553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:63">
+    <row r="55" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -9783,7 +9796,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="56" spans="1:63">
+    <row r="56" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -10034,7 +10047,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="57" spans="1:63">
+    <row r="57" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -10043,7 +10056,7 @@
         <v>304</v>
       </c>
       <c r="C57">
-        <f t="shared" ref="C57:AE57" si="2">C56+(C31-C30)</f>
+        <f t="shared" ref="C57:AC57" si="2">C56+(C31-C30)</f>
         <v>294</v>
       </c>
       <c r="D57">
@@ -10283,7 +10296,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="58" spans="1:63">
+    <row r="58" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -10292,7 +10305,7 @@
         <v>420</v>
       </c>
       <c r="C58">
-        <f t="shared" ref="C58:BE58" si="31">C59</f>
+        <f t="shared" ref="C58:BE62" si="31">C59</f>
         <v>409</v>
       </c>
       <c r="D58">
@@ -10421,7 +10434,7 @@
       </c>
       <c r="AI58">
         <f t="shared" si="31"/>
-        <v>258</v>
+        <v>129</v>
       </c>
       <c r="AJ58">
         <f t="shared" si="31"/>
@@ -10436,27 +10449,21 @@
         <v>129</v>
       </c>
       <c r="AM58">
-        <f t="shared" si="31"/>
         <v>129</v>
       </c>
       <c r="AN58">
-        <f t="shared" si="31"/>
         <v>206</v>
       </c>
       <c r="AO58">
-        <f t="shared" si="31"/>
         <v>234</v>
       </c>
       <c r="AP58">
-        <f t="shared" si="31"/>
         <v>252</v>
       </c>
       <c r="AQ58">
-        <f t="shared" si="31"/>
         <v>280</v>
       </c>
       <c r="AR58">
-        <f t="shared" si="31"/>
         <v>602</v>
       </c>
       <c r="AS58">
@@ -10534,7 +10541,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="59" spans="1:63">
+    <row r="59" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -10671,8 +10678,7 @@
         <v>129</v>
       </c>
       <c r="AI59">
-        <f t="shared" si="36"/>
-        <v>258</v>
+        <v>129</v>
       </c>
       <c r="AJ59">
         <v>129</v>
@@ -10686,27 +10692,21 @@
         <v>129</v>
       </c>
       <c r="AM59">
-        <f t="shared" si="36"/>
         <v>129</v>
       </c>
       <c r="AN59">
-        <f t="shared" si="36"/>
         <v>206</v>
       </c>
       <c r="AO59">
-        <f t="shared" si="36"/>
         <v>234</v>
       </c>
       <c r="AP59">
-        <f t="shared" si="36"/>
         <v>252</v>
       </c>
       <c r="AQ59">
-        <f t="shared" si="36"/>
         <v>280</v>
       </c>
       <c r="AR59">
-        <f t="shared" si="36"/>
         <v>602</v>
       </c>
       <c r="AS59">
@@ -10784,7 +10784,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="60" spans="1:63">
+    <row r="60" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -10901,122 +10901,114 @@
         <v>231</v>
       </c>
       <c r="AD60">
-        <f t="shared" ref="AD60" si="45">AD61-(AD34-AD33)</f>
+        <f>AD61-(AD34-AD33)</f>
         <v>231</v>
       </c>
       <c r="AE60">
-        <f t="shared" ref="AE60" si="46">AE61-(AE34-AE33)</f>
+        <f t="shared" ref="AE60" si="45">AE61-(AE34-AE33)</f>
         <v>217</v>
       </c>
       <c r="AF60">
-        <f t="shared" ref="AF60" si="47">AF61-(AF34-AF33)</f>
+        <f t="shared" ref="AF60" si="46">AF61-(AF34-AF33)</f>
         <v>129</v>
       </c>
       <c r="AG60">
         <v>129</v>
       </c>
       <c r="AH60">
-        <f t="shared" ref="AH60" si="48">AH61-(AH34-AH33)</f>
-        <v>258</v>
+        <v>129</v>
       </c>
       <c r="AI60">
-        <f t="shared" ref="AI60" si="49">AI61-(AI34-AI33)</f>
-        <v>258</v>
+        <v>129</v>
       </c>
       <c r="AJ60">
-        <f t="shared" ref="AJ60" si="50">AJ61-(AJ34-AJ33)</f>
+        <f t="shared" ref="AJ60" si="47">AJ61-(AJ34-AJ33)</f>
         <v>129</v>
       </c>
       <c r="AK60">
-        <f t="shared" ref="AK60" si="51">AK61-(AK34-AK33)</f>
+        <f t="shared" ref="AK60" si="48">AK61-(AK34-AK33)</f>
         <v>129</v>
       </c>
       <c r="AL60">
-        <f t="shared" ref="AL60" si="52">AL61-(AL34-AL33)</f>
+        <f t="shared" ref="AL60" si="49">AL61-(AL34-AL33)</f>
         <v>129</v>
       </c>
       <c r="AM60">
-        <f t="shared" ref="AM60" si="53">AM61-(AM34-AM33)</f>
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AN60">
-        <f t="shared" ref="AN60" si="54">AN61-(AN34-AN33)</f>
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="AO60">
-        <f t="shared" ref="AO60" si="55">AO61-(AO34-AO33)</f>
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="AP60">
-        <f t="shared" ref="AP60" si="56">AP61-(AP34-AP33)</f>
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="AQ60">
-        <f t="shared" ref="AQ60" si="57">AQ61-(AQ34-AQ33)</f>
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AR60">
-        <f t="shared" ref="AR60" si="58">AR61-(AR34-AR33)</f>
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="AS60">
-        <f t="shared" ref="AS60" si="59">AS61-(AS34-AS33)</f>
+        <f t="shared" ref="AS60" si="50">AS61-(AS34-AS33)</f>
         <v>703</v>
       </c>
       <c r="AT60">
-        <f t="shared" ref="AT60" si="60">AT61-(AT34-AT33)</f>
+        <f t="shared" ref="AT60" si="51">AT61-(AT34-AT33)</f>
         <v>448</v>
       </c>
       <c r="AU60">
-        <f t="shared" ref="AU60" si="61">AU61-(AU34-AU33)</f>
+        <f t="shared" ref="AU60" si="52">AU61-(AU34-AU33)</f>
         <v>458</v>
       </c>
       <c r="AV60">
-        <f t="shared" ref="AV60" si="62">AV61-(AV34-AV33)</f>
+        <f t="shared" ref="AV60" si="53">AV61-(AV34-AV33)</f>
         <v>469</v>
       </c>
       <c r="AW60">
-        <f t="shared" ref="AW60" si="63">AW61-(AW34-AW33)</f>
+        <f t="shared" ref="AW60" si="54">AW61-(AW34-AW33)</f>
         <v>521</v>
       </c>
       <c r="AX60">
-        <f t="shared" ref="AX60" si="64">AX61-(AX34-AX33)</f>
+        <f t="shared" ref="AX60" si="55">AX61-(AX34-AX33)</f>
         <v>532</v>
       </c>
       <c r="AY60">
-        <f t="shared" ref="AY60" si="65">AY61-(AY34-AY33)</f>
+        <f t="shared" ref="AY60" si="56">AY61-(AY34-AY33)</f>
         <v>532</v>
       </c>
       <c r="AZ60">
-        <f t="shared" ref="AZ60" si="66">AZ61-(AZ34-AZ33)</f>
+        <f t="shared" ref="AZ60" si="57">AZ61-(AZ34-AZ33)</f>
         <v>546</v>
       </c>
       <c r="BA60">
-        <f t="shared" ref="BA60" si="67">BA61-(BA34-BA33)</f>
+        <f t="shared" ref="BA60" si="58">BA61-(BA34-BA33)</f>
         <v>434</v>
       </c>
       <c r="BB60">
-        <f t="shared" ref="BB60" si="68">BB61-(BB34-BB33)</f>
+        <f t="shared" ref="BB60" si="59">BB61-(BB34-BB33)</f>
         <v>315</v>
       </c>
       <c r="BC60">
-        <f t="shared" ref="BC60" si="69">BC61-(BC34-BC33)</f>
+        <f t="shared" ref="BC60" si="60">BC61-(BC34-BC33)</f>
         <v>231</v>
       </c>
       <c r="BD60">
-        <f t="shared" ref="BD60" si="70">BD61-(BD34-BD33)</f>
+        <f t="shared" ref="BD60" si="61">BD61-(BD34-BD33)</f>
         <v>231</v>
       </c>
       <c r="BE60">
-        <f t="shared" ref="BE60" si="71">BE61-(BE34-BE33)</f>
+        <f t="shared" ref="BE60" si="62">BE61-(BE34-BE33)</f>
         <v>231</v>
       </c>
       <c r="BF60">
-        <f t="shared" ref="BF60" si="72">BF61-(BF34-BF33)</f>
+        <f t="shared" ref="BF60" si="63">BF61-(BF34-BF33)</f>
         <v>129</v>
       </c>
       <c r="BG60">
-        <f t="shared" ref="BG60" si="73">BG61-(BG34-BG33)</f>
+        <f t="shared" ref="BG60" si="64">BG61-(BG34-BG33)</f>
         <v>129</v>
       </c>
       <c r="BH60">
@@ -11026,15 +11018,15 @@
         <v>129</v>
       </c>
       <c r="BJ60">
-        <f t="shared" ref="BJ60" si="74">BJ61-(BJ34-BJ33)</f>
+        <f t="shared" ref="BJ60" si="65">BJ61-(BJ34-BJ33)</f>
         <v>129</v>
       </c>
       <c r="BK60">
-        <f t="shared" ref="BK60" si="75">BK61-(BK34-BK33)</f>
+        <f t="shared" ref="BK60" si="66">BK61-(BK34-BK33)</f>
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="1:63">
+    <row r="61" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -11043,47 +11035,47 @@
         <v>416</v>
       </c>
       <c r="C61">
-        <f t="shared" ref="C61:M61" si="76">C62-(C35-C34)</f>
+        <f t="shared" ref="C61:M61" si="67">C62-(C35-C34)</f>
         <v>402</v>
       </c>
       <c r="D61">
-        <f t="shared" si="76"/>
+        <f t="shared" si="67"/>
         <v>339</v>
       </c>
       <c r="E61">
-        <f t="shared" si="76"/>
+        <f t="shared" si="67"/>
         <v>416</v>
       </c>
       <c r="F61">
-        <f t="shared" si="76"/>
+        <f t="shared" si="67"/>
         <v>392</v>
       </c>
       <c r="G61">
-        <f t="shared" si="76"/>
+        <f t="shared" si="67"/>
         <v>360</v>
       </c>
       <c r="H61">
-        <f t="shared" si="76"/>
+        <f t="shared" si="67"/>
         <v>339</v>
       </c>
       <c r="I61">
-        <f t="shared" si="76"/>
+        <f t="shared" si="67"/>
         <v>322</v>
       </c>
       <c r="J61">
-        <f t="shared" si="76"/>
+        <f t="shared" si="67"/>
         <v>304</v>
       </c>
       <c r="K61">
-        <f t="shared" si="76"/>
+        <f t="shared" si="67"/>
         <v>283</v>
       </c>
       <c r="L61">
-        <f t="shared" si="76"/>
+        <f t="shared" si="67"/>
         <v>262</v>
       </c>
       <c r="M61">
-        <f t="shared" si="76"/>
+        <f t="shared" si="67"/>
         <v>231</v>
       </c>
       <c r="N61">
@@ -11091,23 +11083,23 @@
         <v>315</v>
       </c>
       <c r="O61">
-        <f t="shared" ref="O61" si="77">O62-(O35-O34)</f>
+        <f t="shared" ref="O61" si="68">O62-(O35-O34)</f>
         <v>301</v>
       </c>
       <c r="P61">
-        <f t="shared" ref="P61" si="78">P62-(P35-P34)</f>
+        <f t="shared" ref="P61" si="69">P62-(P35-P34)</f>
         <v>290</v>
       </c>
       <c r="Q61">
-        <f t="shared" ref="Q61" si="79">Q62-(Q35-Q34)</f>
+        <f t="shared" ref="Q61" si="70">Q62-(Q35-Q34)</f>
         <v>280</v>
       </c>
       <c r="R61">
-        <f t="shared" ref="R61" si="80">R62-(R35-R34)</f>
+        <f t="shared" ref="R61" si="71">R62-(R35-R34)</f>
         <v>273</v>
       </c>
       <c r="S61">
-        <f t="shared" ref="S61" si="81">S62-(S35-S34)</f>
+        <f t="shared" ref="S61" si="72">S62-(S35-S34)</f>
         <v>262</v>
       </c>
       <c r="T61">
@@ -11115,23 +11107,23 @@
         <v>441</v>
       </c>
       <c r="U61">
-        <f t="shared" ref="U61" si="82">U62-(U35-U34)</f>
+        <f t="shared" ref="U61" si="73">U62-(U35-U34)</f>
         <v>406</v>
       </c>
       <c r="V61">
-        <f t="shared" ref="V61" si="83">V62-(V35-V34)</f>
+        <f t="shared" ref="V61" si="74">V62-(V35-V34)</f>
         <v>395</v>
       </c>
       <c r="W61">
-        <f t="shared" ref="W61" si="84">W62-(W35-W34)</f>
+        <f t="shared" ref="W61" si="75">W62-(W35-W34)</f>
         <v>367</v>
       </c>
       <c r="X61">
-        <f t="shared" ref="X61" si="85">X62-(X35-X34)</f>
+        <f t="shared" ref="X61" si="76">X62-(X35-X34)</f>
         <v>357</v>
       </c>
       <c r="Y61">
-        <f t="shared" ref="Y61" si="86">Y62-(Y35-Y34)</f>
+        <f t="shared" ref="Y61" si="77">Y62-(Y35-Y34)</f>
         <v>332</v>
       </c>
       <c r="Z61">
@@ -11139,19 +11131,19 @@
         <v>308</v>
       </c>
       <c r="AA61">
-        <f t="shared" ref="AA61" si="87">AA62-(AA35-AA34)</f>
+        <f t="shared" ref="AA61" si="78">AA62-(AA35-AA34)</f>
         <v>262</v>
       </c>
       <c r="AB61">
-        <f t="shared" ref="AB61" si="88">AB62-(AB35-AB34)</f>
+        <f t="shared" ref="AB61" si="79">AB62-(AB35-AB34)</f>
         <v>245</v>
       </c>
       <c r="AC61">
-        <f t="shared" ref="AC61" si="89">AC62-(AC35-AC34)</f>
+        <f t="shared" ref="AC61" si="80">AC62-(AC35-AC34)</f>
         <v>231</v>
       </c>
       <c r="AD61">
-        <f t="shared" ref="AD61" si="90">AD62-(AD35-AD34)</f>
+        <f t="shared" ref="AD61" si="81">AD62-(AD35-AD34)</f>
         <v>231</v>
       </c>
       <c r="AE61">
@@ -11159,78 +11151,71 @@
         <v>217</v>
       </c>
       <c r="AF61">
-        <f t="shared" ref="AF61" si="91">AF62-(AF35-AF34)</f>
+        <f t="shared" ref="AF61" si="82">AF62-(AF35-AF34)</f>
         <v>129</v>
       </c>
       <c r="AG61">
-        <f t="shared" ref="AG61" si="92">AG62-(AG35-AG34)</f>
+        <f t="shared" ref="AG61" si="83">AG62-(AG35-AG34)</f>
         <v>129</v>
       </c>
       <c r="AH61">
         <v>129</v>
       </c>
       <c r="AI61">
-        <f t="shared" ref="AI61" si="93">AI62-(AI35-AI34)</f>
-        <v>258</v>
+        <v>129</v>
       </c>
       <c r="AJ61">
         <f>AJ62-(AJ35-AJ34)</f>
         <v>129</v>
       </c>
       <c r="AK61">
-        <f t="shared" ref="AK61" si="94">AK62-(AK35-AK34)</f>
+        <f t="shared" ref="AK61" si="84">AK62-(AK35-AK34)</f>
         <v>129</v>
       </c>
       <c r="AL61">
-        <f t="shared" ref="AL61" si="95">AL62-(AL35-AL34)</f>
+        <f t="shared" ref="AL61" si="85">AL62-(AL35-AL34)</f>
         <v>129</v>
       </c>
       <c r="AM61">
-        <f>AM62-(AM35-AM34)</f>
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AN61">
-        <f t="shared" ref="AN61" si="96">AN62-(AN35-AN34)</f>
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="AO61">
-        <f t="shared" ref="AO61" si="97">AO62-(AO35-AO34)</f>
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="AP61">
-        <f t="shared" ref="AP61" si="98">AP62-(AP35-AP34)</f>
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="AQ61">
-        <f t="shared" ref="AQ61" si="99">AQ62-(AQ35-AQ34)</f>
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AR61">
-        <f t="shared" ref="AR61" si="100">AR62-(AR35-AR34)</f>
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="AS61">
-        <f t="shared" ref="AS61" si="101">AS62-(AS35-AS34)</f>
+        <f t="shared" ref="AS61" si="86">AS62-(AS35-AS34)</f>
         <v>703</v>
       </c>
       <c r="AT61">
-        <f t="shared" ref="AT61" si="102">AT62-(AT35-AT34)</f>
+        <f t="shared" ref="AT61" si="87">AT62-(AT35-AT34)</f>
         <v>448</v>
       </c>
       <c r="AU61">
-        <f t="shared" ref="AU61" si="103">AU62-(AU35-AU34)</f>
+        <f t="shared" ref="AU61" si="88">AU62-(AU35-AU34)</f>
         <v>458</v>
       </c>
       <c r="AV61">
-        <f t="shared" ref="AV61" si="104">AV62-(AV35-AV34)</f>
+        <f t="shared" ref="AV61" si="89">AV62-(AV35-AV34)</f>
         <v>469</v>
       </c>
       <c r="AW61">
-        <f t="shared" ref="AW61" si="105">AW62-(AW35-AW34)</f>
+        <f t="shared" ref="AW61" si="90">AW62-(AW35-AW34)</f>
         <v>521</v>
       </c>
       <c r="AX61">
-        <f t="shared" ref="AX61" si="106">AX62-(AX35-AX34)</f>
+        <f t="shared" ref="AX61" si="91">AX62-(AX35-AX34)</f>
         <v>532</v>
       </c>
       <c r="AY61">
@@ -11238,23 +11223,23 @@
         <v>532</v>
       </c>
       <c r="AZ61">
-        <f t="shared" ref="AZ61" si="107">AZ62-(AZ35-AZ34)</f>
+        <f t="shared" ref="AZ61" si="92">AZ62-(AZ35-AZ34)</f>
         <v>546</v>
       </c>
       <c r="BA61">
-        <f t="shared" ref="BA61" si="108">BA62-(BA35-BA34)</f>
+        <f t="shared" ref="BA61" si="93">BA62-(BA35-BA34)</f>
         <v>434</v>
       </c>
       <c r="BB61">
-        <f t="shared" ref="BB61" si="109">BB62-(BB35-BB34)</f>
+        <f t="shared" ref="BB61" si="94">BB62-(BB35-BB34)</f>
         <v>315</v>
       </c>
       <c r="BC61">
-        <f t="shared" ref="BC61" si="110">BC62-(BC35-BC34)</f>
+        <f t="shared" ref="BC61" si="95">BC62-(BC35-BC34)</f>
         <v>231</v>
       </c>
       <c r="BD61">
-        <f t="shared" ref="BD61" si="111">BD62-(BD35-BD34)</f>
+        <f t="shared" ref="BD61" si="96">BD62-(BD35-BD34)</f>
         <v>231</v>
       </c>
       <c r="BE61">
@@ -11262,15 +11247,15 @@
         <v>231</v>
       </c>
       <c r="BF61">
-        <f t="shared" ref="BF61" si="112">BF62-(BF35-BF34)</f>
+        <f t="shared" ref="BF61" si="97">BF62-(BF35-BF34)</f>
         <v>129</v>
       </c>
       <c r="BG61">
-        <f t="shared" ref="BG61" si="113">BG62-(BG35-BG34)</f>
+        <f t="shared" ref="BG61" si="98">BG62-(BG35-BG34)</f>
         <v>129</v>
       </c>
       <c r="BH61">
-        <f t="shared" ref="BH61" si="114">BH62-(BH35-BH34)</f>
+        <f t="shared" ref="BH61" si="99">BH62-(BH35-BH34)</f>
         <v>129</v>
       </c>
       <c r="BI61">
@@ -11284,7 +11269,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:63">
+    <row r="62" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -11293,211 +11278,205 @@
         <v>416</v>
       </c>
       <c r="C62">
-        <f t="shared" ref="C62:BB62" si="115">C63</f>
+        <f t="shared" ref="C62:BB62" si="100">C63</f>
         <v>402</v>
       </c>
       <c r="D62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="100"/>
         <v>339</v>
       </c>
       <c r="E62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="100"/>
         <v>416</v>
       </c>
       <c r="F62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="100"/>
         <v>392</v>
       </c>
       <c r="G62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="100"/>
         <v>360</v>
       </c>
       <c r="H62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="100"/>
         <v>339</v>
       </c>
       <c r="I62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="100"/>
         <v>322</v>
       </c>
       <c r="J62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="100"/>
         <v>304</v>
       </c>
       <c r="K62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="100"/>
         <v>283</v>
       </c>
       <c r="L62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="100"/>
         <v>262</v>
       </c>
       <c r="M62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="100"/>
         <v>231</v>
       </c>
       <c r="N62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="100"/>
         <v>315</v>
       </c>
       <c r="O62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="100"/>
         <v>301</v>
       </c>
       <c r="P62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="100"/>
         <v>290</v>
       </c>
       <c r="Q62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="100"/>
         <v>280</v>
       </c>
       <c r="R62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="100"/>
         <v>273</v>
       </c>
       <c r="S62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="100"/>
         <v>262</v>
       </c>
       <c r="T62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="100"/>
         <v>441</v>
       </c>
       <c r="U62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="100"/>
         <v>406</v>
       </c>
       <c r="V62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="100"/>
         <v>395</v>
       </c>
       <c r="W62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="100"/>
         <v>367</v>
       </c>
       <c r="X62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="100"/>
         <v>357</v>
       </c>
       <c r="Y62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="100"/>
         <v>332</v>
       </c>
       <c r="Z62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="100"/>
         <v>308</v>
       </c>
       <c r="AA62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="100"/>
         <v>262</v>
       </c>
       <c r="AB62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="100"/>
         <v>245</v>
       </c>
       <c r="AC62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="100"/>
         <v>231</v>
       </c>
       <c r="AD62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="100"/>
         <v>231</v>
       </c>
       <c r="AE62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="100"/>
         <v>217</v>
       </c>
       <c r="AF62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="100"/>
         <v>129</v>
       </c>
       <c r="AG62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="100"/>
         <v>129</v>
       </c>
       <c r="AH62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="100"/>
         <v>129</v>
       </c>
       <c r="AI62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="100"/>
         <v>129</v>
       </c>
       <c r="AJ62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="100"/>
         <v>129</v>
       </c>
       <c r="AK62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="100"/>
         <v>129</v>
       </c>
       <c r="AL62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="100"/>
         <v>129</v>
       </c>
       <c r="AM62">
-        <f t="shared" si="115"/>
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AN62">
-        <f t="shared" si="115"/>
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="AO62">
-        <f t="shared" si="115"/>
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="AP62">
-        <f t="shared" si="115"/>
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="AQ62">
-        <f t="shared" si="115"/>
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AR62">
-        <f t="shared" si="115"/>
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="AS62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="100"/>
         <v>703</v>
       </c>
       <c r="AT62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="100"/>
         <v>448</v>
       </c>
       <c r="AU62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="100"/>
         <v>458</v>
       </c>
       <c r="AV62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="100"/>
         <v>469</v>
       </c>
       <c r="AW62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="100"/>
         <v>521</v>
       </c>
       <c r="AX62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="100"/>
         <v>532</v>
       </c>
       <c r="AY62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="100"/>
         <v>532</v>
       </c>
       <c r="AZ62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="100"/>
         <v>546</v>
       </c>
       <c r="BA62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="100"/>
         <v>434</v>
       </c>
       <c r="BB62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="100"/>
         <v>315</v>
       </c>
       <c r="BC62">
@@ -11531,7 +11510,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:63">
+    <row r="63" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -11540,210 +11519,204 @@
         <v>416</v>
       </c>
       <c r="C63">
-        <f t="shared" ref="C63:BK63" si="116">C35</f>
+        <f t="shared" ref="C63:BK63" si="101">C35</f>
         <v>402</v>
       </c>
       <c r="D63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="101"/>
         <v>339</v>
       </c>
       <c r="E63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="101"/>
         <v>416</v>
       </c>
       <c r="F63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="101"/>
         <v>392</v>
       </c>
       <c r="G63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="101"/>
         <v>360</v>
       </c>
       <c r="H63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="101"/>
         <v>339</v>
       </c>
       <c r="I63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="101"/>
         <v>322</v>
       </c>
       <c r="J63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="101"/>
         <v>304</v>
       </c>
       <c r="K63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="101"/>
         <v>283</v>
       </c>
       <c r="L63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="101"/>
         <v>262</v>
       </c>
       <c r="M63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="101"/>
         <v>231</v>
       </c>
       <c r="N63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="101"/>
         <v>315</v>
       </c>
       <c r="O63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="101"/>
         <v>301</v>
       </c>
       <c r="P63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="101"/>
         <v>290</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="101"/>
         <v>280</v>
       </c>
       <c r="R63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="101"/>
         <v>273</v>
       </c>
       <c r="S63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="101"/>
         <v>262</v>
       </c>
       <c r="T63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="101"/>
         <v>441</v>
       </c>
       <c r="U63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="101"/>
         <v>406</v>
       </c>
       <c r="V63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="101"/>
         <v>395</v>
       </c>
       <c r="W63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="101"/>
         <v>367</v>
       </c>
       <c r="X63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="101"/>
         <v>357</v>
       </c>
       <c r="Y63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="101"/>
         <v>332</v>
       </c>
       <c r="Z63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="101"/>
         <v>308</v>
       </c>
       <c r="AA63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="101"/>
         <v>262</v>
       </c>
       <c r="AB63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="101"/>
         <v>245</v>
       </c>
       <c r="AC63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="101"/>
         <v>231</v>
       </c>
       <c r="AD63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="101"/>
         <v>231</v>
       </c>
       <c r="AE63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="101"/>
         <v>217</v>
       </c>
       <c r="AF63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="101"/>
         <v>129</v>
       </c>
       <c r="AG63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="101"/>
         <v>129</v>
       </c>
       <c r="AH63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="101"/>
         <v>129</v>
       </c>
       <c r="AI63">
         <v>129</v>
       </c>
       <c r="AJ63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="101"/>
         <v>129</v>
       </c>
       <c r="AK63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="101"/>
         <v>129</v>
       </c>
       <c r="AL63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="101"/>
         <v>129</v>
       </c>
       <c r="AM63">
-        <f t="shared" si="116"/>
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AN63">
-        <f t="shared" si="116"/>
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="AO63">
-        <f t="shared" si="116"/>
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="AP63">
-        <f t="shared" si="116"/>
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="AQ63">
-        <f t="shared" si="116"/>
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AR63">
-        <f t="shared" si="116"/>
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="AS63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="101"/>
         <v>703</v>
       </c>
       <c r="AT63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="101"/>
         <v>448</v>
       </c>
       <c r="AU63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="101"/>
         <v>458</v>
       </c>
       <c r="AV63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="101"/>
         <v>469</v>
       </c>
       <c r="AW63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="101"/>
         <v>521</v>
       </c>
       <c r="AX63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="101"/>
         <v>532</v>
       </c>
       <c r="AY63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="101"/>
         <v>532</v>
       </c>
       <c r="AZ63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="101"/>
         <v>546</v>
       </c>
       <c r="BA63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="101"/>
         <v>434</v>
       </c>
       <c r="BB63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="101"/>
         <v>315</v>
       </c>
       <c r="BC63">
@@ -11774,7 +11747,7 @@
         <v>129</v>
       </c>
       <c r="BK63">
-        <f t="shared" si="116"/>
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
     </row>

--- a/Alternatives/Alternative2_01/transit_fare/farematrix_alt2.xlsx
+++ b/Alternatives/Alternative2_01/transit_fare/farematrix_alt2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbrooks\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3555" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28020" windowHeight="15440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="farematrix.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -215,7 +210,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -248,12 +243,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -265,7 +266,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -291,12 +292,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -309,6 +313,7 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -321,6 +326,7 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -660,20 +666,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="AR1" sqref="AR1"/>
-      <selection pane="bottomLeft" activeCell="AA58" sqref="AA58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AW38" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="BC70" sqref="BC70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.625" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -861,7 +868,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:63">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1025,7 +1032,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:63">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1189,7 +1196,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:63">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1353,7 +1360,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:63">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1517,7 +1524,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:63">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1681,7 +1688,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:63">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1845,7 +1852,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:63">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2009,7 +2016,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:63">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2173,7 +2180,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:63">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2337,7 +2344,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:63">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2501,7 +2508,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:63">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2665,7 +2672,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:63">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2829,7 +2836,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:63">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2993,7 +3000,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:63">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3157,7 +3164,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:63">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3321,7 +3328,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:54">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3485,7 +3492,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:54">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3649,7 +3656,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:54">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3813,7 +3820,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:54">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3977,7 +3984,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:54">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -4141,7 +4148,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:54">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -4305,7 +4312,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:54">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -4469,7 +4476,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:54">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -4633,7 +4640,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:54">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -4797,7 +4804,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:54">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -4961,7 +4968,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:54">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -5125,7 +5132,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:54">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -5289,7 +5296,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:54">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -5453,7 +5460,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:54">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -5617,7 +5624,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:54">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -5781,7 +5788,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:54">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -5945,7 +5952,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="33" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:54">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -6109,7 +6116,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="34" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:54">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -6273,7 +6280,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="35" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:54">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -6437,7 +6444,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="36" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:54">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -6601,7 +6608,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="37" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:54">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -6765,7 +6772,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="38" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:54">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -6929,7 +6936,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="39" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:54">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -7093,7 +7100,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="40" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:54">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -7257,7 +7264,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="41" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:54">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -7421,7 +7428,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="42" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:54">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -7585,7 +7592,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="43" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:54">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -7749,7 +7756,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="44" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:54">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -7913,7 +7920,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="45" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:54">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -8077,7 +8084,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="46" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:54">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -8241,7 +8248,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="47" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:54">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -8405,7 +8412,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="48" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:54">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -8569,7 +8576,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="49" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:63">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -8733,7 +8740,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="50" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:63">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -8897,7 +8904,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="51" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:63">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -9061,7 +9068,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="52" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:63">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -9225,7 +9232,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="53" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:63">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -9389,7 +9396,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="54" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:63">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -9553,2201 +9560,2113 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="55" spans="1:63" s="1" customFormat="1">
+      <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="1">
         <f>B30</f>
         <v>297</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="1">
         <f t="shared" ref="C55:BB55" si="0">C30</f>
         <v>287</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="1">
         <f t="shared" si="0"/>
         <v>224</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="1">
         <f t="shared" si="0"/>
         <v>301</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="1">
         <f t="shared" si="0"/>
         <v>276</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="1">
         <f t="shared" si="0"/>
         <v>245</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="1">
         <f t="shared" si="0"/>
         <v>224</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="1">
         <f t="shared" si="0"/>
         <v>192</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="1">
         <f t="shared" si="0"/>
         <v>168</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="1">
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="1">
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
-      <c r="M55">
+      <c r="M55" s="1">
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
-      <c r="N55">
+      <c r="N55" s="1">
         <f t="shared" si="0"/>
         <v>196</v>
       </c>
-      <c r="O55">
+      <c r="O55" s="1">
         <f t="shared" si="0"/>
         <v>171</v>
       </c>
-      <c r="P55">
+      <c r="P55" s="1">
         <f t="shared" si="0"/>
         <v>154</v>
       </c>
-      <c r="Q55">
+      <c r="Q55" s="1">
         <f t="shared" si="0"/>
         <v>133</v>
       </c>
-      <c r="R55">
+      <c r="R55" s="1">
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
-      <c r="S55">
+      <c r="S55" s="1">
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
-      <c r="T55">
+      <c r="T55" s="1">
         <f t="shared" si="0"/>
         <v>322</v>
       </c>
-      <c r="U55">
+      <c r="U55" s="1">
         <f t="shared" si="0"/>
         <v>287</v>
       </c>
-      <c r="V55">
+      <c r="V55" s="1">
         <f t="shared" si="0"/>
         <v>273</v>
       </c>
-      <c r="W55">
+      <c r="W55" s="1">
         <f t="shared" si="0"/>
         <v>248</v>
       </c>
-      <c r="X55">
+      <c r="X55" s="1">
         <f t="shared" si="0"/>
         <v>238</v>
       </c>
-      <c r="Y55">
+      <c r="Y55" s="1">
         <f t="shared" si="0"/>
         <v>206</v>
       </c>
-      <c r="Z55">
+      <c r="Z55" s="1">
         <f t="shared" si="0"/>
         <v>164</v>
       </c>
-      <c r="AA55">
+      <c r="AA55" s="1">
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
-      <c r="AB55">
+      <c r="AB55" s="1">
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
-      <c r="AC55">
+      <c r="AC55" s="1">
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
-      <c r="AD55">
-        <v>129</v>
-      </c>
-      <c r="AE55">
+      <c r="AD55" s="1">
+        <v>129</v>
+      </c>
+      <c r="AE55" s="1">
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
-      <c r="AF55">
+      <c r="AF55" s="1">
         <f t="shared" si="0"/>
         <v>231</v>
       </c>
-      <c r="AG55">
+      <c r="AG55" s="1">
         <f t="shared" si="0"/>
         <v>231</v>
       </c>
-      <c r="AH55">
+      <c r="AH55" s="1">
         <f t="shared" si="0"/>
         <v>231</v>
       </c>
-      <c r="AI55">
+      <c r="AI55" s="1">
         <f t="shared" si="0"/>
         <v>231</v>
       </c>
-      <c r="AJ55">
+      <c r="AJ55" s="1">
         <f t="shared" si="0"/>
         <v>245</v>
       </c>
-      <c r="AK55">
+      <c r="AK55" s="1">
         <f t="shared" si="0"/>
         <v>252</v>
       </c>
-      <c r="AL55">
+      <c r="AL55" s="1">
         <f t="shared" si="0"/>
         <v>269</v>
       </c>
-      <c r="AM55">
+      <c r="AM55" s="1">
         <f t="shared" si="0"/>
         <v>276</v>
       </c>
-      <c r="AN55">
+      <c r="AN55" s="1">
         <f t="shared" si="0"/>
         <v>287</v>
       </c>
-      <c r="AO55">
+      <c r="AO55" s="1">
         <f t="shared" si="0"/>
         <v>283</v>
       </c>
-      <c r="AP55">
+      <c r="AP55" s="1">
         <f t="shared" si="0"/>
         <v>297</v>
       </c>
-      <c r="AQ55">
+      <c r="AQ55" s="1">
         <f t="shared" si="0"/>
         <v>315</v>
       </c>
-      <c r="AR55">
+      <c r="AR55" s="1">
         <f t="shared" si="0"/>
         <v>626</v>
       </c>
-      <c r="AS55">
+      <c r="AS55" s="1">
         <f t="shared" si="0"/>
         <v>549</v>
       </c>
-      <c r="AT55">
+      <c r="AT55" s="1">
         <f t="shared" si="0"/>
         <v>332</v>
       </c>
-      <c r="AU55">
+      <c r="AU55" s="1">
         <f t="shared" si="0"/>
         <v>343</v>
       </c>
-      <c r="AV55">
+      <c r="AV55" s="1">
         <f t="shared" si="0"/>
         <v>353</v>
       </c>
-      <c r="AW55">
+      <c r="AW55" s="1">
         <f t="shared" si="0"/>
         <v>402</v>
       </c>
-      <c r="AX55">
+      <c r="AX55" s="1">
         <f t="shared" si="0"/>
         <v>413</v>
       </c>
-      <c r="AY55">
+      <c r="AY55" s="1">
         <f t="shared" si="0"/>
         <v>413</v>
       </c>
-      <c r="AZ55">
+      <c r="AZ55" s="1">
         <f t="shared" si="0"/>
         <v>427</v>
       </c>
-      <c r="BA55">
+      <c r="BA55" s="1">
         <f t="shared" si="0"/>
         <v>318</v>
       </c>
-      <c r="BB55">
+      <c r="BB55" s="1">
         <f t="shared" si="0"/>
         <v>336</v>
       </c>
-      <c r="BC55">
+      <c r="BC55" s="1">
         <v>0</v>
       </c>
-      <c r="BD55">
-        <v>129</v>
-      </c>
-      <c r="BE55">
-        <v>129</v>
-      </c>
-      <c r="BF55">
-        <v>245</v>
-      </c>
-      <c r="BG55">
-        <v>245</v>
-      </c>
-      <c r="BH55">
-        <v>231</v>
-      </c>
-      <c r="BI55">
-        <v>231</v>
-      </c>
-      <c r="BJ55">
-        <v>231</v>
-      </c>
-      <c r="BK55">
-        <v>231</v>
-      </c>
     </row>
-    <row r="56" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="56" spans="1:63" s="1" customFormat="1">
+      <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="1">
         <f>B55</f>
         <v>297</v>
       </c>
-      <c r="C56">
-        <f t="shared" ref="C56:BK56" si="1">C55</f>
+      <c r="C56" s="1">
+        <f t="shared" ref="C56:BB56" si="1">C55</f>
         <v>287</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="1">
         <f t="shared" si="1"/>
         <v>224</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="1">
         <f t="shared" si="1"/>
         <v>301</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="1">
         <f t="shared" si="1"/>
         <v>276</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="1">
         <f t="shared" si="1"/>
         <v>245</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="1">
         <f t="shared" si="1"/>
         <v>224</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="1">
         <f t="shared" si="1"/>
         <v>192</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="1">
         <f t="shared" si="1"/>
         <v>168</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="1">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="1">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="M56">
+      <c r="M56" s="1">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="N56">
+      <c r="N56" s="1">
         <f t="shared" si="1"/>
         <v>196</v>
       </c>
-      <c r="O56">
+      <c r="O56" s="1">
         <f t="shared" si="1"/>
         <v>171</v>
       </c>
-      <c r="P56">
+      <c r="P56" s="1">
         <f t="shared" si="1"/>
         <v>154</v>
       </c>
-      <c r="Q56">
+      <c r="Q56" s="1">
         <f t="shared" si="1"/>
         <v>133</v>
       </c>
-      <c r="R56">
+      <c r="R56" s="1">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="S56">
+      <c r="S56" s="1">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="T56">
+      <c r="T56" s="1">
         <f t="shared" si="1"/>
         <v>322</v>
       </c>
-      <c r="U56">
+      <c r="U56" s="1">
         <f t="shared" si="1"/>
         <v>287</v>
       </c>
-      <c r="V56">
+      <c r="V56" s="1">
         <f t="shared" si="1"/>
         <v>273</v>
       </c>
-      <c r="W56">
+      <c r="W56" s="1">
         <f t="shared" si="1"/>
         <v>248</v>
       </c>
-      <c r="X56">
+      <c r="X56" s="1">
         <f t="shared" si="1"/>
         <v>238</v>
       </c>
-      <c r="Y56">
+      <c r="Y56" s="1">
         <f t="shared" si="1"/>
         <v>206</v>
       </c>
-      <c r="Z56">
+      <c r="Z56" s="1">
         <f t="shared" si="1"/>
         <v>164</v>
       </c>
-      <c r="AA56">
+      <c r="AA56" s="1">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="AB56">
+      <c r="AB56" s="1">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="AC56">
+      <c r="AC56" s="1">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="AD56">
+      <c r="AD56" s="1">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="AE56">
+      <c r="AE56" s="1">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="AF56">
+      <c r="AF56" s="1">
         <f t="shared" si="1"/>
         <v>231</v>
       </c>
-      <c r="AG56">
+      <c r="AG56" s="1">
         <f t="shared" si="1"/>
         <v>231</v>
       </c>
-      <c r="AH56">
+      <c r="AH56" s="1">
         <f t="shared" si="1"/>
         <v>231</v>
       </c>
-      <c r="AI56">
+      <c r="AI56" s="1">
         <f t="shared" si="1"/>
         <v>231</v>
       </c>
-      <c r="AJ56">
+      <c r="AJ56" s="1">
         <f t="shared" si="1"/>
         <v>245</v>
       </c>
-      <c r="AK56">
+      <c r="AK56" s="1">
         <f t="shared" si="1"/>
         <v>252</v>
       </c>
-      <c r="AL56">
+      <c r="AL56" s="1">
         <f t="shared" si="1"/>
         <v>269</v>
       </c>
-      <c r="AM56">
+      <c r="AM56" s="1">
         <f t="shared" si="1"/>
         <v>276</v>
       </c>
-      <c r="AN56">
+      <c r="AN56" s="1">
         <f t="shared" si="1"/>
         <v>287</v>
       </c>
-      <c r="AO56">
+      <c r="AO56" s="1">
         <f t="shared" si="1"/>
         <v>283</v>
       </c>
-      <c r="AP56">
+      <c r="AP56" s="1">
         <f t="shared" si="1"/>
         <v>297</v>
       </c>
-      <c r="AQ56">
+      <c r="AQ56" s="1">
         <f t="shared" si="1"/>
         <v>315</v>
       </c>
-      <c r="AR56">
+      <c r="AR56" s="1">
         <f t="shared" si="1"/>
         <v>626</v>
       </c>
-      <c r="AS56">
+      <c r="AS56" s="1">
         <f t="shared" si="1"/>
         <v>549</v>
       </c>
-      <c r="AT56">
+      <c r="AT56" s="1">
         <f t="shared" si="1"/>
         <v>332</v>
       </c>
-      <c r="AU56">
+      <c r="AU56" s="1">
         <f t="shared" si="1"/>
         <v>343</v>
       </c>
-      <c r="AV56">
+      <c r="AV56" s="1">
         <f t="shared" si="1"/>
         <v>353</v>
       </c>
-      <c r="AW56">
+      <c r="AW56" s="1">
         <f t="shared" si="1"/>
         <v>402</v>
       </c>
-      <c r="AX56">
+      <c r="AX56" s="1">
         <f t="shared" si="1"/>
         <v>413</v>
       </c>
-      <c r="AY56">
+      <c r="AY56" s="1">
         <f t="shared" si="1"/>
         <v>413</v>
       </c>
-      <c r="AZ56">
+      <c r="AZ56" s="1">
         <f t="shared" si="1"/>
         <v>427</v>
       </c>
-      <c r="BA56">
+      <c r="BA56" s="1">
         <f t="shared" si="1"/>
         <v>318</v>
       </c>
-      <c r="BB56">
+      <c r="BB56" s="1">
         <f t="shared" si="1"/>
         <v>336</v>
       </c>
-      <c r="BC56">
-        <v>129</v>
-      </c>
-      <c r="BD56">
+      <c r="BC56" s="1">
+        <v>129</v>
+      </c>
+      <c r="BD56" s="1">
         <v>0</v>
       </c>
-      <c r="BE56">
-        <f t="shared" si="1"/>
-        <v>129</v>
-      </c>
-      <c r="BF56">
-        <f t="shared" si="1"/>
-        <v>245</v>
-      </c>
-      <c r="BG56">
-        <f t="shared" si="1"/>
-        <v>245</v>
-      </c>
-      <c r="BH56">
-        <f t="shared" si="1"/>
-        <v>231</v>
-      </c>
-      <c r="BI56">
-        <f t="shared" si="1"/>
-        <v>231</v>
-      </c>
-      <c r="BJ56">
-        <f t="shared" si="1"/>
-        <v>231</v>
-      </c>
-      <c r="BK56">
-        <f t="shared" si="1"/>
-        <v>231</v>
-      </c>
     </row>
-    <row r="57" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="57" spans="1:63" s="1" customFormat="1">
+      <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="1">
         <f>B56+(B31-B30)</f>
         <v>304</v>
       </c>
-      <c r="C57">
-        <f t="shared" ref="C57:AC57" si="2">C56+(C31-C30)</f>
+      <c r="C57" s="1">
+        <f t="shared" ref="C57:AV57" si="2">C56+(C31-C30)</f>
         <v>294</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="1">
         <f t="shared" si="2"/>
         <v>231</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="1">
         <f t="shared" si="2"/>
         <v>308</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="1">
         <f t="shared" si="2"/>
         <v>283</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="1">
         <f t="shared" si="2"/>
         <v>252</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="1">
         <f t="shared" si="2"/>
         <v>231</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="1">
         <f t="shared" si="2"/>
         <v>206</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="1">
         <f t="shared" si="2"/>
         <v>178</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="1">
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="1">
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
-      <c r="M57">
+      <c r="M57" s="1">
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
-      <c r="N57">
+      <c r="N57" s="1">
         <f t="shared" si="2"/>
         <v>206</v>
       </c>
-      <c r="O57">
+      <c r="O57" s="1">
         <f t="shared" si="2"/>
         <v>182</v>
       </c>
-      <c r="P57">
+      <c r="P57" s="1">
         <f t="shared" si="2"/>
         <v>164</v>
       </c>
-      <c r="Q57">
+      <c r="Q57" s="1">
         <f t="shared" si="2"/>
         <v>143</v>
       </c>
-      <c r="R57">
+      <c r="R57" s="1">
         <f t="shared" si="2"/>
         <v>136</v>
       </c>
-      <c r="S57">
+      <c r="S57" s="1">
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
-      <c r="T57">
+      <c r="T57" s="1">
         <f t="shared" si="2"/>
         <v>332</v>
       </c>
-      <c r="U57">
+      <c r="U57" s="1">
         <f t="shared" si="2"/>
         <v>297</v>
       </c>
-      <c r="V57">
+      <c r="V57" s="1">
         <f t="shared" si="2"/>
         <v>283</v>
       </c>
-      <c r="W57">
+      <c r="W57" s="1">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="X57">
+      <c r="X57" s="1">
         <f t="shared" si="2"/>
         <v>245</v>
       </c>
-      <c r="Y57">
+      <c r="Y57" s="1">
         <f t="shared" si="2"/>
         <v>220</v>
       </c>
-      <c r="Z57">
+      <c r="Z57" s="1">
         <f t="shared" si="2"/>
         <v>178</v>
       </c>
-      <c r="AA57">
+      <c r="AA57" s="1">
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
-      <c r="AB57">
+      <c r="AB57" s="1">
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
-      <c r="AC57">
+      <c r="AC57" s="1">
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
-      <c r="AD57">
-        <v>129</v>
-      </c>
-      <c r="AE57">
-        <v>129</v>
-      </c>
-      <c r="AF57">
-        <f t="shared" ref="AF57" si="3">AF56+(AF31-AF30)</f>
+      <c r="AD57" s="1">
+        <v>129</v>
+      </c>
+      <c r="AE57" s="1">
+        <v>129</v>
+      </c>
+      <c r="AF57" s="1">
+        <f t="shared" si="2"/>
         <v>217</v>
       </c>
-      <c r="AG57">
-        <f t="shared" ref="AG57" si="4">AG56+(AG31-AG30)</f>
+      <c r="AG57" s="1">
+        <f t="shared" si="2"/>
         <v>217</v>
       </c>
-      <c r="AH57">
-        <f t="shared" ref="AH57" si="5">AH56+(AH31-AH30)</f>
+      <c r="AH57" s="1">
+        <f t="shared" si="2"/>
         <v>217</v>
       </c>
-      <c r="AI57">
-        <f t="shared" ref="AI57" si="6">AI56+(AI31-AI30)</f>
+      <c r="AI57" s="1">
+        <f t="shared" si="2"/>
         <v>217</v>
       </c>
-      <c r="AJ57">
-        <f t="shared" ref="AJ57" si="7">AJ56+(AJ31-AJ30)</f>
+      <c r="AJ57" s="1">
+        <f t="shared" si="2"/>
         <v>234</v>
       </c>
-      <c r="AK57">
-        <f t="shared" ref="AK57" si="8">AK56+(AK31-AK30)</f>
+      <c r="AK57" s="1">
+        <f t="shared" si="2"/>
         <v>238</v>
       </c>
-      <c r="AL57">
-        <f t="shared" ref="AL57" si="9">AL56+(AL31-AL30)</f>
+      <c r="AL57" s="1">
+        <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="AM57">
-        <f t="shared" ref="AM57" si="10">AM56+(AM31-AM30)</f>
+      <c r="AM57" s="1">
+        <f t="shared" si="2"/>
         <v>266</v>
       </c>
-      <c r="AN57">
-        <f t="shared" ref="AN57" si="11">AN56+(AN31-AN30)</f>
+      <c r="AN57" s="1">
+        <f t="shared" si="2"/>
         <v>280</v>
       </c>
-      <c r="AO57">
-        <f t="shared" ref="AO57" si="12">AO56+(AO31-AO30)</f>
+      <c r="AO57" s="1">
+        <f t="shared" si="2"/>
         <v>276</v>
       </c>
-      <c r="AP57">
-        <f t="shared" ref="AP57" si="13">AP56+(AP31-AP30)</f>
+      <c r="AP57" s="1">
+        <f t="shared" si="2"/>
         <v>290</v>
       </c>
-      <c r="AQ57">
-        <f t="shared" ref="AQ57" si="14">AQ56+(AQ31-AQ30)</f>
+      <c r="AQ57" s="1">
+        <f t="shared" si="2"/>
         <v>308</v>
       </c>
-      <c r="AR57">
-        <f t="shared" ref="AR57" si="15">AR56+(AR31-AR30)</f>
+      <c r="AR57" s="1">
+        <f t="shared" si="2"/>
         <v>619</v>
       </c>
-      <c r="AS57">
-        <f t="shared" ref="AS57" si="16">AS56+(AS31-AS30)</f>
+      <c r="AS57" s="1">
+        <f t="shared" si="2"/>
         <v>567</v>
       </c>
-      <c r="AT57">
-        <f t="shared" ref="AT57" si="17">AT56+(AT31-AT30)</f>
+      <c r="AT57" s="1">
+        <f t="shared" si="2"/>
         <v>339</v>
       </c>
-      <c r="AU57">
-        <f t="shared" ref="AU57" si="18">AU56+(AU31-AU30)</f>
+      <c r="AU57" s="1">
+        <f t="shared" si="2"/>
         <v>350</v>
       </c>
-      <c r="AV57">
-        <f t="shared" ref="AV57" si="19">AV56+(AV31-AV30)</f>
+      <c r="AV57" s="1">
+        <f t="shared" si="2"/>
         <v>360</v>
       </c>
-      <c r="AW57">
-        <f t="shared" ref="AW57" si="20">AW56+(AW31-AW30)</f>
+      <c r="AW57" s="1">
+        <f>AW56+(AW31-AW30)</f>
         <v>409</v>
       </c>
-      <c r="AX57">
-        <f t="shared" ref="AX57" si="21">AX56+(AX31-AX30)</f>
+      <c r="AX57" s="1">
+        <f t="shared" ref="AX57" si="3">AX56+(AX31-AX30)</f>
         <v>420</v>
       </c>
-      <c r="AY57">
-        <f t="shared" ref="AY57" si="22">AY56+(AY31-AY30)</f>
+      <c r="AY57" s="1">
+        <f t="shared" ref="AY57" si="4">AY56+(AY31-AY30)</f>
         <v>420</v>
       </c>
-      <c r="AZ57">
-        <f t="shared" ref="AZ57" si="23">AZ56+(AZ31-AZ30)</f>
+      <c r="AZ57" s="1">
+        <f t="shared" ref="AZ57" si="5">AZ56+(AZ31-AZ30)</f>
         <v>434</v>
       </c>
-      <c r="BA57">
-        <f>BA56+(BA31-BA30)</f>
+      <c r="BA57" s="1">
+        <f t="shared" ref="BA57" si="6">BA56+(BA31-BA30)</f>
         <v>325</v>
       </c>
-      <c r="BB57">
-        <f t="shared" ref="BB57" si="24">BB56+(BB31-BB30)</f>
+      <c r="BB57" s="1">
+        <f t="shared" ref="BB57" si="7">BB56+(BB31-BB30)</f>
         <v>329</v>
       </c>
-      <c r="BC57">
-        <f t="shared" ref="BC57" si="25">BC56+(BC31-BC30)</f>
-        <v>129</v>
-      </c>
-      <c r="BD57">
-        <v>129</v>
-      </c>
-      <c r="BE57">
+      <c r="BC57" s="1">
+        <f t="shared" ref="BC57" si="8">BC56+(BC31-BC30)</f>
+        <v>129</v>
+      </c>
+      <c r="BD57" s="1">
+        <v>129</v>
+      </c>
+      <c r="BE57" s="1">
         <v>0</v>
       </c>
-      <c r="BF57">
-        <f>BF56+(BF31-BF30)</f>
-        <v>245</v>
-      </c>
-      <c r="BG57">
-        <f t="shared" ref="BG57" si="26">BG56+(BG31-BG30)</f>
-        <v>245</v>
-      </c>
-      <c r="BH57">
-        <f t="shared" ref="BH57" si="27">BH56+(BH31-BH30)</f>
-        <v>231</v>
-      </c>
-      <c r="BI57">
-        <f t="shared" ref="BI57" si="28">BI56+(BI31-BI30)</f>
-        <v>231</v>
-      </c>
-      <c r="BJ57">
-        <f t="shared" ref="BJ57" si="29">BJ56+(BJ31-BJ30)</f>
-        <v>231</v>
-      </c>
-      <c r="BK57">
-        <f t="shared" ref="BK57" si="30">BK56+(BK31-BK30)</f>
-        <v>231</v>
-      </c>
     </row>
-    <row r="58" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="58" spans="1:63" s="1" customFormat="1">
+      <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="1">
         <f>B59</f>
         <v>420</v>
       </c>
-      <c r="C58">
-        <f t="shared" ref="C58:BE62" si="31">C59</f>
+      <c r="C58" s="1">
+        <f t="shared" ref="C58:BE58" si="9">C59</f>
         <v>409</v>
       </c>
-      <c r="D58">
-        <f t="shared" si="31"/>
+      <c r="D58" s="1">
+        <f t="shared" si="9"/>
         <v>346</v>
       </c>
-      <c r="E58">
-        <f t="shared" si="31"/>
+      <c r="E58" s="1">
+        <f t="shared" si="9"/>
         <v>420</v>
       </c>
-      <c r="F58">
-        <f t="shared" si="31"/>
+      <c r="F58" s="1">
+        <f t="shared" si="9"/>
         <v>399</v>
       </c>
-      <c r="G58">
-        <f t="shared" si="31"/>
+      <c r="G58" s="1">
+        <f t="shared" si="9"/>
         <v>364</v>
       </c>
-      <c r="H58">
-        <f t="shared" si="31"/>
+      <c r="H58" s="1">
+        <f t="shared" si="9"/>
         <v>346</v>
       </c>
-      <c r="I58">
-        <f t="shared" si="31"/>
+      <c r="I58" s="1">
+        <f t="shared" si="9"/>
         <v>325</v>
       </c>
-      <c r="J58">
-        <f t="shared" si="31"/>
+      <c r="J58" s="1">
+        <f t="shared" si="9"/>
         <v>311</v>
       </c>
-      <c r="K58">
-        <f t="shared" si="31"/>
+      <c r="K58" s="1">
+        <f t="shared" si="9"/>
         <v>290</v>
       </c>
-      <c r="L58">
-        <f t="shared" si="31"/>
+      <c r="L58" s="1">
+        <f t="shared" si="9"/>
         <v>273</v>
       </c>
-      <c r="M58">
-        <f t="shared" si="31"/>
+      <c r="M58" s="1">
+        <f t="shared" si="9"/>
         <v>245</v>
       </c>
-      <c r="N58">
-        <f t="shared" si="31"/>
+      <c r="N58" s="1">
+        <f t="shared" si="9"/>
         <v>322</v>
       </c>
-      <c r="O58">
-        <f t="shared" si="31"/>
+      <c r="O58" s="1">
+        <f t="shared" si="9"/>
         <v>308</v>
       </c>
-      <c r="P58">
-        <f t="shared" si="31"/>
+      <c r="P58" s="1">
+        <f t="shared" si="9"/>
         <v>297</v>
       </c>
-      <c r="Q58">
-        <f t="shared" si="31"/>
+      <c r="Q58" s="1">
+        <f t="shared" si="9"/>
         <v>283</v>
       </c>
-      <c r="R58">
-        <f t="shared" si="31"/>
+      <c r="R58" s="1">
+        <f t="shared" si="9"/>
         <v>280</v>
       </c>
-      <c r="S58">
-        <f t="shared" si="31"/>
+      <c r="S58" s="1">
+        <f t="shared" si="9"/>
         <v>273</v>
       </c>
-      <c r="T58">
-        <f t="shared" si="31"/>
+      <c r="T58" s="1">
+        <f t="shared" si="9"/>
         <v>448</v>
       </c>
-      <c r="U58">
-        <f t="shared" si="31"/>
+      <c r="U58" s="1">
+        <f t="shared" si="9"/>
         <v>413</v>
       </c>
-      <c r="V58">
-        <f t="shared" si="31"/>
+      <c r="V58" s="1">
+        <f t="shared" si="9"/>
         <v>399</v>
       </c>
-      <c r="W58">
-        <f t="shared" si="31"/>
+      <c r="W58" s="1">
+        <f t="shared" si="9"/>
         <v>371</v>
       </c>
-      <c r="X58">
-        <f t="shared" si="31"/>
+      <c r="X58" s="1">
+        <f t="shared" si="9"/>
         <v>360</v>
       </c>
-      <c r="Y58">
-        <f t="shared" si="31"/>
+      <c r="Y58" s="1">
+        <f t="shared" si="9"/>
         <v>336</v>
       </c>
-      <c r="Z58">
-        <f t="shared" si="31"/>
+      <c r="Z58" s="1">
+        <f t="shared" si="9"/>
         <v>311</v>
       </c>
-      <c r="AA58">
-        <f t="shared" si="31"/>
+      <c r="AA58" s="1">
+        <f t="shared" si="9"/>
         <v>273</v>
       </c>
-      <c r="AB58">
-        <f t="shared" si="31"/>
+      <c r="AB58" s="1">
+        <f t="shared" si="9"/>
         <v>259</v>
       </c>
-      <c r="AC58">
-        <f t="shared" si="31"/>
+      <c r="AC58" s="1">
+        <f t="shared" si="9"/>
         <v>245</v>
       </c>
-      <c r="AD58">
-        <f t="shared" si="31"/>
+      <c r="AD58" s="1">
+        <f t="shared" si="9"/>
         <v>245</v>
       </c>
-      <c r="AE58">
-        <f t="shared" si="31"/>
+      <c r="AE58" s="1">
+        <f t="shared" si="9"/>
         <v>234</v>
       </c>
-      <c r="AF58">
-        <f t="shared" si="31"/>
-        <v>129</v>
-      </c>
-      <c r="AG58">
-        <f t="shared" si="31"/>
-        <v>129</v>
-      </c>
-      <c r="AH58">
-        <f t="shared" si="31"/>
-        <v>129</v>
-      </c>
-      <c r="AI58">
-        <f t="shared" si="31"/>
-        <v>129</v>
-      </c>
-      <c r="AJ58">
-        <f t="shared" si="31"/>
-        <v>129</v>
-      </c>
-      <c r="AK58">
-        <f t="shared" si="31"/>
-        <v>129</v>
-      </c>
-      <c r="AL58">
-        <f t="shared" si="31"/>
-        <v>129</v>
-      </c>
-      <c r="AM58">
-        <v>129</v>
-      </c>
-      <c r="AN58">
+      <c r="AF58" s="1">
+        <f t="shared" si="9"/>
+        <v>129</v>
+      </c>
+      <c r="AG58" s="1">
+        <f t="shared" si="9"/>
+        <v>129</v>
+      </c>
+      <c r="AH58" s="1">
+        <f t="shared" si="9"/>
+        <v>129</v>
+      </c>
+      <c r="AI58" s="1">
+        <f t="shared" si="9"/>
+        <v>258</v>
+      </c>
+      <c r="AJ58" s="1">
+        <f t="shared" si="9"/>
+        <v>129</v>
+      </c>
+      <c r="AK58" s="1">
+        <f t="shared" si="9"/>
+        <v>129</v>
+      </c>
+      <c r="AL58" s="1">
+        <f t="shared" si="9"/>
+        <v>129</v>
+      </c>
+      <c r="AM58" s="1">
+        <f t="shared" si="9"/>
+        <v>129</v>
+      </c>
+      <c r="AN58" s="1">
+        <f t="shared" si="9"/>
         <v>206</v>
       </c>
-      <c r="AO58">
+      <c r="AO58" s="1">
+        <f t="shared" si="9"/>
         <v>234</v>
       </c>
-      <c r="AP58">
+      <c r="AP58" s="1">
+        <f t="shared" si="9"/>
         <v>252</v>
       </c>
-      <c r="AQ58">
+      <c r="AQ58" s="1">
+        <f t="shared" si="9"/>
         <v>280</v>
       </c>
-      <c r="AR58">
+      <c r="AR58" s="1">
+        <f t="shared" si="9"/>
         <v>602</v>
       </c>
-      <c r="AS58">
-        <f t="shared" si="31"/>
+      <c r="AS58" s="1">
+        <f t="shared" si="9"/>
         <v>710</v>
       </c>
-      <c r="AT58">
-        <f t="shared" si="31"/>
+      <c r="AT58" s="1">
+        <f t="shared" si="9"/>
         <v>451</v>
       </c>
-      <c r="AU58">
-        <f t="shared" si="31"/>
+      <c r="AU58" s="1">
+        <f t="shared" si="9"/>
         <v>462</v>
       </c>
-      <c r="AV58">
-        <f t="shared" si="31"/>
+      <c r="AV58" s="1">
+        <f t="shared" si="9"/>
         <v>472</v>
       </c>
-      <c r="AW58">
-        <f t="shared" si="31"/>
+      <c r="AW58" s="1">
+        <f t="shared" si="9"/>
         <v>525</v>
       </c>
-      <c r="AX58">
-        <f t="shared" si="31"/>
+      <c r="AX58" s="1">
+        <f t="shared" si="9"/>
         <v>535</v>
       </c>
-      <c r="AY58">
-        <f t="shared" si="31"/>
+      <c r="AY58" s="1">
+        <f t="shared" si="9"/>
         <v>535</v>
       </c>
-      <c r="AZ58">
-        <f t="shared" si="31"/>
+      <c r="AZ58" s="1">
+        <f t="shared" si="9"/>
         <v>553</v>
       </c>
-      <c r="BA58">
-        <f t="shared" si="31"/>
+      <c r="BA58" s="1">
+        <f t="shared" si="9"/>
         <v>437</v>
       </c>
-      <c r="BB58">
-        <f t="shared" si="31"/>
+      <c r="BB58" s="1">
+        <f t="shared" si="9"/>
         <v>311</v>
       </c>
-      <c r="BC58">
-        <f t="shared" si="31"/>
-        <v>231</v>
-      </c>
-      <c r="BD58">
-        <f t="shared" si="31"/>
-        <v>231</v>
-      </c>
-      <c r="BE58">
-        <f t="shared" si="31"/>
-        <v>231</v>
-      </c>
-      <c r="BF58">
+      <c r="BC58" s="1">
+        <f t="shared" si="9"/>
+        <v>245</v>
+      </c>
+      <c r="BD58" s="1">
+        <v>245</v>
+      </c>
+      <c r="BE58" s="1">
+        <f t="shared" si="9"/>
+        <v>234</v>
+      </c>
+      <c r="BF58" s="1">
         <v>0</v>
       </c>
-      <c r="BG58">
-        <v>129</v>
-      </c>
-      <c r="BH58">
-        <f t="shared" ref="BH58" si="32">BH59</f>
-        <v>129</v>
-      </c>
-      <c r="BI58">
-        <f t="shared" ref="BI58" si="33">BI59</f>
-        <v>129</v>
-      </c>
-      <c r="BJ58">
-        <f t="shared" ref="BJ58" si="34">BJ59</f>
-        <v>129</v>
-      </c>
-      <c r="BK58">
-        <f t="shared" ref="BK58" si="35">BK59</f>
-        <v>129</v>
-      </c>
     </row>
-    <row r="59" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="59" spans="1:63" s="1" customFormat="1">
+      <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="1">
         <f>B63+(B36-B35)</f>
         <v>420</v>
       </c>
-      <c r="C59">
-        <f t="shared" ref="C59:BJ59" si="36">C63+(C36-C35)</f>
+      <c r="C59" s="1">
+        <f t="shared" ref="C59:BF59" si="10">C63+(C36-C35)</f>
         <v>409</v>
       </c>
-      <c r="D59">
-        <f t="shared" si="36"/>
+      <c r="D59" s="1">
+        <f t="shared" si="10"/>
         <v>346</v>
       </c>
-      <c r="E59">
-        <f t="shared" si="36"/>
+      <c r="E59" s="1">
+        <f t="shared" si="10"/>
         <v>420</v>
       </c>
-      <c r="F59">
-        <f t="shared" si="36"/>
+      <c r="F59" s="1">
+        <f t="shared" si="10"/>
         <v>399</v>
       </c>
-      <c r="G59">
-        <f t="shared" si="36"/>
+      <c r="G59" s="1">
+        <f t="shared" si="10"/>
         <v>364</v>
       </c>
-      <c r="H59">
-        <f t="shared" si="36"/>
+      <c r="H59" s="1">
+        <f t="shared" si="10"/>
         <v>346</v>
       </c>
-      <c r="I59">
-        <f t="shared" si="36"/>
+      <c r="I59" s="1">
+        <f t="shared" si="10"/>
         <v>325</v>
       </c>
-      <c r="J59">
-        <f t="shared" si="36"/>
+      <c r="J59" s="1">
+        <f t="shared" si="10"/>
         <v>311</v>
       </c>
-      <c r="K59">
-        <f t="shared" si="36"/>
+      <c r="K59" s="1">
+        <f t="shared" si="10"/>
         <v>290</v>
       </c>
-      <c r="L59">
-        <f t="shared" si="36"/>
+      <c r="L59" s="1">
+        <f t="shared" si="10"/>
         <v>273</v>
       </c>
-      <c r="M59">
-        <f t="shared" si="36"/>
+      <c r="M59" s="1">
+        <f t="shared" si="10"/>
         <v>245</v>
       </c>
-      <c r="N59">
-        <f t="shared" si="36"/>
+      <c r="N59" s="1">
+        <f t="shared" si="10"/>
         <v>322</v>
       </c>
-      <c r="O59">
-        <f t="shared" si="36"/>
+      <c r="O59" s="1">
+        <f t="shared" si="10"/>
         <v>308</v>
       </c>
-      <c r="P59">
-        <f t="shared" si="36"/>
+      <c r="P59" s="1">
+        <f>P63+(P36-P35)</f>
         <v>297</v>
       </c>
-      <c r="Q59">
-        <f t="shared" si="36"/>
+      <c r="Q59" s="1">
+        <f t="shared" si="10"/>
         <v>283</v>
       </c>
-      <c r="R59">
-        <f t="shared" si="36"/>
+      <c r="R59" s="1">
+        <f t="shared" si="10"/>
         <v>280</v>
       </c>
-      <c r="S59">
-        <f t="shared" si="36"/>
+      <c r="S59" s="1">
+        <f t="shared" si="10"/>
         <v>273</v>
       </c>
-      <c r="T59">
-        <f t="shared" si="36"/>
+      <c r="T59" s="1">
+        <f t="shared" si="10"/>
         <v>448</v>
       </c>
-      <c r="U59">
-        <f t="shared" si="36"/>
+      <c r="U59" s="1">
+        <f t="shared" si="10"/>
         <v>413</v>
       </c>
-      <c r="V59">
-        <f t="shared" si="36"/>
+      <c r="V59" s="1">
+        <f t="shared" si="10"/>
         <v>399</v>
       </c>
-      <c r="W59">
-        <f t="shared" si="36"/>
+      <c r="W59" s="1">
+        <f t="shared" si="10"/>
         <v>371</v>
       </c>
-      <c r="X59">
-        <f t="shared" si="36"/>
+      <c r="X59" s="1">
+        <f>X63+(X36-X35)</f>
         <v>360</v>
       </c>
-      <c r="Y59">
-        <f t="shared" si="36"/>
+      <c r="Y59" s="1">
+        <f t="shared" si="10"/>
         <v>336</v>
       </c>
-      <c r="Z59">
-        <f t="shared" si="36"/>
+      <c r="Z59" s="1">
+        <f t="shared" si="10"/>
         <v>311</v>
       </c>
-      <c r="AA59">
-        <f t="shared" si="36"/>
+      <c r="AA59" s="1">
+        <f t="shared" si="10"/>
         <v>273</v>
       </c>
-      <c r="AB59">
-        <f t="shared" si="36"/>
+      <c r="AB59" s="1">
+        <f t="shared" si="10"/>
         <v>259</v>
       </c>
-      <c r="AC59">
-        <f t="shared" si="36"/>
+      <c r="AC59" s="1">
+        <f t="shared" si="10"/>
         <v>245</v>
       </c>
-      <c r="AD59">
-        <f t="shared" si="36"/>
+      <c r="AD59" s="1">
+        <f t="shared" si="10"/>
         <v>245</v>
       </c>
-      <c r="AE59">
-        <f t="shared" si="36"/>
+      <c r="AE59" s="1">
+        <f t="shared" si="10"/>
         <v>234</v>
       </c>
-      <c r="AF59">
-        <f t="shared" si="36"/>
-        <v>129</v>
-      </c>
-      <c r="AG59">
-        <f t="shared" si="36"/>
-        <v>129</v>
-      </c>
-      <c r="AH59">
-        <f t="shared" si="36"/>
-        <v>129</v>
-      </c>
-      <c r="AI59">
-        <v>129</v>
-      </c>
-      <c r="AJ59">
-        <v>129</v>
-      </c>
-      <c r="AK59">
-        <f t="shared" si="36"/>
-        <v>129</v>
-      </c>
-      <c r="AL59">
-        <f t="shared" si="36"/>
-        <v>129</v>
-      </c>
-      <c r="AM59">
-        <v>129</v>
-      </c>
-      <c r="AN59">
+      <c r="AF59" s="1">
+        <f t="shared" si="10"/>
+        <v>129</v>
+      </c>
+      <c r="AG59" s="1">
+        <f>AG63+(AG36-AG35)</f>
+        <v>129</v>
+      </c>
+      <c r="AH59" s="1">
+        <f t="shared" si="10"/>
+        <v>129</v>
+      </c>
+      <c r="AI59" s="1">
+        <f t="shared" si="10"/>
+        <v>258</v>
+      </c>
+      <c r="AJ59" s="1">
+        <v>129</v>
+      </c>
+      <c r="AK59" s="1">
+        <f t="shared" si="10"/>
+        <v>129</v>
+      </c>
+      <c r="AL59" s="1">
+        <f t="shared" si="10"/>
+        <v>129</v>
+      </c>
+      <c r="AM59" s="1">
+        <f>AM63+(AM36-AM35)</f>
+        <v>129</v>
+      </c>
+      <c r="AN59" s="1">
+        <f t="shared" si="10"/>
         <v>206</v>
       </c>
-      <c r="AO59">
+      <c r="AO59" s="1">
+        <f t="shared" si="10"/>
         <v>234</v>
       </c>
-      <c r="AP59">
+      <c r="AP59" s="1">
+        <f t="shared" si="10"/>
         <v>252</v>
       </c>
-      <c r="AQ59">
+      <c r="AQ59" s="1">
+        <f t="shared" si="10"/>
         <v>280</v>
       </c>
-      <c r="AR59">
+      <c r="AR59" s="1">
+        <f t="shared" si="10"/>
         <v>602</v>
       </c>
-      <c r="AS59">
-        <f t="shared" si="36"/>
+      <c r="AS59" s="1">
+        <f t="shared" si="10"/>
         <v>710</v>
       </c>
-      <c r="AT59">
-        <f t="shared" si="36"/>
+      <c r="AT59" s="1">
+        <f t="shared" si="10"/>
         <v>451</v>
       </c>
-      <c r="AU59">
-        <f t="shared" si="36"/>
+      <c r="AU59" s="1">
+        <f>AU63+(AU36-AU35)</f>
         <v>462</v>
       </c>
-      <c r="AV59">
-        <f t="shared" si="36"/>
+      <c r="AV59" s="1">
+        <f t="shared" si="10"/>
         <v>472</v>
       </c>
-      <c r="AW59">
-        <f t="shared" si="36"/>
+      <c r="AW59" s="1">
+        <f t="shared" si="10"/>
         <v>525</v>
       </c>
-      <c r="AX59">
-        <f t="shared" si="36"/>
+      <c r="AX59" s="1">
+        <f t="shared" si="10"/>
         <v>535</v>
       </c>
-      <c r="AY59">
-        <f t="shared" si="36"/>
+      <c r="AY59" s="1">
+        <f t="shared" si="10"/>
         <v>535</v>
       </c>
-      <c r="AZ59">
-        <f t="shared" si="36"/>
+      <c r="AZ59" s="1">
+        <f t="shared" si="10"/>
         <v>553</v>
       </c>
-      <c r="BA59">
-        <f t="shared" si="36"/>
+      <c r="BA59" s="1">
+        <f t="shared" si="10"/>
         <v>437</v>
       </c>
-      <c r="BB59">
-        <f t="shared" si="36"/>
+      <c r="BB59" s="1">
+        <f>BB63+(BB36-BB35)</f>
         <v>311</v>
       </c>
-      <c r="BC59">
-        <f t="shared" si="36"/>
+      <c r="BC59" s="1">
+        <v>245</v>
+      </c>
+      <c r="BD59" s="1">
+        <v>245</v>
+      </c>
+      <c r="BE59" s="1">
+        <f>BE60+17</f>
+        <v>234</v>
+      </c>
+      <c r="BF59" s="1">
+        <f t="shared" si="10"/>
+        <v>129</v>
+      </c>
+      <c r="BG59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:63" s="1" customFormat="1">
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1">
+        <f>B61</f>
+        <v>416</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" ref="C60:BG60" si="11">C61</f>
+        <v>402</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="11"/>
+        <v>339</v>
+      </c>
+      <c r="E60" s="1">
+        <f t="shared" si="11"/>
+        <v>416</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="11"/>
+        <v>392</v>
+      </c>
+      <c r="G60" s="1">
+        <f t="shared" si="11"/>
+        <v>360</v>
+      </c>
+      <c r="H60" s="1">
+        <f t="shared" si="11"/>
+        <v>339</v>
+      </c>
+      <c r="I60" s="1">
+        <f t="shared" si="11"/>
+        <v>322</v>
+      </c>
+      <c r="J60" s="1">
+        <f t="shared" si="11"/>
+        <v>304</v>
+      </c>
+      <c r="K60" s="1">
+        <f t="shared" si="11"/>
+        <v>283</v>
+      </c>
+      <c r="L60" s="1">
+        <f t="shared" si="11"/>
+        <v>262</v>
+      </c>
+      <c r="M60" s="1">
+        <f t="shared" si="11"/>
         <v>231</v>
       </c>
-      <c r="BD59">
-        <f t="shared" si="36"/>
+      <c r="N60" s="1">
+        <f t="shared" si="11"/>
+        <v>315</v>
+      </c>
+      <c r="O60" s="1">
+        <f t="shared" si="11"/>
+        <v>301</v>
+      </c>
+      <c r="P60" s="1">
+        <f t="shared" si="11"/>
+        <v>290</v>
+      </c>
+      <c r="Q60" s="1">
+        <f t="shared" si="11"/>
+        <v>280</v>
+      </c>
+      <c r="R60" s="1">
+        <f t="shared" si="11"/>
+        <v>273</v>
+      </c>
+      <c r="S60" s="1">
+        <f t="shared" si="11"/>
+        <v>262</v>
+      </c>
+      <c r="T60" s="1">
+        <f t="shared" si="11"/>
+        <v>441</v>
+      </c>
+      <c r="U60" s="1">
+        <f t="shared" si="11"/>
+        <v>406</v>
+      </c>
+      <c r="V60" s="1">
+        <f t="shared" si="11"/>
+        <v>395</v>
+      </c>
+      <c r="W60" s="1">
+        <f t="shared" si="11"/>
+        <v>367</v>
+      </c>
+      <c r="X60" s="1">
+        <f t="shared" si="11"/>
+        <v>357</v>
+      </c>
+      <c r="Y60" s="1">
+        <f t="shared" si="11"/>
+        <v>332</v>
+      </c>
+      <c r="Z60" s="1">
+        <f t="shared" si="11"/>
+        <v>308</v>
+      </c>
+      <c r="AA60" s="1">
+        <f t="shared" si="11"/>
+        <v>262</v>
+      </c>
+      <c r="AB60" s="1">
+        <f t="shared" si="11"/>
+        <v>245</v>
+      </c>
+      <c r="AC60" s="1">
+        <f t="shared" si="11"/>
         <v>231</v>
       </c>
-      <c r="BE59">
-        <f t="shared" si="36"/>
+      <c r="AD60" s="1">
+        <f t="shared" si="11"/>
         <v>231</v>
       </c>
-      <c r="BF59">
-        <f t="shared" si="36"/>
-        <v>129</v>
-      </c>
-      <c r="BG59">
+      <c r="AE60" s="1">
+        <f t="shared" si="11"/>
+        <v>217</v>
+      </c>
+      <c r="AF60" s="1">
+        <f t="shared" si="11"/>
+        <v>129</v>
+      </c>
+      <c r="AG60" s="1">
+        <f t="shared" si="11"/>
+        <v>129</v>
+      </c>
+      <c r="AH60" s="1">
+        <f t="shared" si="11"/>
+        <v>129</v>
+      </c>
+      <c r="AI60" s="1">
+        <f t="shared" si="11"/>
+        <v>129</v>
+      </c>
+      <c r="AJ60" s="1">
+        <f t="shared" si="11"/>
+        <v>129</v>
+      </c>
+      <c r="AK60" s="1">
+        <f t="shared" si="11"/>
+        <v>129</v>
+      </c>
+      <c r="AL60" s="1">
+        <f t="shared" si="11"/>
+        <v>129</v>
+      </c>
+      <c r="AM60" s="1">
+        <f t="shared" si="11"/>
+        <v>133</v>
+      </c>
+      <c r="AN60" s="1">
+        <f t="shared" si="11"/>
+        <v>220</v>
+      </c>
+      <c r="AO60" s="1">
+        <f t="shared" si="11"/>
+        <v>245</v>
+      </c>
+      <c r="AP60" s="1">
+        <f t="shared" si="11"/>
+        <v>266</v>
+      </c>
+      <c r="AQ60" s="1">
+        <f t="shared" si="11"/>
+        <v>290</v>
+      </c>
+      <c r="AR60" s="1">
+        <f t="shared" si="11"/>
+        <v>605</v>
+      </c>
+      <c r="AS60" s="1">
+        <f t="shared" si="11"/>
+        <v>703</v>
+      </c>
+      <c r="AT60" s="1">
+        <f t="shared" si="11"/>
+        <v>448</v>
+      </c>
+      <c r="AU60" s="1">
+        <f t="shared" si="11"/>
+        <v>458</v>
+      </c>
+      <c r="AV60" s="1">
+        <f t="shared" si="11"/>
+        <v>469</v>
+      </c>
+      <c r="AW60" s="1">
+        <f t="shared" si="11"/>
+        <v>521</v>
+      </c>
+      <c r="AX60" s="1">
+        <f t="shared" si="11"/>
+        <v>532</v>
+      </c>
+      <c r="AY60" s="1">
+        <f t="shared" si="11"/>
+        <v>532</v>
+      </c>
+      <c r="AZ60" s="1">
+        <f t="shared" si="11"/>
+        <v>546</v>
+      </c>
+      <c r="BA60" s="1">
+        <f t="shared" si="11"/>
+        <v>434</v>
+      </c>
+      <c r="BB60" s="1">
+        <f t="shared" si="11"/>
+        <v>315</v>
+      </c>
+      <c r="BC60" s="1">
+        <f t="shared" si="11"/>
+        <v>231</v>
+      </c>
+      <c r="BD60" s="1">
+        <f>BD61</f>
+        <v>231</v>
+      </c>
+      <c r="BE60" s="1">
+        <f t="shared" si="11"/>
+        <v>217</v>
+      </c>
+      <c r="BF60" s="1">
+        <f t="shared" si="11"/>
+        <v>129</v>
+      </c>
+      <c r="BG60" s="1">
+        <f t="shared" si="11"/>
+        <v>129</v>
+      </c>
+      <c r="BH60" s="1">
         <v>0</v>
       </c>
-      <c r="BH59">
-        <f t="shared" si="36"/>
-        <v>129</v>
-      </c>
-      <c r="BI59">
-        <f t="shared" si="36"/>
-        <v>129</v>
-      </c>
-      <c r="BJ59">
-        <f t="shared" si="36"/>
-        <v>129</v>
-      </c>
-      <c r="BK59">
-        <v>129</v>
-      </c>
     </row>
-    <row r="60" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <f>B61-(B34-B33)</f>
+    <row r="61" spans="1:63" s="1" customFormat="1">
+      <c r="A61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1">
+        <f>B62</f>
         <v>416</v>
       </c>
-      <c r="C60">
-        <f t="shared" ref="C60:U60" si="37">C61-(C34-C33)</f>
+      <c r="C61" s="1">
+        <f t="shared" ref="C61:Q61" si="12">C62</f>
         <v>402</v>
       </c>
-      <c r="D60">
-        <f t="shared" si="37"/>
+      <c r="D61" s="1">
+        <f t="shared" si="12"/>
         <v>339</v>
       </c>
-      <c r="E60">
-        <f t="shared" si="37"/>
+      <c r="E61" s="1">
+        <f t="shared" si="12"/>
         <v>416</v>
       </c>
-      <c r="F60">
-        <f t="shared" si="37"/>
+      <c r="F61" s="1">
+        <f t="shared" si="12"/>
         <v>392</v>
       </c>
-      <c r="G60">
-        <f t="shared" si="37"/>
+      <c r="G61" s="1">
+        <f t="shared" si="12"/>
         <v>360</v>
       </c>
-      <c r="H60">
-        <f t="shared" si="37"/>
+      <c r="H61" s="1">
+        <f t="shared" si="12"/>
         <v>339</v>
       </c>
-      <c r="I60">
-        <f t="shared" si="37"/>
+      <c r="I61" s="1">
+        <f t="shared" si="12"/>
         <v>322</v>
       </c>
-      <c r="J60">
-        <f t="shared" si="37"/>
+      <c r="J61" s="1">
+        <f t="shared" si="12"/>
         <v>304</v>
       </c>
-      <c r="K60">
-        <f t="shared" si="37"/>
+      <c r="K61" s="1">
+        <f t="shared" si="12"/>
         <v>283</v>
       </c>
-      <c r="L60">
-        <f t="shared" si="37"/>
+      <c r="L61" s="1">
+        <f t="shared" si="12"/>
         <v>262</v>
       </c>
-      <c r="M60">
-        <f t="shared" si="37"/>
+      <c r="M61" s="1">
+        <f t="shared" si="12"/>
         <v>231</v>
       </c>
-      <c r="N60">
-        <f t="shared" si="37"/>
+      <c r="N61" s="1">
+        <f t="shared" si="12"/>
         <v>315</v>
       </c>
-      <c r="O60">
-        <f t="shared" si="37"/>
+      <c r="O61" s="1">
+        <f t="shared" si="12"/>
         <v>301</v>
       </c>
-      <c r="P60">
-        <f t="shared" si="37"/>
+      <c r="P61" s="1">
+        <f t="shared" si="12"/>
         <v>290</v>
       </c>
-      <c r="Q60">
-        <f t="shared" si="37"/>
+      <c r="Q61" s="1">
+        <f t="shared" si="12"/>
         <v>280</v>
       </c>
-      <c r="R60">
-        <f t="shared" si="37"/>
+      <c r="R61" s="1">
+        <f t="shared" ref="R61" si="13">R62</f>
         <v>273</v>
       </c>
-      <c r="S60">
-        <f t="shared" si="37"/>
+      <c r="S61" s="1">
+        <f t="shared" ref="S61" si="14">S62</f>
         <v>262</v>
       </c>
-      <c r="T60">
-        <f t="shared" si="37"/>
+      <c r="T61" s="1">
+        <f t="shared" ref="T61" si="15">T62</f>
         <v>441</v>
       </c>
-      <c r="U60">
-        <f t="shared" si="37"/>
+      <c r="U61" s="1">
+        <f t="shared" ref="U61" si="16">U62</f>
         <v>406</v>
       </c>
-      <c r="V60">
-        <f>V61-(V34-V33)</f>
+      <c r="V61" s="1">
+        <f t="shared" ref="V61" si="17">V62</f>
         <v>395</v>
       </c>
-      <c r="W60">
-        <f t="shared" ref="W60" si="38">W61-(W34-W33)</f>
+      <c r="W61" s="1">
+        <f t="shared" ref="W61" si="18">W62</f>
         <v>367</v>
       </c>
-      <c r="X60">
-        <f t="shared" ref="X60" si="39">X61-(X34-X33)</f>
+      <c r="X61" s="1">
+        <f t="shared" ref="X61" si="19">X62</f>
         <v>357</v>
       </c>
-      <c r="Y60">
-        <f t="shared" ref="Y60" si="40">Y61-(Y34-Y33)</f>
+      <c r="Y61" s="1">
+        <f t="shared" ref="Y61" si="20">Y62</f>
         <v>332</v>
       </c>
-      <c r="Z60">
-        <f t="shared" ref="Z60" si="41">Z61-(Z34-Z33)</f>
+      <c r="Z61" s="1">
+        <f t="shared" ref="Z61" si="21">Z62</f>
         <v>308</v>
       </c>
-      <c r="AA60">
-        <f t="shared" ref="AA60" si="42">AA61-(AA34-AA33)</f>
+      <c r="AA61" s="1">
+        <f t="shared" ref="AA61" si="22">AA62</f>
         <v>262</v>
       </c>
-      <c r="AB60">
-        <f t="shared" ref="AB60" si="43">AB61-(AB34-AB33)</f>
+      <c r="AB61" s="1">
+        <f t="shared" ref="AB61" si="23">AB62</f>
         <v>245</v>
       </c>
-      <c r="AC60">
-        <f t="shared" ref="AC60" si="44">AC61-(AC34-AC33)</f>
+      <c r="AC61" s="1">
+        <f t="shared" ref="AC61" si="24">AC62</f>
         <v>231</v>
       </c>
-      <c r="AD60">
-        <f>AD61-(AD34-AD33)</f>
+      <c r="AD61" s="1">
+        <f t="shared" ref="AD61" si="25">AD62</f>
         <v>231</v>
       </c>
-      <c r="AE60">
-        <f t="shared" ref="AE60" si="45">AE61-(AE34-AE33)</f>
+      <c r="AE61" s="1">
+        <f t="shared" ref="AE61:AF61" si="26">AE62</f>
         <v>217</v>
       </c>
-      <c r="AF60">
-        <f t="shared" ref="AF60" si="46">AF61-(AF34-AF33)</f>
-        <v>129</v>
-      </c>
-      <c r="AG60">
-        <v>129</v>
-      </c>
-      <c r="AH60">
-        <v>129</v>
-      </c>
-      <c r="AI60">
-        <v>129</v>
-      </c>
-      <c r="AJ60">
-        <f t="shared" ref="AJ60" si="47">AJ61-(AJ34-AJ33)</f>
-        <v>129</v>
-      </c>
-      <c r="AK60">
-        <f t="shared" ref="AK60" si="48">AK61-(AK34-AK33)</f>
-        <v>129</v>
-      </c>
-      <c r="AL60">
-        <f t="shared" ref="AL60" si="49">AL61-(AL34-AL33)</f>
-        <v>129</v>
-      </c>
-      <c r="AM60">
-        <v>129</v>
-      </c>
-      <c r="AN60">
-        <v>206</v>
-      </c>
-      <c r="AO60">
-        <v>234</v>
-      </c>
-      <c r="AP60">
-        <v>252</v>
-      </c>
-      <c r="AQ60">
-        <v>280</v>
-      </c>
-      <c r="AR60">
-        <v>602</v>
-      </c>
-      <c r="AS60">
-        <f t="shared" ref="AS60" si="50">AS61-(AS34-AS33)</f>
+      <c r="AF61" s="1">
+        <f t="shared" si="26"/>
+        <v>129</v>
+      </c>
+      <c r="AG61" s="1">
+        <f t="shared" ref="AG61" si="27">AG62</f>
+        <v>129</v>
+      </c>
+      <c r="AH61" s="1">
+        <f t="shared" ref="AH61" si="28">AH62</f>
+        <v>129</v>
+      </c>
+      <c r="AI61" s="1">
+        <f t="shared" ref="AI61" si="29">AI62</f>
+        <v>129</v>
+      </c>
+      <c r="AJ61" s="1">
+        <f t="shared" ref="AJ61" si="30">AJ62</f>
+        <v>129</v>
+      </c>
+      <c r="AK61" s="1">
+        <f t="shared" ref="AK61" si="31">AK62</f>
+        <v>129</v>
+      </c>
+      <c r="AL61" s="1">
+        <f t="shared" ref="AL61" si="32">AL62</f>
+        <v>129</v>
+      </c>
+      <c r="AM61" s="1">
+        <f t="shared" ref="AM61" si="33">AM62</f>
+        <v>133</v>
+      </c>
+      <c r="AN61" s="1">
+        <f t="shared" ref="AN61" si="34">AN62</f>
+        <v>220</v>
+      </c>
+      <c r="AO61" s="1">
+        <f t="shared" ref="AO61" si="35">AO62</f>
+        <v>245</v>
+      </c>
+      <c r="AP61" s="1">
+        <f t="shared" ref="AP61" si="36">AP62</f>
+        <v>266</v>
+      </c>
+      <c r="AQ61" s="1">
+        <f t="shared" ref="AQ61" si="37">AQ62</f>
+        <v>290</v>
+      </c>
+      <c r="AR61" s="1">
+        <f t="shared" ref="AR61" si="38">AR62</f>
+        <v>605</v>
+      </c>
+      <c r="AS61" s="1">
+        <f t="shared" ref="AS61" si="39">AS62</f>
         <v>703</v>
       </c>
-      <c r="AT60">
-        <f t="shared" ref="AT60" si="51">AT61-(AT34-AT33)</f>
+      <c r="AT61" s="1">
+        <f t="shared" ref="AT61:AU61" si="40">AT62</f>
         <v>448</v>
       </c>
-      <c r="AU60">
-        <f t="shared" ref="AU60" si="52">AU61-(AU34-AU33)</f>
+      <c r="AU61" s="1">
+        <f t="shared" si="40"/>
         <v>458</v>
       </c>
-      <c r="AV60">
-        <f t="shared" ref="AV60" si="53">AV61-(AV34-AV33)</f>
+      <c r="AV61" s="1">
+        <f t="shared" ref="AV61" si="41">AV62</f>
         <v>469</v>
       </c>
-      <c r="AW60">
-        <f t="shared" ref="AW60" si="54">AW61-(AW34-AW33)</f>
+      <c r="AW61" s="1">
+        <f t="shared" ref="AW61" si="42">AW62</f>
         <v>521</v>
       </c>
-      <c r="AX60">
-        <f t="shared" ref="AX60" si="55">AX61-(AX34-AX33)</f>
+      <c r="AX61" s="1">
+        <f t="shared" ref="AX61" si="43">AX62</f>
         <v>532</v>
       </c>
-      <c r="AY60">
-        <f t="shared" ref="AY60" si="56">AY61-(AY34-AY33)</f>
+      <c r="AY61" s="1">
+        <f t="shared" ref="AY61" si="44">AY62</f>
         <v>532</v>
       </c>
-      <c r="AZ60">
-        <f t="shared" ref="AZ60" si="57">AZ61-(AZ34-AZ33)</f>
+      <c r="AZ61" s="1">
+        <f t="shared" ref="AZ61" si="45">AZ62</f>
         <v>546</v>
       </c>
-      <c r="BA60">
-        <f t="shared" ref="BA60" si="58">BA61-(BA34-BA33)</f>
+      <c r="BA61" s="1">
+        <f t="shared" ref="BA61" si="46">BA62</f>
         <v>434</v>
       </c>
-      <c r="BB60">
-        <f t="shared" ref="BB60" si="59">BB61-(BB34-BB33)</f>
+      <c r="BB61" s="1">
+        <f t="shared" ref="BB61" si="47">BB62</f>
         <v>315</v>
       </c>
-      <c r="BC60">
-        <f t="shared" ref="BC60" si="60">BC61-(BC34-BC33)</f>
+      <c r="BC61" s="1">
+        <f t="shared" ref="BC61" si="48">BC62</f>
         <v>231</v>
       </c>
-      <c r="BD60">
-        <f t="shared" ref="BD60" si="61">BD61-(BD34-BD33)</f>
+      <c r="BD61" s="1">
+        <f t="shared" ref="BD61" si="49">BD62</f>
         <v>231</v>
       </c>
-      <c r="BE60">
-        <f t="shared" ref="BE60" si="62">BE61-(BE34-BE33)</f>
-        <v>231</v>
-      </c>
-      <c r="BF60">
-        <f t="shared" ref="BF60" si="63">BF61-(BF34-BF33)</f>
-        <v>129</v>
-      </c>
-      <c r="BG60">
-        <f t="shared" ref="BG60" si="64">BG61-(BG34-BG33)</f>
-        <v>129</v>
-      </c>
-      <c r="BH60">
+      <c r="BE61" s="1">
+        <f t="shared" ref="BE61" si="50">BE62</f>
+        <v>217</v>
+      </c>
+      <c r="BF61" s="1">
+        <f t="shared" ref="BF61" si="51">BF62</f>
+        <v>129</v>
+      </c>
+      <c r="BG61" s="1">
+        <f t="shared" ref="BG61" si="52">BG62</f>
+        <v>129</v>
+      </c>
+      <c r="BH61" s="1">
+        <f t="shared" ref="BH61" si="53">BH62</f>
+        <v>129</v>
+      </c>
+      <c r="BI61" s="1">
         <v>0</v>
       </c>
-      <c r="BI60">
-        <v>129</v>
-      </c>
-      <c r="BJ60">
-        <f t="shared" ref="BJ60" si="65">BJ61-(BJ34-BJ33)</f>
-        <v>129</v>
-      </c>
-      <c r="BK60">
-        <f t="shared" ref="BK60" si="66">BK61-(BK34-BK33)</f>
-        <v>129</v>
-      </c>
     </row>
-    <row r="61" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <f>B62-(B35-B34)</f>
-        <v>416</v>
-      </c>
-      <c r="C61">
-        <f t="shared" ref="C61:M61" si="67">C62-(C35-C34)</f>
-        <v>402</v>
-      </c>
-      <c r="D61">
-        <f t="shared" si="67"/>
-        <v>339</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="67"/>
-        <v>416</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="67"/>
-        <v>392</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="67"/>
-        <v>360</v>
-      </c>
-      <c r="H61">
-        <f t="shared" si="67"/>
-        <v>339</v>
-      </c>
-      <c r="I61">
-        <f t="shared" si="67"/>
-        <v>322</v>
-      </c>
-      <c r="J61">
-        <f t="shared" si="67"/>
-        <v>304</v>
-      </c>
-      <c r="K61">
-        <f t="shared" si="67"/>
-        <v>283</v>
-      </c>
-      <c r="L61">
-        <f t="shared" si="67"/>
-        <v>262</v>
-      </c>
-      <c r="M61">
-        <f t="shared" si="67"/>
-        <v>231</v>
-      </c>
-      <c r="N61">
-        <f>N62-(N35-N34)</f>
-        <v>315</v>
-      </c>
-      <c r="O61">
-        <f t="shared" ref="O61" si="68">O62-(O35-O34)</f>
-        <v>301</v>
-      </c>
-      <c r="P61">
-        <f t="shared" ref="P61" si="69">P62-(P35-P34)</f>
-        <v>290</v>
-      </c>
-      <c r="Q61">
-        <f t="shared" ref="Q61" si="70">Q62-(Q35-Q34)</f>
-        <v>280</v>
-      </c>
-      <c r="R61">
-        <f t="shared" ref="R61" si="71">R62-(R35-R34)</f>
-        <v>273</v>
-      </c>
-      <c r="S61">
-        <f t="shared" ref="S61" si="72">S62-(S35-S34)</f>
-        <v>262</v>
-      </c>
-      <c r="T61">
-        <f>T62-(T35-T34)</f>
-        <v>441</v>
-      </c>
-      <c r="U61">
-        <f t="shared" ref="U61" si="73">U62-(U35-U34)</f>
-        <v>406</v>
-      </c>
-      <c r="V61">
-        <f t="shared" ref="V61" si="74">V62-(V35-V34)</f>
-        <v>395</v>
-      </c>
-      <c r="W61">
-        <f t="shared" ref="W61" si="75">W62-(W35-W34)</f>
-        <v>367</v>
-      </c>
-      <c r="X61">
-        <f t="shared" ref="X61" si="76">X62-(X35-X34)</f>
-        <v>357</v>
-      </c>
-      <c r="Y61">
-        <f t="shared" ref="Y61" si="77">Y62-(Y35-Y34)</f>
-        <v>332</v>
-      </c>
-      <c r="Z61">
-        <f>Z62-(Z35-Z34)</f>
-        <v>308</v>
-      </c>
-      <c r="AA61">
-        <f t="shared" ref="AA61" si="78">AA62-(AA35-AA34)</f>
-        <v>262</v>
-      </c>
-      <c r="AB61">
-        <f t="shared" ref="AB61" si="79">AB62-(AB35-AB34)</f>
-        <v>245</v>
-      </c>
-      <c r="AC61">
-        <f t="shared" ref="AC61" si="80">AC62-(AC35-AC34)</f>
-        <v>231</v>
-      </c>
-      <c r="AD61">
-        <f t="shared" ref="AD61" si="81">AD62-(AD35-AD34)</f>
-        <v>231</v>
-      </c>
-      <c r="AE61">
-        <f>AE62-(AE35-AE34)</f>
-        <v>217</v>
-      </c>
-      <c r="AF61">
-        <f t="shared" ref="AF61" si="82">AF62-(AF35-AF34)</f>
-        <v>129</v>
-      </c>
-      <c r="AG61">
-        <f t="shared" ref="AG61" si="83">AG62-(AG35-AG34)</f>
-        <v>129</v>
-      </c>
-      <c r="AH61">
-        <v>129</v>
-      </c>
-      <c r="AI61">
-        <v>129</v>
-      </c>
-      <c r="AJ61">
-        <f>AJ62-(AJ35-AJ34)</f>
-        <v>129</v>
-      </c>
-      <c r="AK61">
-        <f t="shared" ref="AK61" si="84">AK62-(AK35-AK34)</f>
-        <v>129</v>
-      </c>
-      <c r="AL61">
-        <f t="shared" ref="AL61" si="85">AL62-(AL35-AL34)</f>
-        <v>129</v>
-      </c>
-      <c r="AM61">
-        <v>129</v>
-      </c>
-      <c r="AN61">
-        <v>206</v>
-      </c>
-      <c r="AO61">
-        <v>234</v>
-      </c>
-      <c r="AP61">
-        <v>252</v>
-      </c>
-      <c r="AQ61">
-        <v>280</v>
-      </c>
-      <c r="AR61">
-        <v>602</v>
-      </c>
-      <c r="AS61">
-        <f t="shared" ref="AS61" si="86">AS62-(AS35-AS34)</f>
-        <v>703</v>
-      </c>
-      <c r="AT61">
-        <f t="shared" ref="AT61" si="87">AT62-(AT35-AT34)</f>
-        <v>448</v>
-      </c>
-      <c r="AU61">
-        <f t="shared" ref="AU61" si="88">AU62-(AU35-AU34)</f>
-        <v>458</v>
-      </c>
-      <c r="AV61">
-        <f t="shared" ref="AV61" si="89">AV62-(AV35-AV34)</f>
-        <v>469</v>
-      </c>
-      <c r="AW61">
-        <f t="shared" ref="AW61" si="90">AW62-(AW35-AW34)</f>
-        <v>521</v>
-      </c>
-      <c r="AX61">
-        <f t="shared" ref="AX61" si="91">AX62-(AX35-AX34)</f>
-        <v>532</v>
-      </c>
-      <c r="AY61">
-        <f>AY62-(AY35-AY34)</f>
-        <v>532</v>
-      </c>
-      <c r="AZ61">
-        <f t="shared" ref="AZ61" si="92">AZ62-(AZ35-AZ34)</f>
-        <v>546</v>
-      </c>
-      <c r="BA61">
-        <f t="shared" ref="BA61" si="93">BA62-(BA35-BA34)</f>
-        <v>434</v>
-      </c>
-      <c r="BB61">
-        <f t="shared" ref="BB61" si="94">BB62-(BB35-BB34)</f>
-        <v>315</v>
-      </c>
-      <c r="BC61">
-        <f t="shared" ref="BC61" si="95">BC62-(BC35-BC34)</f>
-        <v>231</v>
-      </c>
-      <c r="BD61">
-        <f t="shared" ref="BD61" si="96">BD62-(BD35-BD34)</f>
-        <v>231</v>
-      </c>
-      <c r="BE61">
-        <f>BE62-(BE35-BE34)</f>
-        <v>231</v>
-      </c>
-      <c r="BF61">
-        <f t="shared" ref="BF61" si="97">BF62-(BF35-BF34)</f>
-        <v>129</v>
-      </c>
-      <c r="BG61">
-        <f t="shared" ref="BG61" si="98">BG62-(BG35-BG34)</f>
-        <v>129</v>
-      </c>
-      <c r="BH61">
-        <f t="shared" ref="BH61" si="99">BH62-(BH35-BH34)</f>
-        <v>129</v>
-      </c>
-      <c r="BI61">
-        <v>0</v>
-      </c>
-      <c r="BJ61">
-        <v>129</v>
-      </c>
-      <c r="BK61">
-        <f>BK62-(BK35-BK34)</f>
-        <v>129</v>
-      </c>
-    </row>
-    <row r="62" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="62" spans="1:63" s="1" customFormat="1">
+      <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="1">
         <f>B63</f>
         <v>416</v>
       </c>
-      <c r="C62">
-        <f t="shared" ref="C62:BB62" si="100">C63</f>
+      <c r="C62" s="1">
+        <f t="shared" ref="C62:BI62" si="54">C63</f>
         <v>402</v>
       </c>
-      <c r="D62">
-        <f t="shared" si="100"/>
+      <c r="D62" s="1">
+        <f t="shared" si="54"/>
         <v>339</v>
       </c>
-      <c r="E62">
-        <f t="shared" si="100"/>
+      <c r="E62" s="1">
+        <f t="shared" si="54"/>
         <v>416</v>
       </c>
-      <c r="F62">
-        <f t="shared" si="100"/>
+      <c r="F62" s="1">
+        <f t="shared" si="54"/>
         <v>392</v>
       </c>
-      <c r="G62">
-        <f t="shared" si="100"/>
+      <c r="G62" s="1">
+        <f t="shared" si="54"/>
         <v>360</v>
       </c>
-      <c r="H62">
-        <f t="shared" si="100"/>
+      <c r="H62" s="1">
+        <f t="shared" si="54"/>
         <v>339</v>
       </c>
-      <c r="I62">
-        <f t="shared" si="100"/>
+      <c r="I62" s="1">
+        <f t="shared" si="54"/>
         <v>322</v>
       </c>
-      <c r="J62">
-        <f t="shared" si="100"/>
+      <c r="J62" s="1">
+        <f t="shared" si="54"/>
         <v>304</v>
       </c>
-      <c r="K62">
-        <f t="shared" si="100"/>
+      <c r="K62" s="1">
+        <f t="shared" si="54"/>
         <v>283</v>
       </c>
-      <c r="L62">
-        <f t="shared" si="100"/>
+      <c r="L62" s="1">
+        <f t="shared" si="54"/>
         <v>262</v>
       </c>
-      <c r="M62">
-        <f t="shared" si="100"/>
+      <c r="M62" s="1">
+        <f t="shared" si="54"/>
         <v>231</v>
       </c>
-      <c r="N62">
-        <f t="shared" si="100"/>
+      <c r="N62" s="1">
+        <f t="shared" si="54"/>
         <v>315</v>
       </c>
-      <c r="O62">
-        <f t="shared" si="100"/>
+      <c r="O62" s="1">
+        <f t="shared" si="54"/>
         <v>301</v>
       </c>
-      <c r="P62">
-        <f t="shared" si="100"/>
+      <c r="P62" s="1">
+        <f t="shared" si="54"/>
         <v>290</v>
       </c>
-      <c r="Q62">
-        <f t="shared" si="100"/>
+      <c r="Q62" s="1">
+        <f t="shared" si="54"/>
         <v>280</v>
       </c>
-      <c r="R62">
-        <f t="shared" si="100"/>
+      <c r="R62" s="1">
+        <f t="shared" si="54"/>
         <v>273</v>
       </c>
-      <c r="S62">
-        <f t="shared" si="100"/>
+      <c r="S62" s="1">
+        <f t="shared" si="54"/>
         <v>262</v>
       </c>
-      <c r="T62">
-        <f t="shared" si="100"/>
+      <c r="T62" s="1">
+        <f t="shared" si="54"/>
         <v>441</v>
       </c>
-      <c r="U62">
-        <f t="shared" si="100"/>
+      <c r="U62" s="1">
+        <f t="shared" si="54"/>
         <v>406</v>
       </c>
-      <c r="V62">
-        <f t="shared" si="100"/>
+      <c r="V62" s="1">
+        <f t="shared" si="54"/>
         <v>395</v>
       </c>
-      <c r="W62">
-        <f t="shared" si="100"/>
+      <c r="W62" s="1">
+        <f t="shared" si="54"/>
         <v>367</v>
       </c>
-      <c r="X62">
-        <f t="shared" si="100"/>
+      <c r="X62" s="1">
+        <f t="shared" si="54"/>
         <v>357</v>
       </c>
-      <c r="Y62">
-        <f t="shared" si="100"/>
+      <c r="Y62" s="1">
+        <f t="shared" si="54"/>
         <v>332</v>
       </c>
-      <c r="Z62">
-        <f t="shared" si="100"/>
+      <c r="Z62" s="1">
+        <f t="shared" si="54"/>
         <v>308</v>
       </c>
-      <c r="AA62">
-        <f t="shared" si="100"/>
+      <c r="AA62" s="1">
+        <f t="shared" si="54"/>
         <v>262</v>
       </c>
-      <c r="AB62">
-        <f t="shared" si="100"/>
+      <c r="AB62" s="1">
+        <f t="shared" si="54"/>
         <v>245</v>
       </c>
-      <c r="AC62">
-        <f t="shared" si="100"/>
+      <c r="AC62" s="1">
+        <f t="shared" si="54"/>
         <v>231</v>
       </c>
-      <c r="AD62">
-        <f t="shared" si="100"/>
+      <c r="AD62" s="1">
+        <f t="shared" si="54"/>
         <v>231</v>
       </c>
-      <c r="AE62">
-        <f t="shared" si="100"/>
+      <c r="AE62" s="1">
+        <f t="shared" si="54"/>
         <v>217</v>
       </c>
-      <c r="AF62">
-        <f t="shared" si="100"/>
-        <v>129</v>
-      </c>
-      <c r="AG62">
-        <f t="shared" si="100"/>
-        <v>129</v>
-      </c>
-      <c r="AH62">
-        <f t="shared" si="100"/>
-        <v>129</v>
-      </c>
-      <c r="AI62">
-        <f t="shared" si="100"/>
-        <v>129</v>
-      </c>
-      <c r="AJ62">
-        <f t="shared" si="100"/>
-        <v>129</v>
-      </c>
-      <c r="AK62">
-        <f t="shared" si="100"/>
-        <v>129</v>
-      </c>
-      <c r="AL62">
-        <f t="shared" si="100"/>
-        <v>129</v>
-      </c>
-      <c r="AM62">
-        <v>129</v>
-      </c>
-      <c r="AN62">
-        <v>206</v>
-      </c>
-      <c r="AO62">
-        <v>234</v>
-      </c>
-      <c r="AP62">
-        <v>252</v>
-      </c>
-      <c r="AQ62">
-        <v>280</v>
-      </c>
-      <c r="AR62">
-        <v>602</v>
-      </c>
-      <c r="AS62">
-        <f t="shared" si="100"/>
+      <c r="AF62" s="1">
+        <f t="shared" si="54"/>
+        <v>129</v>
+      </c>
+      <c r="AG62" s="1">
+        <f t="shared" si="54"/>
+        <v>129</v>
+      </c>
+      <c r="AH62" s="1">
+        <f t="shared" si="54"/>
+        <v>129</v>
+      </c>
+      <c r="AI62" s="1">
+        <f t="shared" si="54"/>
+        <v>129</v>
+      </c>
+      <c r="AJ62" s="1">
+        <f t="shared" si="54"/>
+        <v>129</v>
+      </c>
+      <c r="AK62" s="1">
+        <f t="shared" si="54"/>
+        <v>129</v>
+      </c>
+      <c r="AL62" s="1">
+        <f t="shared" si="54"/>
+        <v>129</v>
+      </c>
+      <c r="AM62" s="1">
+        <f t="shared" si="54"/>
+        <v>133</v>
+      </c>
+      <c r="AN62" s="1">
+        <f t="shared" si="54"/>
+        <v>220</v>
+      </c>
+      <c r="AO62" s="1">
+        <f t="shared" si="54"/>
+        <v>245</v>
+      </c>
+      <c r="AP62" s="1">
+        <f t="shared" si="54"/>
+        <v>266</v>
+      </c>
+      <c r="AQ62" s="1">
+        <f t="shared" si="54"/>
+        <v>290</v>
+      </c>
+      <c r="AR62" s="1">
+        <f t="shared" si="54"/>
+        <v>605</v>
+      </c>
+      <c r="AS62" s="1">
+        <f t="shared" si="54"/>
         <v>703</v>
       </c>
-      <c r="AT62">
-        <f t="shared" si="100"/>
+      <c r="AT62" s="1">
+        <f t="shared" si="54"/>
         <v>448</v>
       </c>
-      <c r="AU62">
-        <f t="shared" si="100"/>
+      <c r="AU62" s="1">
+        <f t="shared" si="54"/>
         <v>458</v>
       </c>
-      <c r="AV62">
-        <f t="shared" si="100"/>
+      <c r="AV62" s="1">
+        <f t="shared" si="54"/>
         <v>469</v>
       </c>
-      <c r="AW62">
-        <f t="shared" si="100"/>
+      <c r="AW62" s="1">
+        <f t="shared" si="54"/>
         <v>521</v>
       </c>
-      <c r="AX62">
-        <f t="shared" si="100"/>
+      <c r="AX62" s="1">
+        <f t="shared" si="54"/>
         <v>532</v>
       </c>
-      <c r="AY62">
-        <f t="shared" si="100"/>
+      <c r="AY62" s="1">
+        <f t="shared" si="54"/>
         <v>532</v>
       </c>
-      <c r="AZ62">
-        <f t="shared" si="100"/>
+      <c r="AZ62" s="1">
+        <f t="shared" si="54"/>
         <v>546</v>
       </c>
-      <c r="BA62">
-        <f t="shared" si="100"/>
+      <c r="BA62" s="1">
+        <f t="shared" si="54"/>
         <v>434</v>
       </c>
-      <c r="BB62">
-        <f t="shared" si="100"/>
+      <c r="BB62" s="1">
+        <f t="shared" si="54"/>
         <v>315</v>
       </c>
-      <c r="BC62">
-        <f>BC63</f>
+      <c r="BC62" s="1">
+        <f t="shared" si="54"/>
         <v>231</v>
       </c>
-      <c r="BD62">
-        <f>BD63</f>
+      <c r="BD62" s="1">
+        <f t="shared" si="54"/>
         <v>231</v>
       </c>
-      <c r="BE62">
-        <f>BE63</f>
-        <v>231</v>
-      </c>
-      <c r="BF62">
-        <v>129</v>
-      </c>
-      <c r="BG62">
-        <v>129</v>
-      </c>
-      <c r="BH62">
-        <v>129</v>
-      </c>
-      <c r="BI62">
-        <v>129</v>
-      </c>
-      <c r="BJ62">
+      <c r="BE62" s="1">
+        <f t="shared" si="54"/>
+        <v>217</v>
+      </c>
+      <c r="BF62" s="1">
+        <f t="shared" si="54"/>
+        <v>129</v>
+      </c>
+      <c r="BG62" s="1">
+        <f t="shared" si="54"/>
+        <v>129</v>
+      </c>
+      <c r="BH62" s="1">
+        <f t="shared" si="54"/>
+        <v>129</v>
+      </c>
+      <c r="BI62" s="1">
+        <f t="shared" si="54"/>
+        <v>129</v>
+      </c>
+      <c r="BJ62" s="1">
         <v>0</v>
       </c>
-      <c r="BK62" s="1">
-        <v>129</v>
-      </c>
+      <c r="BK62" s="2"/>
     </row>
-    <row r="63" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="63" spans="1:63" s="1" customFormat="1">
+      <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="1">
         <f>B35</f>
         <v>416</v>
       </c>
-      <c r="C63">
-        <f t="shared" ref="C63:BK63" si="101">C35</f>
+      <c r="C63" s="1">
+        <f t="shared" ref="C63:BB63" si="55">C35</f>
         <v>402</v>
       </c>
-      <c r="D63">
-        <f t="shared" si="101"/>
+      <c r="D63" s="1">
+        <f t="shared" si="55"/>
         <v>339</v>
       </c>
-      <c r="E63">
-        <f t="shared" si="101"/>
+      <c r="E63" s="1">
+        <f t="shared" si="55"/>
         <v>416</v>
       </c>
-      <c r="F63">
-        <f t="shared" si="101"/>
+      <c r="F63" s="1">
+        <f t="shared" si="55"/>
         <v>392</v>
       </c>
-      <c r="G63">
-        <f t="shared" si="101"/>
+      <c r="G63" s="1">
+        <f t="shared" si="55"/>
         <v>360</v>
       </c>
-      <c r="H63">
-        <f t="shared" si="101"/>
+      <c r="H63" s="1">
+        <f t="shared" si="55"/>
         <v>339</v>
       </c>
-      <c r="I63">
-        <f t="shared" si="101"/>
+      <c r="I63" s="1">
+        <f t="shared" si="55"/>
         <v>322</v>
       </c>
-      <c r="J63">
-        <f t="shared" si="101"/>
+      <c r="J63" s="1">
+        <f t="shared" si="55"/>
         <v>304</v>
       </c>
-      <c r="K63">
-        <f t="shared" si="101"/>
+      <c r="K63" s="1">
+        <f t="shared" si="55"/>
         <v>283</v>
       </c>
-      <c r="L63">
-        <f t="shared" si="101"/>
+      <c r="L63" s="1">
+        <f t="shared" si="55"/>
         <v>262</v>
       </c>
-      <c r="M63">
-        <f t="shared" si="101"/>
+      <c r="M63" s="1">
+        <f t="shared" si="55"/>
         <v>231</v>
       </c>
-      <c r="N63">
-        <f t="shared" si="101"/>
+      <c r="N63" s="1">
+        <f t="shared" si="55"/>
         <v>315</v>
       </c>
-      <c r="O63">
-        <f t="shared" si="101"/>
+      <c r="O63" s="1">
+        <f t="shared" si="55"/>
         <v>301</v>
       </c>
-      <c r="P63">
-        <f t="shared" si="101"/>
+      <c r="P63" s="1">
+        <f t="shared" si="55"/>
         <v>290</v>
       </c>
-      <c r="Q63">
-        <f t="shared" si="101"/>
+      <c r="Q63" s="1">
+        <f>Q35</f>
         <v>280</v>
       </c>
-      <c r="R63">
-        <f t="shared" si="101"/>
+      <c r="R63" s="1">
+        <f t="shared" si="55"/>
         <v>273</v>
       </c>
-      <c r="S63">
-        <f t="shared" si="101"/>
+      <c r="S63" s="1">
+        <f t="shared" si="55"/>
         <v>262</v>
       </c>
-      <c r="T63">
-        <f t="shared" si="101"/>
+      <c r="T63" s="1">
+        <f t="shared" si="55"/>
         <v>441</v>
       </c>
-      <c r="U63">
-        <f t="shared" si="101"/>
+      <c r="U63" s="1">
+        <f t="shared" si="55"/>
         <v>406</v>
       </c>
-      <c r="V63">
-        <f t="shared" si="101"/>
+      <c r="V63" s="1">
+        <f t="shared" si="55"/>
         <v>395</v>
       </c>
-      <c r="W63">
-        <f t="shared" si="101"/>
+      <c r="W63" s="1">
+        <f t="shared" si="55"/>
         <v>367</v>
       </c>
-      <c r="X63">
-        <f t="shared" si="101"/>
+      <c r="X63" s="1">
+        <f t="shared" si="55"/>
         <v>357</v>
       </c>
-      <c r="Y63">
-        <f t="shared" si="101"/>
+      <c r="Y63" s="1">
+        <f t="shared" si="55"/>
         <v>332</v>
       </c>
-      <c r="Z63">
-        <f t="shared" si="101"/>
+      <c r="Z63" s="1">
+        <f t="shared" si="55"/>
         <v>308</v>
       </c>
-      <c r="AA63">
-        <f t="shared" si="101"/>
+      <c r="AA63" s="1">
+        <f t="shared" si="55"/>
         <v>262</v>
       </c>
-      <c r="AB63">
-        <f t="shared" si="101"/>
+      <c r="AB63" s="1">
+        <f t="shared" si="55"/>
         <v>245</v>
       </c>
-      <c r="AC63">
-        <f t="shared" si="101"/>
+      <c r="AC63" s="1">
+        <f t="shared" si="55"/>
         <v>231</v>
       </c>
-      <c r="AD63">
-        <f t="shared" si="101"/>
+      <c r="AD63" s="1">
+        <f t="shared" si="55"/>
         <v>231</v>
       </c>
-      <c r="AE63">
-        <f t="shared" si="101"/>
+      <c r="AE63" s="1">
+        <f t="shared" si="55"/>
         <v>217</v>
       </c>
-      <c r="AF63">
-        <f t="shared" si="101"/>
-        <v>129</v>
-      </c>
-      <c r="AG63">
-        <f t="shared" si="101"/>
-        <v>129</v>
-      </c>
-      <c r="AH63">
-        <f t="shared" si="101"/>
-        <v>129</v>
-      </c>
-      <c r="AI63">
-        <v>129</v>
-      </c>
-      <c r="AJ63">
-        <f t="shared" si="101"/>
-        <v>129</v>
-      </c>
-      <c r="AK63">
-        <f t="shared" si="101"/>
-        <v>129</v>
-      </c>
-      <c r="AL63">
-        <f t="shared" si="101"/>
-        <v>129</v>
-      </c>
-      <c r="AM63">
-        <v>129</v>
-      </c>
-      <c r="AN63">
-        <v>206</v>
-      </c>
-      <c r="AO63">
-        <v>234</v>
-      </c>
-      <c r="AP63">
-        <v>252</v>
-      </c>
-      <c r="AQ63">
-        <v>280</v>
-      </c>
-      <c r="AR63">
-        <v>602</v>
-      </c>
-      <c r="AS63">
-        <f t="shared" si="101"/>
+      <c r="AF63" s="1">
+        <f t="shared" si="55"/>
+        <v>129</v>
+      </c>
+      <c r="AG63" s="1">
+        <f t="shared" si="55"/>
+        <v>129</v>
+      </c>
+      <c r="AH63" s="1">
+        <f t="shared" si="55"/>
+        <v>129</v>
+      </c>
+      <c r="AI63" s="1">
+        <v>129</v>
+      </c>
+      <c r="AJ63" s="1">
+        <f t="shared" si="55"/>
+        <v>129</v>
+      </c>
+      <c r="AK63" s="1">
+        <f t="shared" si="55"/>
+        <v>129</v>
+      </c>
+      <c r="AL63" s="1">
+        <f t="shared" si="55"/>
+        <v>129</v>
+      </c>
+      <c r="AM63" s="1">
+        <f t="shared" si="55"/>
+        <v>133</v>
+      </c>
+      <c r="AN63" s="1">
+        <f t="shared" si="55"/>
+        <v>220</v>
+      </c>
+      <c r="AO63" s="1">
+        <f t="shared" si="55"/>
+        <v>245</v>
+      </c>
+      <c r="AP63" s="1">
+        <f t="shared" si="55"/>
+        <v>266</v>
+      </c>
+      <c r="AQ63" s="1">
+        <f t="shared" si="55"/>
+        <v>290</v>
+      </c>
+      <c r="AR63" s="1">
+        <f t="shared" si="55"/>
+        <v>605</v>
+      </c>
+      <c r="AS63" s="1">
+        <f t="shared" si="55"/>
         <v>703</v>
       </c>
-      <c r="AT63">
-        <f t="shared" si="101"/>
+      <c r="AT63" s="1">
+        <f t="shared" si="55"/>
         <v>448</v>
       </c>
-      <c r="AU63">
-        <f t="shared" si="101"/>
+      <c r="AU63" s="1">
+        <f t="shared" si="55"/>
         <v>458</v>
       </c>
-      <c r="AV63">
-        <f t="shared" si="101"/>
+      <c r="AV63" s="1">
+        <f t="shared" si="55"/>
         <v>469</v>
       </c>
-      <c r="AW63">
-        <f t="shared" si="101"/>
+      <c r="AW63" s="1">
+        <f t="shared" si="55"/>
         <v>521</v>
       </c>
-      <c r="AX63">
-        <f t="shared" si="101"/>
+      <c r="AX63" s="1">
+        <f t="shared" si="55"/>
         <v>532</v>
       </c>
-      <c r="AY63">
-        <f t="shared" si="101"/>
+      <c r="AY63" s="1">
+        <f t="shared" si="55"/>
         <v>532</v>
       </c>
-      <c r="AZ63">
-        <f t="shared" si="101"/>
+      <c r="AZ63" s="1">
+        <f t="shared" si="55"/>
         <v>546</v>
       </c>
-      <c r="BA63">
-        <f t="shared" si="101"/>
+      <c r="BA63" s="1">
+        <f t="shared" si="55"/>
         <v>434</v>
       </c>
-      <c r="BB63">
-        <f t="shared" si="101"/>
+      <c r="BB63" s="1">
+        <f t="shared" si="55"/>
         <v>315</v>
       </c>
-      <c r="BC63">
-        <f>BK55</f>
+      <c r="BC63" s="1">
+        <f>AD35</f>
         <v>231</v>
       </c>
-      <c r="BD63">
-        <f>BK56</f>
+      <c r="BD63" s="1">
         <v>231</v>
       </c>
-      <c r="BE63">
-        <f>BK57</f>
-        <v>231</v>
-      </c>
-      <c r="BF63">
-        <v>129</v>
-      </c>
-      <c r="BG63">
-        <v>129</v>
-      </c>
-      <c r="BH63">
-        <v>129</v>
-      </c>
-      <c r="BI63">
-        <v>129</v>
-      </c>
-      <c r="BJ63">
-        <v>129</v>
-      </c>
-      <c r="BK63">
-        <f t="shared" si="101"/>
+      <c r="BE63" s="1">
+        <f>AE35</f>
+        <v>217</v>
+      </c>
+      <c r="BF63" s="1">
+        <v>129</v>
+      </c>
+      <c r="BG63" s="1">
+        <v>129</v>
+      </c>
+      <c r="BH63" s="1">
+        <v>129</v>
+      </c>
+      <c r="BI63" s="1">
+        <v>129</v>
+      </c>
+      <c r="BJ63" s="1">
+        <v>129</v>
+      </c>
+      <c r="BK63" s="1">
+        <f t="shared" ref="BK63" si="56">BK35</f>
         <v>0</v>
       </c>
     </row>

--- a/Alternatives/Alternative2_01/transit_fare/farematrix_alt2.xlsx
+++ b/Alternatives/Alternative2_01/transit_fare/farematrix_alt2.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbrooks\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28020" windowHeight="15440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3555" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="farematrix.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -210,7 +215,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -243,18 +248,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -266,7 +265,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -292,15 +291,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -313,7 +309,6 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -326,7 +321,6 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -666,21 +660,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AW38" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BC70" sqref="BC70"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="AR1" sqref="AR1"/>
+      <selection pane="bottomLeft" activeCell="AA58" sqref="AA58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -868,7 +861,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:63">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1032,7 +1025,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="3" spans="1:63">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1196,7 +1189,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="4" spans="1:63">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1360,7 +1353,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="5" spans="1:63">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1524,7 +1517,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="6" spans="1:63">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1688,7 +1681,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="7" spans="1:63">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1852,7 +1845,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="8" spans="1:63">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2016,7 +2009,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="9" spans="1:63">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2180,7 +2173,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="10" spans="1:63">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2344,7 +2337,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="11" spans="1:63">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2508,7 +2501,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="12" spans="1:63">
+    <row r="12" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2672,7 +2665,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="13" spans="1:63">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2836,7 +2829,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="14" spans="1:63">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3000,7 +2993,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="15" spans="1:63">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3164,7 +3157,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="16" spans="1:63">
+    <row r="16" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3328,7 +3321,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="17" spans="1:54">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3492,7 +3485,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="18" spans="1:54">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3656,7 +3649,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="1:54">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3820,7 +3813,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="20" spans="1:54">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3984,7 +3977,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="21" spans="1:54">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -4148,7 +4141,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="22" spans="1:54">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -4312,7 +4305,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="23" spans="1:54">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -4476,7 +4469,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="24" spans="1:54">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -4640,7 +4633,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="25" spans="1:54">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -4804,7 +4797,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="26" spans="1:54">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -4968,7 +4961,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="27" spans="1:54">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -5132,7 +5125,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="1:54">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -5296,7 +5289,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="29" spans="1:54">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -5460,7 +5453,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="30" spans="1:54">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -5624,7 +5617,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="31" spans="1:54">
+    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -5788,7 +5781,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="32" spans="1:54">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -5952,7 +5945,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="33" spans="1:54">
+    <row r="33" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -6116,7 +6109,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="34" spans="1:54">
+    <row r="34" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -6280,7 +6273,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="35" spans="1:54">
+    <row r="35" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -6444,7 +6437,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="36" spans="1:54">
+    <row r="36" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -6608,7 +6601,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="37" spans="1:54">
+    <row r="37" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -6772,7 +6765,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="38" spans="1:54">
+    <row r="38" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -6936,7 +6929,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="39" spans="1:54">
+    <row r="39" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -7100,7 +7093,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="40" spans="1:54">
+    <row r="40" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -7264,7 +7257,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="41" spans="1:54">
+    <row r="41" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -7428,7 +7421,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="42" spans="1:54">
+    <row r="42" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -7592,7 +7585,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="43" spans="1:54">
+    <row r="43" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -7756,7 +7749,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="44" spans="1:54">
+    <row r="44" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -7920,7 +7913,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="45" spans="1:54">
+    <row r="45" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -8084,7 +8077,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="46" spans="1:54">
+    <row r="46" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -8248,7 +8241,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="47" spans="1:54">
+    <row r="47" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -8412,7 +8405,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="48" spans="1:54">
+    <row r="48" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -8576,7 +8569,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="49" spans="1:63">
+    <row r="49" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -8740,7 +8733,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="50" spans="1:63">
+    <row r="50" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -8904,7 +8897,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="51" spans="1:63">
+    <row r="51" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -9068,7 +9061,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="52" spans="1:63">
+    <row r="52" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -9232,7 +9225,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="53" spans="1:63">
+    <row r="53" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -9396,7 +9389,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="54" spans="1:63">
+    <row r="54" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -9560,2113 +9553,2201 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:63" s="1" customFormat="1">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55">
         <f>B30</f>
         <v>297</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55">
         <f t="shared" ref="C55:BB55" si="0">C30</f>
         <v>287</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55">
         <f t="shared" si="0"/>
         <v>224</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55">
         <f t="shared" si="0"/>
         <v>301</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55">
         <f t="shared" si="0"/>
         <v>276</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G55">
         <f t="shared" si="0"/>
         <v>245</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H55">
         <f t="shared" si="0"/>
         <v>224</v>
       </c>
-      <c r="I55" s="1">
+      <c r="I55">
         <f t="shared" si="0"/>
         <v>192</v>
       </c>
-      <c r="J55" s="1">
+      <c r="J55">
         <f t="shared" si="0"/>
         <v>168</v>
       </c>
-      <c r="K55" s="1">
+      <c r="K55">
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
-      <c r="L55" s="1">
+      <c r="L55">
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
-      <c r="M55" s="1">
+      <c r="M55">
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
-      <c r="N55" s="1">
+      <c r="N55">
         <f t="shared" si="0"/>
         <v>196</v>
       </c>
-      <c r="O55" s="1">
+      <c r="O55">
         <f t="shared" si="0"/>
         <v>171</v>
       </c>
-      <c r="P55" s="1">
+      <c r="P55">
         <f t="shared" si="0"/>
         <v>154</v>
       </c>
-      <c r="Q55" s="1">
+      <c r="Q55">
         <f t="shared" si="0"/>
         <v>133</v>
       </c>
-      <c r="R55" s="1">
+      <c r="R55">
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
-      <c r="S55" s="1">
+      <c r="S55">
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
-      <c r="T55" s="1">
+      <c r="T55">
         <f t="shared" si="0"/>
         <v>322</v>
       </c>
-      <c r="U55" s="1">
+      <c r="U55">
         <f t="shared" si="0"/>
         <v>287</v>
       </c>
-      <c r="V55" s="1">
+      <c r="V55">
         <f t="shared" si="0"/>
         <v>273</v>
       </c>
-      <c r="W55" s="1">
+      <c r="W55">
         <f t="shared" si="0"/>
         <v>248</v>
       </c>
-      <c r="X55" s="1">
+      <c r="X55">
         <f t="shared" si="0"/>
         <v>238</v>
       </c>
-      <c r="Y55" s="1">
+      <c r="Y55">
         <f t="shared" si="0"/>
         <v>206</v>
       </c>
-      <c r="Z55" s="1">
+      <c r="Z55">
         <f t="shared" si="0"/>
         <v>164</v>
       </c>
-      <c r="AA55" s="1">
+      <c r="AA55">
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
-      <c r="AB55" s="1">
+      <c r="AB55">
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
-      <c r="AC55" s="1">
+      <c r="AC55">
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
-      <c r="AD55" s="1">
-        <v>129</v>
-      </c>
-      <c r="AE55" s="1">
+      <c r="AD55">
+        <v>129</v>
+      </c>
+      <c r="AE55">
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
-      <c r="AF55" s="1">
+      <c r="AF55">
         <f t="shared" si="0"/>
         <v>231</v>
       </c>
-      <c r="AG55" s="1">
+      <c r="AG55">
         <f t="shared" si="0"/>
         <v>231</v>
       </c>
-      <c r="AH55" s="1">
+      <c r="AH55">
         <f t="shared" si="0"/>
         <v>231</v>
       </c>
-      <c r="AI55" s="1">
+      <c r="AI55">
         <f t="shared" si="0"/>
         <v>231</v>
       </c>
-      <c r="AJ55" s="1">
+      <c r="AJ55">
         <f t="shared" si="0"/>
         <v>245</v>
       </c>
-      <c r="AK55" s="1">
+      <c r="AK55">
         <f t="shared" si="0"/>
         <v>252</v>
       </c>
-      <c r="AL55" s="1">
+      <c r="AL55">
         <f t="shared" si="0"/>
         <v>269</v>
       </c>
-      <c r="AM55" s="1">
+      <c r="AM55">
         <f t="shared" si="0"/>
         <v>276</v>
       </c>
-      <c r="AN55" s="1">
+      <c r="AN55">
         <f t="shared" si="0"/>
         <v>287</v>
       </c>
-      <c r="AO55" s="1">
+      <c r="AO55">
         <f t="shared" si="0"/>
         <v>283</v>
       </c>
-      <c r="AP55" s="1">
+      <c r="AP55">
         <f t="shared" si="0"/>
         <v>297</v>
       </c>
-      <c r="AQ55" s="1">
+      <c r="AQ55">
         <f t="shared" si="0"/>
         <v>315</v>
       </c>
-      <c r="AR55" s="1">
+      <c r="AR55">
         <f t="shared" si="0"/>
         <v>626</v>
       </c>
-      <c r="AS55" s="1">
+      <c r="AS55">
         <f t="shared" si="0"/>
         <v>549</v>
       </c>
-      <c r="AT55" s="1">
+      <c r="AT55">
         <f t="shared" si="0"/>
         <v>332</v>
       </c>
-      <c r="AU55" s="1">
+      <c r="AU55">
         <f t="shared" si="0"/>
         <v>343</v>
       </c>
-      <c r="AV55" s="1">
+      <c r="AV55">
         <f t="shared" si="0"/>
         <v>353</v>
       </c>
-      <c r="AW55" s="1">
+      <c r="AW55">
         <f t="shared" si="0"/>
         <v>402</v>
       </c>
-      <c r="AX55" s="1">
+      <c r="AX55">
         <f t="shared" si="0"/>
         <v>413</v>
       </c>
-      <c r="AY55" s="1">
+      <c r="AY55">
         <f t="shared" si="0"/>
         <v>413</v>
       </c>
-      <c r="AZ55" s="1">
+      <c r="AZ55">
         <f t="shared" si="0"/>
         <v>427</v>
       </c>
-      <c r="BA55" s="1">
+      <c r="BA55">
         <f t="shared" si="0"/>
         <v>318</v>
       </c>
-      <c r="BB55" s="1">
+      <c r="BB55">
         <f t="shared" si="0"/>
         <v>336</v>
       </c>
-      <c r="BC55" s="1">
+      <c r="BC55">
         <v>0</v>
       </c>
+      <c r="BD55">
+        <v>129</v>
+      </c>
+      <c r="BE55">
+        <v>129</v>
+      </c>
+      <c r="BF55">
+        <v>245</v>
+      </c>
+      <c r="BG55">
+        <v>245</v>
+      </c>
+      <c r="BH55">
+        <v>231</v>
+      </c>
+      <c r="BI55">
+        <v>231</v>
+      </c>
+      <c r="BJ55">
+        <v>231</v>
+      </c>
+      <c r="BK55">
+        <v>231</v>
+      </c>
     </row>
-    <row r="56" spans="1:63" s="1" customFormat="1">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56">
         <f>B55</f>
         <v>297</v>
       </c>
-      <c r="C56" s="1">
-        <f t="shared" ref="C56:BB56" si="1">C55</f>
+      <c r="C56">
+        <f t="shared" ref="C56:BK56" si="1">C55</f>
         <v>287</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56">
         <f t="shared" si="1"/>
         <v>224</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56">
         <f t="shared" si="1"/>
         <v>301</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56">
         <f t="shared" si="1"/>
         <v>276</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G56">
         <f t="shared" si="1"/>
         <v>245</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H56">
         <f t="shared" si="1"/>
         <v>224</v>
       </c>
-      <c r="I56" s="1">
+      <c r="I56">
         <f t="shared" si="1"/>
         <v>192</v>
       </c>
-      <c r="J56" s="1">
+      <c r="J56">
         <f t="shared" si="1"/>
         <v>168</v>
       </c>
-      <c r="K56" s="1">
+      <c r="K56">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="L56" s="1">
+      <c r="L56">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="M56" s="1">
+      <c r="M56">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="N56" s="1">
+      <c r="N56">
         <f t="shared" si="1"/>
         <v>196</v>
       </c>
-      <c r="O56" s="1">
+      <c r="O56">
         <f t="shared" si="1"/>
         <v>171</v>
       </c>
-      <c r="P56" s="1">
+      <c r="P56">
         <f t="shared" si="1"/>
         <v>154</v>
       </c>
-      <c r="Q56" s="1">
+      <c r="Q56">
         <f t="shared" si="1"/>
         <v>133</v>
       </c>
-      <c r="R56" s="1">
+      <c r="R56">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="S56" s="1">
+      <c r="S56">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="T56" s="1">
+      <c r="T56">
         <f t="shared" si="1"/>
         <v>322</v>
       </c>
-      <c r="U56" s="1">
+      <c r="U56">
         <f t="shared" si="1"/>
         <v>287</v>
       </c>
-      <c r="V56" s="1">
+      <c r="V56">
         <f t="shared" si="1"/>
         <v>273</v>
       </c>
-      <c r="W56" s="1">
+      <c r="W56">
         <f t="shared" si="1"/>
         <v>248</v>
       </c>
-      <c r="X56" s="1">
+      <c r="X56">
         <f t="shared" si="1"/>
         <v>238</v>
       </c>
-      <c r="Y56" s="1">
+      <c r="Y56">
         <f t="shared" si="1"/>
         <v>206</v>
       </c>
-      <c r="Z56" s="1">
+      <c r="Z56">
         <f t="shared" si="1"/>
         <v>164</v>
       </c>
-      <c r="AA56" s="1">
+      <c r="AA56">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="AB56" s="1">
+      <c r="AB56">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="AC56" s="1">
+      <c r="AC56">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="AD56" s="1">
+      <c r="AD56">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="AE56" s="1">
+      <c r="AE56">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="AF56" s="1">
+      <c r="AF56">
         <f t="shared" si="1"/>
         <v>231</v>
       </c>
-      <c r="AG56" s="1">
+      <c r="AG56">
         <f t="shared" si="1"/>
         <v>231</v>
       </c>
-      <c r="AH56" s="1">
+      <c r="AH56">
         <f t="shared" si="1"/>
         <v>231</v>
       </c>
-      <c r="AI56" s="1">
+      <c r="AI56">
         <f t="shared" si="1"/>
         <v>231</v>
       </c>
-      <c r="AJ56" s="1">
+      <c r="AJ56">
         <f t="shared" si="1"/>
         <v>245</v>
       </c>
-      <c r="AK56" s="1">
+      <c r="AK56">
         <f t="shared" si="1"/>
         <v>252</v>
       </c>
-      <c r="AL56" s="1">
+      <c r="AL56">
         <f t="shared" si="1"/>
         <v>269</v>
       </c>
-      <c r="AM56" s="1">
+      <c r="AM56">
         <f t="shared" si="1"/>
         <v>276</v>
       </c>
-      <c r="AN56" s="1">
+      <c r="AN56">
         <f t="shared" si="1"/>
         <v>287</v>
       </c>
-      <c r="AO56" s="1">
+      <c r="AO56">
         <f t="shared" si="1"/>
         <v>283</v>
       </c>
-      <c r="AP56" s="1">
+      <c r="AP56">
         <f t="shared" si="1"/>
         <v>297</v>
       </c>
-      <c r="AQ56" s="1">
+      <c r="AQ56">
         <f t="shared" si="1"/>
         <v>315</v>
       </c>
-      <c r="AR56" s="1">
+      <c r="AR56">
         <f t="shared" si="1"/>
         <v>626</v>
       </c>
-      <c r="AS56" s="1">
+      <c r="AS56">
         <f t="shared" si="1"/>
         <v>549</v>
       </c>
-      <c r="AT56" s="1">
+      <c r="AT56">
         <f t="shared" si="1"/>
         <v>332</v>
       </c>
-      <c r="AU56" s="1">
+      <c r="AU56">
         <f t="shared" si="1"/>
         <v>343</v>
       </c>
-      <c r="AV56" s="1">
+      <c r="AV56">
         <f t="shared" si="1"/>
         <v>353</v>
       </c>
-      <c r="AW56" s="1">
+      <c r="AW56">
         <f t="shared" si="1"/>
         <v>402</v>
       </c>
-      <c r="AX56" s="1">
+      <c r="AX56">
         <f t="shared" si="1"/>
         <v>413</v>
       </c>
-      <c r="AY56" s="1">
+      <c r="AY56">
         <f t="shared" si="1"/>
         <v>413</v>
       </c>
-      <c r="AZ56" s="1">
+      <c r="AZ56">
         <f t="shared" si="1"/>
         <v>427</v>
       </c>
-      <c r="BA56" s="1">
+      <c r="BA56">
         <f t="shared" si="1"/>
         <v>318</v>
       </c>
-      <c r="BB56" s="1">
+      <c r="BB56">
         <f t="shared" si="1"/>
         <v>336</v>
       </c>
-      <c r="BC56" s="1">
-        <v>129</v>
-      </c>
-      <c r="BD56" s="1">
+      <c r="BC56">
+        <v>129</v>
+      </c>
+      <c r="BD56">
         <v>0</v>
       </c>
+      <c r="BE56">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="BF56">
+        <f t="shared" si="1"/>
+        <v>245</v>
+      </c>
+      <c r="BG56">
+        <f t="shared" si="1"/>
+        <v>245</v>
+      </c>
+      <c r="BH56">
+        <f t="shared" si="1"/>
+        <v>231</v>
+      </c>
+      <c r="BI56">
+        <f t="shared" si="1"/>
+        <v>231</v>
+      </c>
+      <c r="BJ56">
+        <f t="shared" si="1"/>
+        <v>231</v>
+      </c>
+      <c r="BK56">
+        <f t="shared" si="1"/>
+        <v>231</v>
+      </c>
     </row>
-    <row r="57" spans="1:63" s="1" customFormat="1">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57">
         <f>B56+(B31-B30)</f>
         <v>304</v>
       </c>
-      <c r="C57" s="1">
-        <f t="shared" ref="C57:AV57" si="2">C56+(C31-C30)</f>
+      <c r="C57">
+        <f t="shared" ref="C57:AC57" si="2">C56+(C31-C30)</f>
         <v>294</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57">
         <f t="shared" si="2"/>
         <v>231</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57">
         <f t="shared" si="2"/>
         <v>308</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57">
         <f t="shared" si="2"/>
         <v>283</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G57">
         <f t="shared" si="2"/>
         <v>252</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H57">
         <f t="shared" si="2"/>
         <v>231</v>
       </c>
-      <c r="I57" s="1">
+      <c r="I57">
         <f t="shared" si="2"/>
         <v>206</v>
       </c>
-      <c r="J57" s="1">
+      <c r="J57">
         <f t="shared" si="2"/>
         <v>178</v>
       </c>
-      <c r="K57" s="1">
+      <c r="K57">
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
-      <c r="L57" s="1">
+      <c r="L57">
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
-      <c r="M57" s="1">
+      <c r="M57">
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
-      <c r="N57" s="1">
+      <c r="N57">
         <f t="shared" si="2"/>
         <v>206</v>
       </c>
-      <c r="O57" s="1">
+      <c r="O57">
         <f t="shared" si="2"/>
         <v>182</v>
       </c>
-      <c r="P57" s="1">
+      <c r="P57">
         <f t="shared" si="2"/>
         <v>164</v>
       </c>
-      <c r="Q57" s="1">
+      <c r="Q57">
         <f t="shared" si="2"/>
         <v>143</v>
       </c>
-      <c r="R57" s="1">
+      <c r="R57">
         <f t="shared" si="2"/>
         <v>136</v>
       </c>
-      <c r="S57" s="1">
+      <c r="S57">
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
-      <c r="T57" s="1">
+      <c r="T57">
         <f t="shared" si="2"/>
         <v>332</v>
       </c>
-      <c r="U57" s="1">
+      <c r="U57">
         <f t="shared" si="2"/>
         <v>297</v>
       </c>
-      <c r="V57" s="1">
+      <c r="V57">
         <f t="shared" si="2"/>
         <v>283</v>
       </c>
-      <c r="W57" s="1">
+      <c r="W57">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="X57" s="1">
+      <c r="X57">
         <f t="shared" si="2"/>
         <v>245</v>
       </c>
-      <c r="Y57" s="1">
+      <c r="Y57">
         <f t="shared" si="2"/>
         <v>220</v>
       </c>
-      <c r="Z57" s="1">
+      <c r="Z57">
         <f t="shared" si="2"/>
         <v>178</v>
       </c>
-      <c r="AA57" s="1">
+      <c r="AA57">
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
-      <c r="AB57" s="1">
+      <c r="AB57">
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
-      <c r="AC57" s="1">
+      <c r="AC57">
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
-      <c r="AD57" s="1">
-        <v>129</v>
-      </c>
-      <c r="AE57" s="1">
-        <v>129</v>
-      </c>
-      <c r="AF57" s="1">
-        <f t="shared" si="2"/>
+      <c r="AD57">
+        <v>129</v>
+      </c>
+      <c r="AE57">
+        <v>129</v>
+      </c>
+      <c r="AF57">
+        <f t="shared" ref="AF57" si="3">AF56+(AF31-AF30)</f>
         <v>217</v>
       </c>
-      <c r="AG57" s="1">
-        <f t="shared" si="2"/>
+      <c r="AG57">
+        <f t="shared" ref="AG57" si="4">AG56+(AG31-AG30)</f>
         <v>217</v>
       </c>
-      <c r="AH57" s="1">
-        <f t="shared" si="2"/>
+      <c r="AH57">
+        <f t="shared" ref="AH57" si="5">AH56+(AH31-AH30)</f>
         <v>217</v>
       </c>
-      <c r="AI57" s="1">
-        <f t="shared" si="2"/>
+      <c r="AI57">
+        <f t="shared" ref="AI57" si="6">AI56+(AI31-AI30)</f>
         <v>217</v>
       </c>
-      <c r="AJ57" s="1">
-        <f t="shared" si="2"/>
+      <c r="AJ57">
+        <f t="shared" ref="AJ57" si="7">AJ56+(AJ31-AJ30)</f>
         <v>234</v>
       </c>
-      <c r="AK57" s="1">
-        <f t="shared" si="2"/>
+      <c r="AK57">
+        <f t="shared" ref="AK57" si="8">AK56+(AK31-AK30)</f>
         <v>238</v>
       </c>
-      <c r="AL57" s="1">
-        <f t="shared" si="2"/>
+      <c r="AL57">
+        <f t="shared" ref="AL57" si="9">AL56+(AL31-AL30)</f>
         <v>255</v>
       </c>
-      <c r="AM57" s="1">
-        <f t="shared" si="2"/>
+      <c r="AM57">
+        <f t="shared" ref="AM57" si="10">AM56+(AM31-AM30)</f>
         <v>266</v>
       </c>
-      <c r="AN57" s="1">
-        <f t="shared" si="2"/>
+      <c r="AN57">
+        <f t="shared" ref="AN57" si="11">AN56+(AN31-AN30)</f>
         <v>280</v>
       </c>
-      <c r="AO57" s="1">
-        <f t="shared" si="2"/>
+      <c r="AO57">
+        <f t="shared" ref="AO57" si="12">AO56+(AO31-AO30)</f>
         <v>276</v>
       </c>
-      <c r="AP57" s="1">
-        <f t="shared" si="2"/>
+      <c r="AP57">
+        <f t="shared" ref="AP57" si="13">AP56+(AP31-AP30)</f>
         <v>290</v>
       </c>
-      <c r="AQ57" s="1">
-        <f t="shared" si="2"/>
+      <c r="AQ57">
+        <f t="shared" ref="AQ57" si="14">AQ56+(AQ31-AQ30)</f>
         <v>308</v>
       </c>
-      <c r="AR57" s="1">
-        <f t="shared" si="2"/>
+      <c r="AR57">
+        <f t="shared" ref="AR57" si="15">AR56+(AR31-AR30)</f>
         <v>619</v>
       </c>
-      <c r="AS57" s="1">
-        <f t="shared" si="2"/>
+      <c r="AS57">
+        <f t="shared" ref="AS57" si="16">AS56+(AS31-AS30)</f>
         <v>567</v>
       </c>
-      <c r="AT57" s="1">
-        <f t="shared" si="2"/>
+      <c r="AT57">
+        <f t="shared" ref="AT57" si="17">AT56+(AT31-AT30)</f>
         <v>339</v>
       </c>
-      <c r="AU57" s="1">
-        <f t="shared" si="2"/>
+      <c r="AU57">
+        <f t="shared" ref="AU57" si="18">AU56+(AU31-AU30)</f>
         <v>350</v>
       </c>
-      <c r="AV57" s="1">
-        <f t="shared" si="2"/>
+      <c r="AV57">
+        <f t="shared" ref="AV57" si="19">AV56+(AV31-AV30)</f>
         <v>360</v>
       </c>
-      <c r="AW57" s="1">
-        <f>AW56+(AW31-AW30)</f>
+      <c r="AW57">
+        <f t="shared" ref="AW57" si="20">AW56+(AW31-AW30)</f>
         <v>409</v>
       </c>
-      <c r="AX57" s="1">
-        <f t="shared" ref="AX57" si="3">AX56+(AX31-AX30)</f>
+      <c r="AX57">
+        <f t="shared" ref="AX57" si="21">AX56+(AX31-AX30)</f>
         <v>420</v>
       </c>
-      <c r="AY57" s="1">
-        <f t="shared" ref="AY57" si="4">AY56+(AY31-AY30)</f>
+      <c r="AY57">
+        <f t="shared" ref="AY57" si="22">AY56+(AY31-AY30)</f>
         <v>420</v>
       </c>
-      <c r="AZ57" s="1">
-        <f t="shared" ref="AZ57" si="5">AZ56+(AZ31-AZ30)</f>
+      <c r="AZ57">
+        <f t="shared" ref="AZ57" si="23">AZ56+(AZ31-AZ30)</f>
         <v>434</v>
       </c>
-      <c r="BA57" s="1">
-        <f t="shared" ref="BA57" si="6">BA56+(BA31-BA30)</f>
+      <c r="BA57">
+        <f>BA56+(BA31-BA30)</f>
         <v>325</v>
       </c>
-      <c r="BB57" s="1">
-        <f t="shared" ref="BB57" si="7">BB56+(BB31-BB30)</f>
+      <c r="BB57">
+        <f t="shared" ref="BB57" si="24">BB56+(BB31-BB30)</f>
         <v>329</v>
       </c>
-      <c r="BC57" s="1">
-        <f t="shared" ref="BC57" si="8">BC56+(BC31-BC30)</f>
-        <v>129</v>
-      </c>
-      <c r="BD57" s="1">
-        <v>129</v>
-      </c>
-      <c r="BE57" s="1">
+      <c r="BC57">
+        <f t="shared" ref="BC57" si="25">BC56+(BC31-BC30)</f>
+        <v>129</v>
+      </c>
+      <c r="BD57">
+        <v>129</v>
+      </c>
+      <c r="BE57">
         <v>0</v>
       </c>
+      <c r="BF57">
+        <f>BF56+(BF31-BF30)</f>
+        <v>245</v>
+      </c>
+      <c r="BG57">
+        <f t="shared" ref="BG57" si="26">BG56+(BG31-BG30)</f>
+        <v>245</v>
+      </c>
+      <c r="BH57">
+        <f t="shared" ref="BH57" si="27">BH56+(BH31-BH30)</f>
+        <v>231</v>
+      </c>
+      <c r="BI57">
+        <f t="shared" ref="BI57" si="28">BI56+(BI31-BI30)</f>
+        <v>231</v>
+      </c>
+      <c r="BJ57">
+        <f t="shared" ref="BJ57" si="29">BJ56+(BJ31-BJ30)</f>
+        <v>231</v>
+      </c>
+      <c r="BK57">
+        <f t="shared" ref="BK57" si="30">BK56+(BK31-BK30)</f>
+        <v>231</v>
+      </c>
     </row>
-    <row r="58" spans="1:63" s="1" customFormat="1">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58">
         <f>B59</f>
         <v>420</v>
       </c>
-      <c r="C58" s="1">
-        <f t="shared" ref="C58:BE58" si="9">C59</f>
+      <c r="C58">
+        <f t="shared" ref="C58:BE62" si="31">C59</f>
         <v>409</v>
       </c>
-      <c r="D58" s="1">
-        <f t="shared" si="9"/>
+      <c r="D58">
+        <f t="shared" si="31"/>
         <v>346</v>
       </c>
-      <c r="E58" s="1">
-        <f t="shared" si="9"/>
+      <c r="E58">
+        <f t="shared" si="31"/>
         <v>420</v>
       </c>
-      <c r="F58" s="1">
-        <f t="shared" si="9"/>
+      <c r="F58">
+        <f t="shared" si="31"/>
         <v>399</v>
       </c>
-      <c r="G58" s="1">
-        <f t="shared" si="9"/>
+      <c r="G58">
+        <f t="shared" si="31"/>
         <v>364</v>
       </c>
-      <c r="H58" s="1">
-        <f t="shared" si="9"/>
+      <c r="H58">
+        <f t="shared" si="31"/>
         <v>346</v>
       </c>
-      <c r="I58" s="1">
-        <f t="shared" si="9"/>
+      <c r="I58">
+        <f t="shared" si="31"/>
         <v>325</v>
       </c>
-      <c r="J58" s="1">
-        <f t="shared" si="9"/>
+      <c r="J58">
+        <f t="shared" si="31"/>
         <v>311</v>
       </c>
-      <c r="K58" s="1">
-        <f t="shared" si="9"/>
+      <c r="K58">
+        <f t="shared" si="31"/>
         <v>290</v>
       </c>
-      <c r="L58" s="1">
-        <f t="shared" si="9"/>
+      <c r="L58">
+        <f t="shared" si="31"/>
         <v>273</v>
       </c>
-      <c r="M58" s="1">
-        <f t="shared" si="9"/>
+      <c r="M58">
+        <f t="shared" si="31"/>
         <v>245</v>
       </c>
-      <c r="N58" s="1">
-        <f t="shared" si="9"/>
+      <c r="N58">
+        <f t="shared" si="31"/>
         <v>322</v>
       </c>
-      <c r="O58" s="1">
-        <f t="shared" si="9"/>
+      <c r="O58">
+        <f t="shared" si="31"/>
         <v>308</v>
       </c>
-      <c r="P58" s="1">
-        <f t="shared" si="9"/>
+      <c r="P58">
+        <f t="shared" si="31"/>
         <v>297</v>
       </c>
-      <c r="Q58" s="1">
-        <f t="shared" si="9"/>
+      <c r="Q58">
+        <f t="shared" si="31"/>
         <v>283</v>
       </c>
-      <c r="R58" s="1">
-        <f t="shared" si="9"/>
+      <c r="R58">
+        <f t="shared" si="31"/>
         <v>280</v>
       </c>
-      <c r="S58" s="1">
-        <f t="shared" si="9"/>
+      <c r="S58">
+        <f t="shared" si="31"/>
         <v>273</v>
       </c>
-      <c r="T58" s="1">
-        <f t="shared" si="9"/>
+      <c r="T58">
+        <f t="shared" si="31"/>
         <v>448</v>
       </c>
-      <c r="U58" s="1">
-        <f t="shared" si="9"/>
+      <c r="U58">
+        <f t="shared" si="31"/>
         <v>413</v>
       </c>
-      <c r="V58" s="1">
-        <f t="shared" si="9"/>
+      <c r="V58">
+        <f t="shared" si="31"/>
         <v>399</v>
       </c>
-      <c r="W58" s="1">
-        <f t="shared" si="9"/>
+      <c r="W58">
+        <f t="shared" si="31"/>
         <v>371</v>
       </c>
-      <c r="X58" s="1">
-        <f t="shared" si="9"/>
+      <c r="X58">
+        <f t="shared" si="31"/>
         <v>360</v>
       </c>
-      <c r="Y58" s="1">
-        <f t="shared" si="9"/>
+      <c r="Y58">
+        <f t="shared" si="31"/>
         <v>336</v>
       </c>
-      <c r="Z58" s="1">
-        <f t="shared" si="9"/>
+      <c r="Z58">
+        <f t="shared" si="31"/>
         <v>311</v>
       </c>
-      <c r="AA58" s="1">
-        <f t="shared" si="9"/>
+      <c r="AA58">
+        <f t="shared" si="31"/>
         <v>273</v>
       </c>
-      <c r="AB58" s="1">
-        <f t="shared" si="9"/>
+      <c r="AB58">
+        <f t="shared" si="31"/>
         <v>259</v>
       </c>
-      <c r="AC58" s="1">
-        <f t="shared" si="9"/>
+      <c r="AC58">
+        <f t="shared" si="31"/>
         <v>245</v>
       </c>
-      <c r="AD58" s="1">
-        <f t="shared" si="9"/>
+      <c r="AD58">
+        <f t="shared" si="31"/>
         <v>245</v>
       </c>
-      <c r="AE58" s="1">
-        <f t="shared" si="9"/>
+      <c r="AE58">
+        <f t="shared" si="31"/>
         <v>234</v>
       </c>
-      <c r="AF58" s="1">
-        <f t="shared" si="9"/>
-        <v>129</v>
-      </c>
-      <c r="AG58" s="1">
-        <f t="shared" si="9"/>
-        <v>129</v>
-      </c>
-      <c r="AH58" s="1">
-        <f t="shared" si="9"/>
-        <v>129</v>
-      </c>
-      <c r="AI58" s="1">
-        <f t="shared" si="9"/>
-        <v>258</v>
-      </c>
-      <c r="AJ58" s="1">
-        <f t="shared" si="9"/>
-        <v>129</v>
-      </c>
-      <c r="AK58" s="1">
-        <f t="shared" si="9"/>
-        <v>129</v>
-      </c>
-      <c r="AL58" s="1">
-        <f t="shared" si="9"/>
-        <v>129</v>
-      </c>
-      <c r="AM58" s="1">
-        <f t="shared" si="9"/>
-        <v>129</v>
-      </c>
-      <c r="AN58" s="1">
-        <f t="shared" si="9"/>
+      <c r="AF58">
+        <f t="shared" si="31"/>
+        <v>129</v>
+      </c>
+      <c r="AG58">
+        <f t="shared" si="31"/>
+        <v>129</v>
+      </c>
+      <c r="AH58">
+        <f t="shared" si="31"/>
+        <v>129</v>
+      </c>
+      <c r="AI58">
+        <f t="shared" si="31"/>
+        <v>129</v>
+      </c>
+      <c r="AJ58">
+        <f t="shared" si="31"/>
+        <v>129</v>
+      </c>
+      <c r="AK58">
+        <f t="shared" si="31"/>
+        <v>129</v>
+      </c>
+      <c r="AL58">
+        <f t="shared" si="31"/>
+        <v>129</v>
+      </c>
+      <c r="AM58">
+        <v>129</v>
+      </c>
+      <c r="AN58">
         <v>206</v>
       </c>
-      <c r="AO58" s="1">
-        <f t="shared" si="9"/>
+      <c r="AO58">
         <v>234</v>
       </c>
-      <c r="AP58" s="1">
-        <f t="shared" si="9"/>
+      <c r="AP58">
         <v>252</v>
       </c>
-      <c r="AQ58" s="1">
-        <f t="shared" si="9"/>
+      <c r="AQ58">
         <v>280</v>
       </c>
-      <c r="AR58" s="1">
-        <f t="shared" si="9"/>
+      <c r="AR58">
         <v>602</v>
       </c>
-      <c r="AS58" s="1">
-        <f t="shared" si="9"/>
+      <c r="AS58">
+        <f t="shared" si="31"/>
         <v>710</v>
       </c>
-      <c r="AT58" s="1">
-        <f t="shared" si="9"/>
+      <c r="AT58">
+        <f t="shared" si="31"/>
         <v>451</v>
       </c>
-      <c r="AU58" s="1">
-        <f t="shared" si="9"/>
+      <c r="AU58">
+        <f t="shared" si="31"/>
         <v>462</v>
       </c>
-      <c r="AV58" s="1">
-        <f t="shared" si="9"/>
+      <c r="AV58">
+        <f t="shared" si="31"/>
         <v>472</v>
       </c>
-      <c r="AW58" s="1">
-        <f t="shared" si="9"/>
+      <c r="AW58">
+        <f t="shared" si="31"/>
         <v>525</v>
       </c>
-      <c r="AX58" s="1">
-        <f t="shared" si="9"/>
+      <c r="AX58">
+        <f t="shared" si="31"/>
         <v>535</v>
       </c>
-      <c r="AY58" s="1">
-        <f t="shared" si="9"/>
+      <c r="AY58">
+        <f t="shared" si="31"/>
         <v>535</v>
       </c>
-      <c r="AZ58" s="1">
-        <f t="shared" si="9"/>
+      <c r="AZ58">
+        <f t="shared" si="31"/>
         <v>553</v>
       </c>
-      <c r="BA58" s="1">
-        <f t="shared" si="9"/>
+      <c r="BA58">
+        <f t="shared" si="31"/>
         <v>437</v>
       </c>
-      <c r="BB58" s="1">
-        <f t="shared" si="9"/>
+      <c r="BB58">
+        <f t="shared" si="31"/>
         <v>311</v>
       </c>
-      <c r="BC58" s="1">
-        <f t="shared" si="9"/>
-        <v>245</v>
-      </c>
-      <c r="BD58" s="1">
-        <v>245</v>
-      </c>
-      <c r="BE58" s="1">
-        <f t="shared" si="9"/>
-        <v>234</v>
-      </c>
-      <c r="BF58" s="1">
+      <c r="BC58">
+        <f t="shared" si="31"/>
+        <v>231</v>
+      </c>
+      <c r="BD58">
+        <f t="shared" si="31"/>
+        <v>231</v>
+      </c>
+      <c r="BE58">
+        <f t="shared" si="31"/>
+        <v>231</v>
+      </c>
+      <c r="BF58">
         <v>0</v>
       </c>
+      <c r="BG58">
+        <v>129</v>
+      </c>
+      <c r="BH58">
+        <f t="shared" ref="BH58" si="32">BH59</f>
+        <v>129</v>
+      </c>
+      <c r="BI58">
+        <f t="shared" ref="BI58" si="33">BI59</f>
+        <v>129</v>
+      </c>
+      <c r="BJ58">
+        <f t="shared" ref="BJ58" si="34">BJ59</f>
+        <v>129</v>
+      </c>
+      <c r="BK58">
+        <f t="shared" ref="BK58" si="35">BK59</f>
+        <v>129</v>
+      </c>
     </row>
-    <row r="59" spans="1:63" s="1" customFormat="1">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59">
         <f>B63+(B36-B35)</f>
         <v>420</v>
       </c>
-      <c r="C59" s="1">
-        <f t="shared" ref="C59:BF59" si="10">C63+(C36-C35)</f>
+      <c r="C59">
+        <f t="shared" ref="C59:BJ59" si="36">C63+(C36-C35)</f>
         <v>409</v>
       </c>
-      <c r="D59" s="1">
-        <f t="shared" si="10"/>
+      <c r="D59">
+        <f t="shared" si="36"/>
         <v>346</v>
       </c>
-      <c r="E59" s="1">
-        <f t="shared" si="10"/>
+      <c r="E59">
+        <f t="shared" si="36"/>
         <v>420</v>
       </c>
-      <c r="F59" s="1">
-        <f t="shared" si="10"/>
+      <c r="F59">
+        <f t="shared" si="36"/>
         <v>399</v>
       </c>
-      <c r="G59" s="1">
-        <f t="shared" si="10"/>
+      <c r="G59">
+        <f t="shared" si="36"/>
         <v>364</v>
       </c>
-      <c r="H59" s="1">
-        <f t="shared" si="10"/>
+      <c r="H59">
+        <f t="shared" si="36"/>
         <v>346</v>
       </c>
-      <c r="I59" s="1">
-        <f t="shared" si="10"/>
+      <c r="I59">
+        <f t="shared" si="36"/>
         <v>325</v>
       </c>
-      <c r="J59" s="1">
-        <f t="shared" si="10"/>
+      <c r="J59">
+        <f t="shared" si="36"/>
         <v>311</v>
       </c>
-      <c r="K59" s="1">
-        <f t="shared" si="10"/>
+      <c r="K59">
+        <f t="shared" si="36"/>
         <v>290</v>
       </c>
-      <c r="L59" s="1">
-        <f t="shared" si="10"/>
+      <c r="L59">
+        <f t="shared" si="36"/>
         <v>273</v>
       </c>
-      <c r="M59" s="1">
-        <f t="shared" si="10"/>
+      <c r="M59">
+        <f t="shared" si="36"/>
         <v>245</v>
       </c>
-      <c r="N59" s="1">
-        <f t="shared" si="10"/>
+      <c r="N59">
+        <f t="shared" si="36"/>
         <v>322</v>
       </c>
-      <c r="O59" s="1">
-        <f t="shared" si="10"/>
+      <c r="O59">
+        <f t="shared" si="36"/>
         <v>308</v>
       </c>
-      <c r="P59" s="1">
-        <f>P63+(P36-P35)</f>
+      <c r="P59">
+        <f t="shared" si="36"/>
         <v>297</v>
       </c>
-      <c r="Q59" s="1">
-        <f t="shared" si="10"/>
+      <c r="Q59">
+        <f t="shared" si="36"/>
         <v>283</v>
       </c>
-      <c r="R59" s="1">
-        <f t="shared" si="10"/>
+      <c r="R59">
+        <f t="shared" si="36"/>
         <v>280</v>
       </c>
-      <c r="S59" s="1">
-        <f t="shared" si="10"/>
+      <c r="S59">
+        <f t="shared" si="36"/>
         <v>273</v>
       </c>
-      <c r="T59" s="1">
-        <f t="shared" si="10"/>
+      <c r="T59">
+        <f t="shared" si="36"/>
         <v>448</v>
       </c>
-      <c r="U59" s="1">
-        <f t="shared" si="10"/>
+      <c r="U59">
+        <f t="shared" si="36"/>
         <v>413</v>
       </c>
-      <c r="V59" s="1">
-        <f t="shared" si="10"/>
+      <c r="V59">
+        <f t="shared" si="36"/>
         <v>399</v>
       </c>
-      <c r="W59" s="1">
-        <f t="shared" si="10"/>
+      <c r="W59">
+        <f t="shared" si="36"/>
         <v>371</v>
       </c>
-      <c r="X59" s="1">
-        <f>X63+(X36-X35)</f>
+      <c r="X59">
+        <f t="shared" si="36"/>
         <v>360</v>
       </c>
-      <c r="Y59" s="1">
-        <f t="shared" si="10"/>
+      <c r="Y59">
+        <f t="shared" si="36"/>
         <v>336</v>
       </c>
-      <c r="Z59" s="1">
-        <f t="shared" si="10"/>
+      <c r="Z59">
+        <f t="shared" si="36"/>
         <v>311</v>
       </c>
-      <c r="AA59" s="1">
-        <f t="shared" si="10"/>
+      <c r="AA59">
+        <f t="shared" si="36"/>
         <v>273</v>
       </c>
-      <c r="AB59" s="1">
-        <f t="shared" si="10"/>
+      <c r="AB59">
+        <f t="shared" si="36"/>
         <v>259</v>
       </c>
-      <c r="AC59" s="1">
-        <f t="shared" si="10"/>
+      <c r="AC59">
+        <f t="shared" si="36"/>
         <v>245</v>
       </c>
-      <c r="AD59" s="1">
-        <f t="shared" si="10"/>
+      <c r="AD59">
+        <f t="shared" si="36"/>
         <v>245</v>
       </c>
-      <c r="AE59" s="1">
-        <f t="shared" si="10"/>
+      <c r="AE59">
+        <f t="shared" si="36"/>
         <v>234</v>
       </c>
-      <c r="AF59" s="1">
-        <f t="shared" si="10"/>
-        <v>129</v>
-      </c>
-      <c r="AG59" s="1">
-        <f>AG63+(AG36-AG35)</f>
-        <v>129</v>
-      </c>
-      <c r="AH59" s="1">
-        <f t="shared" si="10"/>
-        <v>129</v>
-      </c>
-      <c r="AI59" s="1">
-        <f t="shared" si="10"/>
-        <v>258</v>
-      </c>
-      <c r="AJ59" s="1">
-        <v>129</v>
-      </c>
-      <c r="AK59" s="1">
-        <f t="shared" si="10"/>
-        <v>129</v>
-      </c>
-      <c r="AL59" s="1">
-        <f t="shared" si="10"/>
-        <v>129</v>
-      </c>
-      <c r="AM59" s="1">
-        <f>AM63+(AM36-AM35)</f>
-        <v>129</v>
-      </c>
-      <c r="AN59" s="1">
-        <f t="shared" si="10"/>
+      <c r="AF59">
+        <f t="shared" si="36"/>
+        <v>129</v>
+      </c>
+      <c r="AG59">
+        <f t="shared" si="36"/>
+        <v>129</v>
+      </c>
+      <c r="AH59">
+        <f t="shared" si="36"/>
+        <v>129</v>
+      </c>
+      <c r="AI59">
+        <v>129</v>
+      </c>
+      <c r="AJ59">
+        <v>129</v>
+      </c>
+      <c r="AK59">
+        <f t="shared" si="36"/>
+        <v>129</v>
+      </c>
+      <c r="AL59">
+        <f t="shared" si="36"/>
+        <v>129</v>
+      </c>
+      <c r="AM59">
+        <v>129</v>
+      </c>
+      <c r="AN59">
         <v>206</v>
       </c>
-      <c r="AO59" s="1">
-        <f t="shared" si="10"/>
+      <c r="AO59">
         <v>234</v>
       </c>
-      <c r="AP59" s="1">
-        <f t="shared" si="10"/>
+      <c r="AP59">
         <v>252</v>
       </c>
-      <c r="AQ59" s="1">
-        <f t="shared" si="10"/>
+      <c r="AQ59">
         <v>280</v>
       </c>
-      <c r="AR59" s="1">
-        <f t="shared" si="10"/>
+      <c r="AR59">
         <v>602</v>
       </c>
-      <c r="AS59" s="1">
-        <f t="shared" si="10"/>
+      <c r="AS59">
+        <f t="shared" si="36"/>
         <v>710</v>
       </c>
-      <c r="AT59" s="1">
-        <f t="shared" si="10"/>
+      <c r="AT59">
+        <f t="shared" si="36"/>
         <v>451</v>
       </c>
-      <c r="AU59" s="1">
-        <f>AU63+(AU36-AU35)</f>
+      <c r="AU59">
+        <f t="shared" si="36"/>
         <v>462</v>
       </c>
-      <c r="AV59" s="1">
-        <f t="shared" si="10"/>
+      <c r="AV59">
+        <f t="shared" si="36"/>
         <v>472</v>
       </c>
-      <c r="AW59" s="1">
-        <f t="shared" si="10"/>
+      <c r="AW59">
+        <f t="shared" si="36"/>
         <v>525</v>
       </c>
-      <c r="AX59" s="1">
-        <f t="shared" si="10"/>
+      <c r="AX59">
+        <f t="shared" si="36"/>
         <v>535</v>
       </c>
-      <c r="AY59" s="1">
-        <f t="shared" si="10"/>
+      <c r="AY59">
+        <f t="shared" si="36"/>
         <v>535</v>
       </c>
-      <c r="AZ59" s="1">
-        <f t="shared" si="10"/>
+      <c r="AZ59">
+        <f t="shared" si="36"/>
         <v>553</v>
       </c>
-      <c r="BA59" s="1">
-        <f t="shared" si="10"/>
+      <c r="BA59">
+        <f t="shared" si="36"/>
         <v>437</v>
       </c>
-      <c r="BB59" s="1">
-        <f>BB63+(BB36-BB35)</f>
+      <c r="BB59">
+        <f t="shared" si="36"/>
         <v>311</v>
       </c>
-      <c r="BC59" s="1">
+      <c r="BC59">
+        <f t="shared" si="36"/>
+        <v>231</v>
+      </c>
+      <c r="BD59">
+        <f t="shared" si="36"/>
+        <v>231</v>
+      </c>
+      <c r="BE59">
+        <f t="shared" si="36"/>
+        <v>231</v>
+      </c>
+      <c r="BF59">
+        <f t="shared" si="36"/>
+        <v>129</v>
+      </c>
+      <c r="BG59">
+        <v>0</v>
+      </c>
+      <c r="BH59">
+        <f t="shared" si="36"/>
+        <v>129</v>
+      </c>
+      <c r="BI59">
+        <f t="shared" si="36"/>
+        <v>129</v>
+      </c>
+      <c r="BJ59">
+        <f t="shared" si="36"/>
+        <v>129</v>
+      </c>
+      <c r="BK59">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <f>B61-(B34-B33)</f>
+        <v>416</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ref="C60:U60" si="37">C61-(C34-C33)</f>
+        <v>402</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="37"/>
+        <v>339</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="37"/>
+        <v>416</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="37"/>
+        <v>392</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="37"/>
+        <v>360</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="37"/>
+        <v>339</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="37"/>
+        <v>322</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="37"/>
+        <v>304</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="37"/>
+        <v>283</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="37"/>
+        <v>262</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="37"/>
+        <v>231</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="37"/>
+        <v>315</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="37"/>
+        <v>301</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="37"/>
+        <v>290</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="37"/>
+        <v>280</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="37"/>
+        <v>273</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="37"/>
+        <v>262</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="37"/>
+        <v>441</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="37"/>
+        <v>406</v>
+      </c>
+      <c r="V60">
+        <f>V61-(V34-V33)</f>
+        <v>395</v>
+      </c>
+      <c r="W60">
+        <f t="shared" ref="W60" si="38">W61-(W34-W33)</f>
+        <v>367</v>
+      </c>
+      <c r="X60">
+        <f t="shared" ref="X60" si="39">X61-(X34-X33)</f>
+        <v>357</v>
+      </c>
+      <c r="Y60">
+        <f t="shared" ref="Y60" si="40">Y61-(Y34-Y33)</f>
+        <v>332</v>
+      </c>
+      <c r="Z60">
+        <f t="shared" ref="Z60" si="41">Z61-(Z34-Z33)</f>
+        <v>308</v>
+      </c>
+      <c r="AA60">
+        <f t="shared" ref="AA60" si="42">AA61-(AA34-AA33)</f>
+        <v>262</v>
+      </c>
+      <c r="AB60">
+        <f t="shared" ref="AB60" si="43">AB61-(AB34-AB33)</f>
         <v>245</v>
       </c>
-      <c r="BD59" s="1">
+      <c r="AC60">
+        <f t="shared" ref="AC60" si="44">AC61-(AC34-AC33)</f>
+        <v>231</v>
+      </c>
+      <c r="AD60">
+        <f>AD61-(AD34-AD33)</f>
+        <v>231</v>
+      </c>
+      <c r="AE60">
+        <f t="shared" ref="AE60" si="45">AE61-(AE34-AE33)</f>
+        <v>217</v>
+      </c>
+      <c r="AF60">
+        <f t="shared" ref="AF60" si="46">AF61-(AF34-AF33)</f>
+        <v>129</v>
+      </c>
+      <c r="AG60">
+        <v>129</v>
+      </c>
+      <c r="AH60">
+        <v>129</v>
+      </c>
+      <c r="AI60">
+        <v>129</v>
+      </c>
+      <c r="AJ60">
+        <f t="shared" ref="AJ60" si="47">AJ61-(AJ34-AJ33)</f>
+        <v>129</v>
+      </c>
+      <c r="AK60">
+        <f t="shared" ref="AK60" si="48">AK61-(AK34-AK33)</f>
+        <v>129</v>
+      </c>
+      <c r="AL60">
+        <f t="shared" ref="AL60" si="49">AL61-(AL34-AL33)</f>
+        <v>129</v>
+      </c>
+      <c r="AM60">
+        <v>129</v>
+      </c>
+      <c r="AN60">
+        <v>206</v>
+      </c>
+      <c r="AO60">
+        <v>234</v>
+      </c>
+      <c r="AP60">
+        <v>252</v>
+      </c>
+      <c r="AQ60">
+        <v>280</v>
+      </c>
+      <c r="AR60">
+        <v>602</v>
+      </c>
+      <c r="AS60">
+        <f t="shared" ref="AS60" si="50">AS61-(AS34-AS33)</f>
+        <v>703</v>
+      </c>
+      <c r="AT60">
+        <f t="shared" ref="AT60" si="51">AT61-(AT34-AT33)</f>
+        <v>448</v>
+      </c>
+      <c r="AU60">
+        <f t="shared" ref="AU60" si="52">AU61-(AU34-AU33)</f>
+        <v>458</v>
+      </c>
+      <c r="AV60">
+        <f t="shared" ref="AV60" si="53">AV61-(AV34-AV33)</f>
+        <v>469</v>
+      </c>
+      <c r="AW60">
+        <f t="shared" ref="AW60" si="54">AW61-(AW34-AW33)</f>
+        <v>521</v>
+      </c>
+      <c r="AX60">
+        <f t="shared" ref="AX60" si="55">AX61-(AX34-AX33)</f>
+        <v>532</v>
+      </c>
+      <c r="AY60">
+        <f t="shared" ref="AY60" si="56">AY61-(AY34-AY33)</f>
+        <v>532</v>
+      </c>
+      <c r="AZ60">
+        <f t="shared" ref="AZ60" si="57">AZ61-(AZ34-AZ33)</f>
+        <v>546</v>
+      </c>
+      <c r="BA60">
+        <f t="shared" ref="BA60" si="58">BA61-(BA34-BA33)</f>
+        <v>434</v>
+      </c>
+      <c r="BB60">
+        <f t="shared" ref="BB60" si="59">BB61-(BB34-BB33)</f>
+        <v>315</v>
+      </c>
+      <c r="BC60">
+        <f t="shared" ref="BC60" si="60">BC61-(BC34-BC33)</f>
+        <v>231</v>
+      </c>
+      <c r="BD60">
+        <f t="shared" ref="BD60" si="61">BD61-(BD34-BD33)</f>
+        <v>231</v>
+      </c>
+      <c r="BE60">
+        <f t="shared" ref="BE60" si="62">BE61-(BE34-BE33)</f>
+        <v>231</v>
+      </c>
+      <c r="BF60">
+        <f t="shared" ref="BF60" si="63">BF61-(BF34-BF33)</f>
+        <v>129</v>
+      </c>
+      <c r="BG60">
+        <f t="shared" ref="BG60" si="64">BG61-(BG34-BG33)</f>
+        <v>129</v>
+      </c>
+      <c r="BH60">
+        <v>0</v>
+      </c>
+      <c r="BI60">
+        <v>129</v>
+      </c>
+      <c r="BJ60">
+        <f t="shared" ref="BJ60" si="65">BJ61-(BJ34-BJ33)</f>
+        <v>129</v>
+      </c>
+      <c r="BK60">
+        <f t="shared" ref="BK60" si="66">BK61-(BK34-BK33)</f>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <f>B62-(B35-B34)</f>
+        <v>416</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ref="C61:M61" si="67">C62-(C35-C34)</f>
+        <v>402</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="67"/>
+        <v>339</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="67"/>
+        <v>416</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="67"/>
+        <v>392</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="67"/>
+        <v>360</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="67"/>
+        <v>339</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="67"/>
+        <v>322</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="67"/>
+        <v>304</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="67"/>
+        <v>283</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="67"/>
+        <v>262</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="67"/>
+        <v>231</v>
+      </c>
+      <c r="N61">
+        <f>N62-(N35-N34)</f>
+        <v>315</v>
+      </c>
+      <c r="O61">
+        <f t="shared" ref="O61" si="68">O62-(O35-O34)</f>
+        <v>301</v>
+      </c>
+      <c r="P61">
+        <f t="shared" ref="P61" si="69">P62-(P35-P34)</f>
+        <v>290</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" ref="Q61" si="70">Q62-(Q35-Q34)</f>
+        <v>280</v>
+      </c>
+      <c r="R61">
+        <f t="shared" ref="R61" si="71">R62-(R35-R34)</f>
+        <v>273</v>
+      </c>
+      <c r="S61">
+        <f t="shared" ref="S61" si="72">S62-(S35-S34)</f>
+        <v>262</v>
+      </c>
+      <c r="T61">
+        <f>T62-(T35-T34)</f>
+        <v>441</v>
+      </c>
+      <c r="U61">
+        <f t="shared" ref="U61" si="73">U62-(U35-U34)</f>
+        <v>406</v>
+      </c>
+      <c r="V61">
+        <f t="shared" ref="V61" si="74">V62-(V35-V34)</f>
+        <v>395</v>
+      </c>
+      <c r="W61">
+        <f t="shared" ref="W61" si="75">W62-(W35-W34)</f>
+        <v>367</v>
+      </c>
+      <c r="X61">
+        <f t="shared" ref="X61" si="76">X62-(X35-X34)</f>
+        <v>357</v>
+      </c>
+      <c r="Y61">
+        <f t="shared" ref="Y61" si="77">Y62-(Y35-Y34)</f>
+        <v>332</v>
+      </c>
+      <c r="Z61">
+        <f>Z62-(Z35-Z34)</f>
+        <v>308</v>
+      </c>
+      <c r="AA61">
+        <f t="shared" ref="AA61" si="78">AA62-(AA35-AA34)</f>
+        <v>262</v>
+      </c>
+      <c r="AB61">
+        <f t="shared" ref="AB61" si="79">AB62-(AB35-AB34)</f>
         <v>245</v>
       </c>
-      <c r="BE59" s="1">
-        <f>BE60+17</f>
+      <c r="AC61">
+        <f t="shared" ref="AC61" si="80">AC62-(AC35-AC34)</f>
+        <v>231</v>
+      </c>
+      <c r="AD61">
+        <f t="shared" ref="AD61" si="81">AD62-(AD35-AD34)</f>
+        <v>231</v>
+      </c>
+      <c r="AE61">
+        <f>AE62-(AE35-AE34)</f>
+        <v>217</v>
+      </c>
+      <c r="AF61">
+        <f t="shared" ref="AF61" si="82">AF62-(AF35-AF34)</f>
+        <v>129</v>
+      </c>
+      <c r="AG61">
+        <f t="shared" ref="AG61" si="83">AG62-(AG35-AG34)</f>
+        <v>129</v>
+      </c>
+      <c r="AH61">
+        <v>129</v>
+      </c>
+      <c r="AI61">
+        <v>129</v>
+      </c>
+      <c r="AJ61">
+        <f>AJ62-(AJ35-AJ34)</f>
+        <v>129</v>
+      </c>
+      <c r="AK61">
+        <f t="shared" ref="AK61" si="84">AK62-(AK35-AK34)</f>
+        <v>129</v>
+      </c>
+      <c r="AL61">
+        <f t="shared" ref="AL61" si="85">AL62-(AL35-AL34)</f>
+        <v>129</v>
+      </c>
+      <c r="AM61">
+        <v>129</v>
+      </c>
+      <c r="AN61">
+        <v>206</v>
+      </c>
+      <c r="AO61">
         <v>234</v>
       </c>
-      <c r="BF59" s="1">
-        <f t="shared" si="10"/>
-        <v>129</v>
-      </c>
-      <c r="BG59" s="1">
+      <c r="AP61">
+        <v>252</v>
+      </c>
+      <c r="AQ61">
+        <v>280</v>
+      </c>
+      <c r="AR61">
+        <v>602</v>
+      </c>
+      <c r="AS61">
+        <f t="shared" ref="AS61" si="86">AS62-(AS35-AS34)</f>
+        <v>703</v>
+      </c>
+      <c r="AT61">
+        <f t="shared" ref="AT61" si="87">AT62-(AT35-AT34)</f>
+        <v>448</v>
+      </c>
+      <c r="AU61">
+        <f t="shared" ref="AU61" si="88">AU62-(AU35-AU34)</f>
+        <v>458</v>
+      </c>
+      <c r="AV61">
+        <f t="shared" ref="AV61" si="89">AV62-(AV35-AV34)</f>
+        <v>469</v>
+      </c>
+      <c r="AW61">
+        <f t="shared" ref="AW61" si="90">AW62-(AW35-AW34)</f>
+        <v>521</v>
+      </c>
+      <c r="AX61">
+        <f t="shared" ref="AX61" si="91">AX62-(AX35-AX34)</f>
+        <v>532</v>
+      </c>
+      <c r="AY61">
+        <f>AY62-(AY35-AY34)</f>
+        <v>532</v>
+      </c>
+      <c r="AZ61">
+        <f t="shared" ref="AZ61" si="92">AZ62-(AZ35-AZ34)</f>
+        <v>546</v>
+      </c>
+      <c r="BA61">
+        <f t="shared" ref="BA61" si="93">BA62-(BA35-BA34)</f>
+        <v>434</v>
+      </c>
+      <c r="BB61">
+        <f t="shared" ref="BB61" si="94">BB62-(BB35-BB34)</f>
+        <v>315</v>
+      </c>
+      <c r="BC61">
+        <f t="shared" ref="BC61" si="95">BC62-(BC35-BC34)</f>
+        <v>231</v>
+      </c>
+      <c r="BD61">
+        <f t="shared" ref="BD61" si="96">BD62-(BD35-BD34)</f>
+        <v>231</v>
+      </c>
+      <c r="BE61">
+        <f>BE62-(BE35-BE34)</f>
+        <v>231</v>
+      </c>
+      <c r="BF61">
+        <f t="shared" ref="BF61" si="97">BF62-(BF35-BF34)</f>
+        <v>129</v>
+      </c>
+      <c r="BG61">
+        <f t="shared" ref="BG61" si="98">BG62-(BG35-BG34)</f>
+        <v>129</v>
+      </c>
+      <c r="BH61">
+        <f t="shared" ref="BH61" si="99">BH62-(BH35-BH34)</f>
+        <v>129</v>
+      </c>
+      <c r="BI61">
         <v>0</v>
       </c>
+      <c r="BJ61">
+        <v>129</v>
+      </c>
+      <c r="BK61">
+        <f>BK62-(BK35-BK34)</f>
+        <v>129</v>
+      </c>
     </row>
-    <row r="60" spans="1:63" s="1" customFormat="1">
-      <c r="A60" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" s="1">
-        <f>B61</f>
-        <v>416</v>
-      </c>
-      <c r="C60" s="1">
-        <f t="shared" ref="C60:BG60" si="11">C61</f>
-        <v>402</v>
-      </c>
-      <c r="D60" s="1">
-        <f t="shared" si="11"/>
-        <v>339</v>
-      </c>
-      <c r="E60" s="1">
-        <f t="shared" si="11"/>
-        <v>416</v>
-      </c>
-      <c r="F60" s="1">
-        <f t="shared" si="11"/>
-        <v>392</v>
-      </c>
-      <c r="G60" s="1">
-        <f t="shared" si="11"/>
-        <v>360</v>
-      </c>
-      <c r="H60" s="1">
-        <f t="shared" si="11"/>
-        <v>339</v>
-      </c>
-      <c r="I60" s="1">
-        <f t="shared" si="11"/>
-        <v>322</v>
-      </c>
-      <c r="J60" s="1">
-        <f t="shared" si="11"/>
-        <v>304</v>
-      </c>
-      <c r="K60" s="1">
-        <f t="shared" si="11"/>
-        <v>283</v>
-      </c>
-      <c r="L60" s="1">
-        <f t="shared" si="11"/>
-        <v>262</v>
-      </c>
-      <c r="M60" s="1">
-        <f t="shared" si="11"/>
-        <v>231</v>
-      </c>
-      <c r="N60" s="1">
-        <f t="shared" si="11"/>
-        <v>315</v>
-      </c>
-      <c r="O60" s="1">
-        <f t="shared" si="11"/>
-        <v>301</v>
-      </c>
-      <c r="P60" s="1">
-        <f t="shared" si="11"/>
-        <v>290</v>
-      </c>
-      <c r="Q60" s="1">
-        <f t="shared" si="11"/>
-        <v>280</v>
-      </c>
-      <c r="R60" s="1">
-        <f t="shared" si="11"/>
-        <v>273</v>
-      </c>
-      <c r="S60" s="1">
-        <f t="shared" si="11"/>
-        <v>262</v>
-      </c>
-      <c r="T60" s="1">
-        <f t="shared" si="11"/>
-        <v>441</v>
-      </c>
-      <c r="U60" s="1">
-        <f t="shared" si="11"/>
-        <v>406</v>
-      </c>
-      <c r="V60" s="1">
-        <f t="shared" si="11"/>
-        <v>395</v>
-      </c>
-      <c r="W60" s="1">
-        <f t="shared" si="11"/>
-        <v>367</v>
-      </c>
-      <c r="X60" s="1">
-        <f t="shared" si="11"/>
-        <v>357</v>
-      </c>
-      <c r="Y60" s="1">
-        <f t="shared" si="11"/>
-        <v>332</v>
-      </c>
-      <c r="Z60" s="1">
-        <f t="shared" si="11"/>
-        <v>308</v>
-      </c>
-      <c r="AA60" s="1">
-        <f t="shared" si="11"/>
-        <v>262</v>
-      </c>
-      <c r="AB60" s="1">
-        <f t="shared" si="11"/>
-        <v>245</v>
-      </c>
-      <c r="AC60" s="1">
-        <f t="shared" si="11"/>
-        <v>231</v>
-      </c>
-      <c r="AD60" s="1">
-        <f t="shared" si="11"/>
-        <v>231</v>
-      </c>
-      <c r="AE60" s="1">
-        <f t="shared" si="11"/>
-        <v>217</v>
-      </c>
-      <c r="AF60" s="1">
-        <f t="shared" si="11"/>
-        <v>129</v>
-      </c>
-      <c r="AG60" s="1">
-        <f t="shared" si="11"/>
-        <v>129</v>
-      </c>
-      <c r="AH60" s="1">
-        <f t="shared" si="11"/>
-        <v>129</v>
-      </c>
-      <c r="AI60" s="1">
-        <f t="shared" si="11"/>
-        <v>129</v>
-      </c>
-      <c r="AJ60" s="1">
-        <f t="shared" si="11"/>
-        <v>129</v>
-      </c>
-      <c r="AK60" s="1">
-        <f t="shared" si="11"/>
-        <v>129</v>
-      </c>
-      <c r="AL60" s="1">
-        <f t="shared" si="11"/>
-        <v>129</v>
-      </c>
-      <c r="AM60" s="1">
-        <f t="shared" si="11"/>
-        <v>133</v>
-      </c>
-      <c r="AN60" s="1">
-        <f t="shared" si="11"/>
-        <v>220</v>
-      </c>
-      <c r="AO60" s="1">
-        <f t="shared" si="11"/>
-        <v>245</v>
-      </c>
-      <c r="AP60" s="1">
-        <f t="shared" si="11"/>
-        <v>266</v>
-      </c>
-      <c r="AQ60" s="1">
-        <f t="shared" si="11"/>
-        <v>290</v>
-      </c>
-      <c r="AR60" s="1">
-        <f t="shared" si="11"/>
-        <v>605</v>
-      </c>
-      <c r="AS60" s="1">
-        <f t="shared" si="11"/>
-        <v>703</v>
-      </c>
-      <c r="AT60" s="1">
-        <f t="shared" si="11"/>
-        <v>448</v>
-      </c>
-      <c r="AU60" s="1">
-        <f t="shared" si="11"/>
-        <v>458</v>
-      </c>
-      <c r="AV60" s="1">
-        <f t="shared" si="11"/>
-        <v>469</v>
-      </c>
-      <c r="AW60" s="1">
-        <f t="shared" si="11"/>
-        <v>521</v>
-      </c>
-      <c r="AX60" s="1">
-        <f t="shared" si="11"/>
-        <v>532</v>
-      </c>
-      <c r="AY60" s="1">
-        <f t="shared" si="11"/>
-        <v>532</v>
-      </c>
-      <c r="AZ60" s="1">
-        <f t="shared" si="11"/>
-        <v>546</v>
-      </c>
-      <c r="BA60" s="1">
-        <f t="shared" si="11"/>
-        <v>434</v>
-      </c>
-      <c r="BB60" s="1">
-        <f t="shared" si="11"/>
-        <v>315</v>
-      </c>
-      <c r="BC60" s="1">
-        <f t="shared" si="11"/>
-        <v>231</v>
-      </c>
-      <c r="BD60" s="1">
-        <f>BD61</f>
-        <v>231</v>
-      </c>
-      <c r="BE60" s="1">
-        <f t="shared" si="11"/>
-        <v>217</v>
-      </c>
-      <c r="BF60" s="1">
-        <f t="shared" si="11"/>
-        <v>129</v>
-      </c>
-      <c r="BG60" s="1">
-        <f t="shared" si="11"/>
-        <v>129</v>
-      </c>
-      <c r="BH60" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:63" s="1" customFormat="1">
-      <c r="A61" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" s="1">
-        <f>B62</f>
-        <v>416</v>
-      </c>
-      <c r="C61" s="1">
-        <f t="shared" ref="C61:Q61" si="12">C62</f>
-        <v>402</v>
-      </c>
-      <c r="D61" s="1">
-        <f t="shared" si="12"/>
-        <v>339</v>
-      </c>
-      <c r="E61" s="1">
-        <f t="shared" si="12"/>
-        <v>416</v>
-      </c>
-      <c r="F61" s="1">
-        <f t="shared" si="12"/>
-        <v>392</v>
-      </c>
-      <c r="G61" s="1">
-        <f t="shared" si="12"/>
-        <v>360</v>
-      </c>
-      <c r="H61" s="1">
-        <f t="shared" si="12"/>
-        <v>339</v>
-      </c>
-      <c r="I61" s="1">
-        <f t="shared" si="12"/>
-        <v>322</v>
-      </c>
-      <c r="J61" s="1">
-        <f t="shared" si="12"/>
-        <v>304</v>
-      </c>
-      <c r="K61" s="1">
-        <f t="shared" si="12"/>
-        <v>283</v>
-      </c>
-      <c r="L61" s="1">
-        <f t="shared" si="12"/>
-        <v>262</v>
-      </c>
-      <c r="M61" s="1">
-        <f t="shared" si="12"/>
-        <v>231</v>
-      </c>
-      <c r="N61" s="1">
-        <f t="shared" si="12"/>
-        <v>315</v>
-      </c>
-      <c r="O61" s="1">
-        <f t="shared" si="12"/>
-        <v>301</v>
-      </c>
-      <c r="P61" s="1">
-        <f t="shared" si="12"/>
-        <v>290</v>
-      </c>
-      <c r="Q61" s="1">
-        <f t="shared" si="12"/>
-        <v>280</v>
-      </c>
-      <c r="R61" s="1">
-        <f t="shared" ref="R61" si="13">R62</f>
-        <v>273</v>
-      </c>
-      <c r="S61" s="1">
-        <f t="shared" ref="S61" si="14">S62</f>
-        <v>262</v>
-      </c>
-      <c r="T61" s="1">
-        <f t="shared" ref="T61" si="15">T62</f>
-        <v>441</v>
-      </c>
-      <c r="U61" s="1">
-        <f t="shared" ref="U61" si="16">U62</f>
-        <v>406</v>
-      </c>
-      <c r="V61" s="1">
-        <f t="shared" ref="V61" si="17">V62</f>
-        <v>395</v>
-      </c>
-      <c r="W61" s="1">
-        <f t="shared" ref="W61" si="18">W62</f>
-        <v>367</v>
-      </c>
-      <c r="X61" s="1">
-        <f t="shared" ref="X61" si="19">X62</f>
-        <v>357</v>
-      </c>
-      <c r="Y61" s="1">
-        <f t="shared" ref="Y61" si="20">Y62</f>
-        <v>332</v>
-      </c>
-      <c r="Z61" s="1">
-        <f t="shared" ref="Z61" si="21">Z62</f>
-        <v>308</v>
-      </c>
-      <c r="AA61" s="1">
-        <f t="shared" ref="AA61" si="22">AA62</f>
-        <v>262</v>
-      </c>
-      <c r="AB61" s="1">
-        <f t="shared" ref="AB61" si="23">AB62</f>
-        <v>245</v>
-      </c>
-      <c r="AC61" s="1">
-        <f t="shared" ref="AC61" si="24">AC62</f>
-        <v>231</v>
-      </c>
-      <c r="AD61" s="1">
-        <f t="shared" ref="AD61" si="25">AD62</f>
-        <v>231</v>
-      </c>
-      <c r="AE61" s="1">
-        <f t="shared" ref="AE61:AF61" si="26">AE62</f>
-        <v>217</v>
-      </c>
-      <c r="AF61" s="1">
-        <f t="shared" si="26"/>
-        <v>129</v>
-      </c>
-      <c r="AG61" s="1">
-        <f t="shared" ref="AG61" si="27">AG62</f>
-        <v>129</v>
-      </c>
-      <c r="AH61" s="1">
-        <f t="shared" ref="AH61" si="28">AH62</f>
-        <v>129</v>
-      </c>
-      <c r="AI61" s="1">
-        <f t="shared" ref="AI61" si="29">AI62</f>
-        <v>129</v>
-      </c>
-      <c r="AJ61" s="1">
-        <f t="shared" ref="AJ61" si="30">AJ62</f>
-        <v>129</v>
-      </c>
-      <c r="AK61" s="1">
-        <f t="shared" ref="AK61" si="31">AK62</f>
-        <v>129</v>
-      </c>
-      <c r="AL61" s="1">
-        <f t="shared" ref="AL61" si="32">AL62</f>
-        <v>129</v>
-      </c>
-      <c r="AM61" s="1">
-        <f t="shared" ref="AM61" si="33">AM62</f>
-        <v>133</v>
-      </c>
-      <c r="AN61" s="1">
-        <f t="shared" ref="AN61" si="34">AN62</f>
-        <v>220</v>
-      </c>
-      <c r="AO61" s="1">
-        <f t="shared" ref="AO61" si="35">AO62</f>
-        <v>245</v>
-      </c>
-      <c r="AP61" s="1">
-        <f t="shared" ref="AP61" si="36">AP62</f>
-        <v>266</v>
-      </c>
-      <c r="AQ61" s="1">
-        <f t="shared" ref="AQ61" si="37">AQ62</f>
-        <v>290</v>
-      </c>
-      <c r="AR61" s="1">
-        <f t="shared" ref="AR61" si="38">AR62</f>
-        <v>605</v>
-      </c>
-      <c r="AS61" s="1">
-        <f t="shared" ref="AS61" si="39">AS62</f>
-        <v>703</v>
-      </c>
-      <c r="AT61" s="1">
-        <f t="shared" ref="AT61:AU61" si="40">AT62</f>
-        <v>448</v>
-      </c>
-      <c r="AU61" s="1">
-        <f t="shared" si="40"/>
-        <v>458</v>
-      </c>
-      <c r="AV61" s="1">
-        <f t="shared" ref="AV61" si="41">AV62</f>
-        <v>469</v>
-      </c>
-      <c r="AW61" s="1">
-        <f t="shared" ref="AW61" si="42">AW62</f>
-        <v>521</v>
-      </c>
-      <c r="AX61" s="1">
-        <f t="shared" ref="AX61" si="43">AX62</f>
-        <v>532</v>
-      </c>
-      <c r="AY61" s="1">
-        <f t="shared" ref="AY61" si="44">AY62</f>
-        <v>532</v>
-      </c>
-      <c r="AZ61" s="1">
-        <f t="shared" ref="AZ61" si="45">AZ62</f>
-        <v>546</v>
-      </c>
-      <c r="BA61" s="1">
-        <f t="shared" ref="BA61" si="46">BA62</f>
-        <v>434</v>
-      </c>
-      <c r="BB61" s="1">
-        <f t="shared" ref="BB61" si="47">BB62</f>
-        <v>315</v>
-      </c>
-      <c r="BC61" s="1">
-        <f t="shared" ref="BC61" si="48">BC62</f>
-        <v>231</v>
-      </c>
-      <c r="BD61" s="1">
-        <f t="shared" ref="BD61" si="49">BD62</f>
-        <v>231</v>
-      </c>
-      <c r="BE61" s="1">
-        <f t="shared" ref="BE61" si="50">BE62</f>
-        <v>217</v>
-      </c>
-      <c r="BF61" s="1">
-        <f t="shared" ref="BF61" si="51">BF62</f>
-        <v>129</v>
-      </c>
-      <c r="BG61" s="1">
-        <f t="shared" ref="BG61" si="52">BG62</f>
-        <v>129</v>
-      </c>
-      <c r="BH61" s="1">
-        <f t="shared" ref="BH61" si="53">BH62</f>
-        <v>129</v>
-      </c>
-      <c r="BI61" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:63" s="1" customFormat="1">
-      <c r="A62" s="1" t="s">
+    <row r="62" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62">
         <f>B63</f>
         <v>416</v>
       </c>
-      <c r="C62" s="1">
-        <f t="shared" ref="C62:BI62" si="54">C63</f>
+      <c r="C62">
+        <f t="shared" ref="C62:BB62" si="100">C63</f>
         <v>402</v>
       </c>
-      <c r="D62" s="1">
-        <f t="shared" si="54"/>
+      <c r="D62">
+        <f t="shared" si="100"/>
         <v>339</v>
       </c>
-      <c r="E62" s="1">
-        <f t="shared" si="54"/>
+      <c r="E62">
+        <f t="shared" si="100"/>
         <v>416</v>
       </c>
-      <c r="F62" s="1">
-        <f t="shared" si="54"/>
+      <c r="F62">
+        <f t="shared" si="100"/>
         <v>392</v>
       </c>
-      <c r="G62" s="1">
-        <f t="shared" si="54"/>
+      <c r="G62">
+        <f t="shared" si="100"/>
         <v>360</v>
       </c>
-      <c r="H62" s="1">
-        <f t="shared" si="54"/>
+      <c r="H62">
+        <f t="shared" si="100"/>
         <v>339</v>
       </c>
-      <c r="I62" s="1">
-        <f t="shared" si="54"/>
+      <c r="I62">
+        <f t="shared" si="100"/>
         <v>322</v>
       </c>
-      <c r="J62" s="1">
-        <f t="shared" si="54"/>
+      <c r="J62">
+        <f t="shared" si="100"/>
         <v>304</v>
       </c>
-      <c r="K62" s="1">
-        <f t="shared" si="54"/>
+      <c r="K62">
+        <f t="shared" si="100"/>
         <v>283</v>
       </c>
-      <c r="L62" s="1">
-        <f t="shared" si="54"/>
+      <c r="L62">
+        <f t="shared" si="100"/>
         <v>262</v>
       </c>
-      <c r="M62" s="1">
-        <f t="shared" si="54"/>
+      <c r="M62">
+        <f t="shared" si="100"/>
         <v>231</v>
       </c>
-      <c r="N62" s="1">
-        <f t="shared" si="54"/>
+      <c r="N62">
+        <f t="shared" si="100"/>
         <v>315</v>
       </c>
-      <c r="O62" s="1">
-        <f t="shared" si="54"/>
+      <c r="O62">
+        <f t="shared" si="100"/>
         <v>301</v>
       </c>
-      <c r="P62" s="1">
-        <f t="shared" si="54"/>
+      <c r="P62">
+        <f t="shared" si="100"/>
         <v>290</v>
       </c>
-      <c r="Q62" s="1">
-        <f t="shared" si="54"/>
+      <c r="Q62">
+        <f t="shared" si="100"/>
         <v>280</v>
       </c>
-      <c r="R62" s="1">
-        <f t="shared" si="54"/>
+      <c r="R62">
+        <f t="shared" si="100"/>
         <v>273</v>
       </c>
-      <c r="S62" s="1">
-        <f t="shared" si="54"/>
+      <c r="S62">
+        <f t="shared" si="100"/>
         <v>262</v>
       </c>
-      <c r="T62" s="1">
-        <f t="shared" si="54"/>
+      <c r="T62">
+        <f t="shared" si="100"/>
         <v>441</v>
       </c>
-      <c r="U62" s="1">
-        <f t="shared" si="54"/>
+      <c r="U62">
+        <f t="shared" si="100"/>
         <v>406</v>
       </c>
-      <c r="V62" s="1">
-        <f t="shared" si="54"/>
+      <c r="V62">
+        <f t="shared" si="100"/>
         <v>395</v>
       </c>
-      <c r="W62" s="1">
-        <f t="shared" si="54"/>
+      <c r="W62">
+        <f t="shared" si="100"/>
         <v>367</v>
       </c>
-      <c r="X62" s="1">
-        <f t="shared" si="54"/>
+      <c r="X62">
+        <f t="shared" si="100"/>
         <v>357</v>
       </c>
-      <c r="Y62" s="1">
-        <f t="shared" si="54"/>
+      <c r="Y62">
+        <f t="shared" si="100"/>
         <v>332</v>
       </c>
-      <c r="Z62" s="1">
-        <f t="shared" si="54"/>
+      <c r="Z62">
+        <f t="shared" si="100"/>
         <v>308</v>
       </c>
-      <c r="AA62" s="1">
-        <f t="shared" si="54"/>
+      <c r="AA62">
+        <f t="shared" si="100"/>
         <v>262</v>
       </c>
-      <c r="AB62" s="1">
-        <f t="shared" si="54"/>
+      <c r="AB62">
+        <f t="shared" si="100"/>
         <v>245</v>
       </c>
-      <c r="AC62" s="1">
-        <f t="shared" si="54"/>
+      <c r="AC62">
+        <f t="shared" si="100"/>
         <v>231</v>
       </c>
-      <c r="AD62" s="1">
-        <f t="shared" si="54"/>
+      <c r="AD62">
+        <f t="shared" si="100"/>
         <v>231</v>
       </c>
-      <c r="AE62" s="1">
-        <f t="shared" si="54"/>
+      <c r="AE62">
+        <f t="shared" si="100"/>
         <v>217</v>
       </c>
-      <c r="AF62" s="1">
-        <f t="shared" si="54"/>
-        <v>129</v>
-      </c>
-      <c r="AG62" s="1">
-        <f t="shared" si="54"/>
-        <v>129</v>
-      </c>
-      <c r="AH62" s="1">
-        <f t="shared" si="54"/>
-        <v>129</v>
-      </c>
-      <c r="AI62" s="1">
-        <f t="shared" si="54"/>
-        <v>129</v>
-      </c>
-      <c r="AJ62" s="1">
-        <f t="shared" si="54"/>
-        <v>129</v>
-      </c>
-      <c r="AK62" s="1">
-        <f t="shared" si="54"/>
-        <v>129</v>
-      </c>
-      <c r="AL62" s="1">
-        <f t="shared" si="54"/>
-        <v>129</v>
-      </c>
-      <c r="AM62" s="1">
-        <f t="shared" si="54"/>
-        <v>133</v>
-      </c>
-      <c r="AN62" s="1">
-        <f t="shared" si="54"/>
-        <v>220</v>
-      </c>
-      <c r="AO62" s="1">
-        <f t="shared" si="54"/>
-        <v>245</v>
-      </c>
-      <c r="AP62" s="1">
-        <f t="shared" si="54"/>
-        <v>266</v>
-      </c>
-      <c r="AQ62" s="1">
-        <f t="shared" si="54"/>
-        <v>290</v>
-      </c>
-      <c r="AR62" s="1">
-        <f t="shared" si="54"/>
-        <v>605</v>
-      </c>
-      <c r="AS62" s="1">
-        <f t="shared" si="54"/>
+      <c r="AF62">
+        <f t="shared" si="100"/>
+        <v>129</v>
+      </c>
+      <c r="AG62">
+        <f t="shared" si="100"/>
+        <v>129</v>
+      </c>
+      <c r="AH62">
+        <f t="shared" si="100"/>
+        <v>129</v>
+      </c>
+      <c r="AI62">
+        <f t="shared" si="100"/>
+        <v>129</v>
+      </c>
+      <c r="AJ62">
+        <f t="shared" si="100"/>
+        <v>129</v>
+      </c>
+      <c r="AK62">
+        <f t="shared" si="100"/>
+        <v>129</v>
+      </c>
+      <c r="AL62">
+        <f t="shared" si="100"/>
+        <v>129</v>
+      </c>
+      <c r="AM62">
+        <v>129</v>
+      </c>
+      <c r="AN62">
+        <v>206</v>
+      </c>
+      <c r="AO62">
+        <v>234</v>
+      </c>
+      <c r="AP62">
+        <v>252</v>
+      </c>
+      <c r="AQ62">
+        <v>280</v>
+      </c>
+      <c r="AR62">
+        <v>602</v>
+      </c>
+      <c r="AS62">
+        <f t="shared" si="100"/>
         <v>703</v>
       </c>
-      <c r="AT62" s="1">
-        <f t="shared" si="54"/>
+      <c r="AT62">
+        <f t="shared" si="100"/>
         <v>448</v>
       </c>
-      <c r="AU62" s="1">
-        <f t="shared" si="54"/>
+      <c r="AU62">
+        <f t="shared" si="100"/>
         <v>458</v>
       </c>
-      <c r="AV62" s="1">
-        <f t="shared" si="54"/>
+      <c r="AV62">
+        <f t="shared" si="100"/>
         <v>469</v>
       </c>
-      <c r="AW62" s="1">
-        <f t="shared" si="54"/>
+      <c r="AW62">
+        <f t="shared" si="100"/>
         <v>521</v>
       </c>
-      <c r="AX62" s="1">
-        <f t="shared" si="54"/>
+      <c r="AX62">
+        <f t="shared" si="100"/>
         <v>532</v>
       </c>
-      <c r="AY62" s="1">
-        <f t="shared" si="54"/>
+      <c r="AY62">
+        <f t="shared" si="100"/>
         <v>532</v>
       </c>
-      <c r="AZ62" s="1">
-        <f t="shared" si="54"/>
+      <c r="AZ62">
+        <f t="shared" si="100"/>
         <v>546</v>
       </c>
-      <c r="BA62" s="1">
-        <f t="shared" si="54"/>
+      <c r="BA62">
+        <f t="shared" si="100"/>
         <v>434</v>
       </c>
-      <c r="BB62" s="1">
-        <f t="shared" si="54"/>
+      <c r="BB62">
+        <f t="shared" si="100"/>
         <v>315</v>
       </c>
-      <c r="BC62" s="1">
-        <f t="shared" si="54"/>
+      <c r="BC62">
+        <f>BC63</f>
         <v>231</v>
       </c>
-      <c r="BD62" s="1">
-        <f t="shared" si="54"/>
+      <c r="BD62">
+        <f>BD63</f>
         <v>231</v>
       </c>
-      <c r="BE62" s="1">
-        <f t="shared" si="54"/>
-        <v>217</v>
-      </c>
-      <c r="BF62" s="1">
-        <f t="shared" si="54"/>
-        <v>129</v>
-      </c>
-      <c r="BG62" s="1">
-        <f t="shared" si="54"/>
-        <v>129</v>
-      </c>
-      <c r="BH62" s="1">
-        <f t="shared" si="54"/>
-        <v>129</v>
-      </c>
-      <c r="BI62" s="1">
-        <f t="shared" si="54"/>
-        <v>129</v>
-      </c>
-      <c r="BJ62" s="1">
+      <c r="BE62">
+        <f>BE63</f>
+        <v>231</v>
+      </c>
+      <c r="BF62">
+        <v>129</v>
+      </c>
+      <c r="BG62">
+        <v>129</v>
+      </c>
+      <c r="BH62">
+        <v>129</v>
+      </c>
+      <c r="BI62">
+        <v>129</v>
+      </c>
+      <c r="BJ62">
         <v>0</v>
       </c>
-      <c r="BK62" s="2"/>
+      <c r="BK62" s="1">
+        <v>129</v>
+      </c>
     </row>
-    <row r="63" spans="1:63" s="1" customFormat="1">
-      <c r="A63" s="1" t="s">
+    <row r="63" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63">
         <f>B35</f>
         <v>416</v>
       </c>
-      <c r="C63" s="1">
-        <f t="shared" ref="C63:BB63" si="55">C35</f>
+      <c r="C63">
+        <f t="shared" ref="C63:BK63" si="101">C35</f>
         <v>402</v>
       </c>
-      <c r="D63" s="1">
-        <f t="shared" si="55"/>
+      <c r="D63">
+        <f t="shared" si="101"/>
         <v>339</v>
       </c>
-      <c r="E63" s="1">
-        <f t="shared" si="55"/>
+      <c r="E63">
+        <f t="shared" si="101"/>
         <v>416</v>
       </c>
-      <c r="F63" s="1">
-        <f t="shared" si="55"/>
+      <c r="F63">
+        <f t="shared" si="101"/>
         <v>392</v>
       </c>
-      <c r="G63" s="1">
-        <f t="shared" si="55"/>
+      <c r="G63">
+        <f t="shared" si="101"/>
         <v>360</v>
       </c>
-      <c r="H63" s="1">
-        <f t="shared" si="55"/>
+      <c r="H63">
+        <f t="shared" si="101"/>
         <v>339</v>
       </c>
-      <c r="I63" s="1">
-        <f t="shared" si="55"/>
+      <c r="I63">
+        <f t="shared" si="101"/>
         <v>322</v>
       </c>
-      <c r="J63" s="1">
-        <f t="shared" si="55"/>
+      <c r="J63">
+        <f t="shared" si="101"/>
         <v>304</v>
       </c>
-      <c r="K63" s="1">
-        <f t="shared" si="55"/>
+      <c r="K63">
+        <f t="shared" si="101"/>
         <v>283</v>
       </c>
-      <c r="L63" s="1">
-        <f t="shared" si="55"/>
+      <c r="L63">
+        <f t="shared" si="101"/>
         <v>262</v>
       </c>
-      <c r="M63" s="1">
-        <f t="shared" si="55"/>
+      <c r="M63">
+        <f t="shared" si="101"/>
         <v>231</v>
       </c>
-      <c r="N63" s="1">
-        <f t="shared" si="55"/>
+      <c r="N63">
+        <f t="shared" si="101"/>
         <v>315</v>
       </c>
-      <c r="O63" s="1">
-        <f t="shared" si="55"/>
+      <c r="O63">
+        <f t="shared" si="101"/>
         <v>301</v>
       </c>
-      <c r="P63" s="1">
-        <f t="shared" si="55"/>
+      <c r="P63">
+        <f t="shared" si="101"/>
         <v>290</v>
       </c>
-      <c r="Q63" s="1">
-        <f>Q35</f>
+      <c r="Q63">
+        <f t="shared" si="101"/>
         <v>280</v>
       </c>
-      <c r="R63" s="1">
-        <f t="shared" si="55"/>
+      <c r="R63">
+        <f t="shared" si="101"/>
         <v>273</v>
       </c>
-      <c r="S63" s="1">
-        <f t="shared" si="55"/>
+      <c r="S63">
+        <f t="shared" si="101"/>
         <v>262</v>
       </c>
-      <c r="T63" s="1">
-        <f t="shared" si="55"/>
+      <c r="T63">
+        <f t="shared" si="101"/>
         <v>441</v>
       </c>
-      <c r="U63" s="1">
-        <f t="shared" si="55"/>
+      <c r="U63">
+        <f t="shared" si="101"/>
         <v>406</v>
       </c>
-      <c r="V63" s="1">
-        <f t="shared" si="55"/>
+      <c r="V63">
+        <f t="shared" si="101"/>
         <v>395</v>
       </c>
-      <c r="W63" s="1">
-        <f t="shared" si="55"/>
+      <c r="W63">
+        <f t="shared" si="101"/>
         <v>367</v>
       </c>
-      <c r="X63" s="1">
-        <f t="shared" si="55"/>
+      <c r="X63">
+        <f t="shared" si="101"/>
         <v>357</v>
       </c>
-      <c r="Y63" s="1">
-        <f t="shared" si="55"/>
+      <c r="Y63">
+        <f t="shared" si="101"/>
         <v>332</v>
       </c>
-      <c r="Z63" s="1">
-        <f t="shared" si="55"/>
+      <c r="Z63">
+        <f t="shared" si="101"/>
         <v>308</v>
       </c>
-      <c r="AA63" s="1">
-        <f t="shared" si="55"/>
+      <c r="AA63">
+        <f t="shared" si="101"/>
         <v>262</v>
       </c>
-      <c r="AB63" s="1">
-        <f t="shared" si="55"/>
+      <c r="AB63">
+        <f t="shared" si="101"/>
         <v>245</v>
       </c>
-      <c r="AC63" s="1">
-        <f t="shared" si="55"/>
+      <c r="AC63">
+        <f t="shared" si="101"/>
         <v>231</v>
       </c>
-      <c r="AD63" s="1">
-        <f t="shared" si="55"/>
+      <c r="AD63">
+        <f t="shared" si="101"/>
         <v>231</v>
       </c>
-      <c r="AE63" s="1">
-        <f t="shared" si="55"/>
+      <c r="AE63">
+        <f t="shared" si="101"/>
         <v>217</v>
       </c>
-      <c r="AF63" s="1">
-        <f t="shared" si="55"/>
-        <v>129</v>
-      </c>
-      <c r="AG63" s="1">
-        <f t="shared" si="55"/>
-        <v>129</v>
-      </c>
-      <c r="AH63" s="1">
-        <f t="shared" si="55"/>
-        <v>129</v>
-      </c>
-      <c r="AI63" s="1">
-        <v>129</v>
-      </c>
-      <c r="AJ63" s="1">
-        <f t="shared" si="55"/>
-        <v>129</v>
-      </c>
-      <c r="AK63" s="1">
-        <f t="shared" si="55"/>
-        <v>129</v>
-      </c>
-      <c r="AL63" s="1">
-        <f t="shared" si="55"/>
-        <v>129</v>
-      </c>
-      <c r="AM63" s="1">
-        <f t="shared" si="55"/>
-        <v>133</v>
-      </c>
-      <c r="AN63" s="1">
-        <f t="shared" si="55"/>
-        <v>220</v>
-      </c>
-      <c r="AO63" s="1">
-        <f t="shared" si="55"/>
-        <v>245</v>
-      </c>
-      <c r="AP63" s="1">
-        <f t="shared" si="55"/>
-        <v>266</v>
-      </c>
-      <c r="AQ63" s="1">
-        <f t="shared" si="55"/>
-        <v>290</v>
-      </c>
-      <c r="AR63" s="1">
-        <f t="shared" si="55"/>
-        <v>605</v>
-      </c>
-      <c r="AS63" s="1">
-        <f t="shared" si="55"/>
+      <c r="AF63">
+        <f t="shared" si="101"/>
+        <v>129</v>
+      </c>
+      <c r="AG63">
+        <f t="shared" si="101"/>
+        <v>129</v>
+      </c>
+      <c r="AH63">
+        <f t="shared" si="101"/>
+        <v>129</v>
+      </c>
+      <c r="AI63">
+        <v>129</v>
+      </c>
+      <c r="AJ63">
+        <f t="shared" si="101"/>
+        <v>129</v>
+      </c>
+      <c r="AK63">
+        <f t="shared" si="101"/>
+        <v>129</v>
+      </c>
+      <c r="AL63">
+        <f t="shared" si="101"/>
+        <v>129</v>
+      </c>
+      <c r="AM63">
+        <v>129</v>
+      </c>
+      <c r="AN63">
+        <v>206</v>
+      </c>
+      <c r="AO63">
+        <v>234</v>
+      </c>
+      <c r="AP63">
+        <v>252</v>
+      </c>
+      <c r="AQ63">
+        <v>280</v>
+      </c>
+      <c r="AR63">
+        <v>602</v>
+      </c>
+      <c r="AS63">
+        <f t="shared" si="101"/>
         <v>703</v>
       </c>
-      <c r="AT63" s="1">
-        <f t="shared" si="55"/>
+      <c r="AT63">
+        <f t="shared" si="101"/>
         <v>448</v>
       </c>
-      <c r="AU63" s="1">
-        <f t="shared" si="55"/>
+      <c r="AU63">
+        <f t="shared" si="101"/>
         <v>458</v>
       </c>
-      <c r="AV63" s="1">
-        <f t="shared" si="55"/>
+      <c r="AV63">
+        <f t="shared" si="101"/>
         <v>469</v>
       </c>
-      <c r="AW63" s="1">
-        <f t="shared" si="55"/>
+      <c r="AW63">
+        <f t="shared" si="101"/>
         <v>521</v>
       </c>
-      <c r="AX63" s="1">
-        <f t="shared" si="55"/>
+      <c r="AX63">
+        <f t="shared" si="101"/>
         <v>532</v>
       </c>
-      <c r="AY63" s="1">
-        <f t="shared" si="55"/>
+      <c r="AY63">
+        <f t="shared" si="101"/>
         <v>532</v>
       </c>
-      <c r="AZ63" s="1">
-        <f t="shared" si="55"/>
+      <c r="AZ63">
+        <f t="shared" si="101"/>
         <v>546</v>
       </c>
-      <c r="BA63" s="1">
-        <f t="shared" si="55"/>
+      <c r="BA63">
+        <f t="shared" si="101"/>
         <v>434</v>
       </c>
-      <c r="BB63" s="1">
-        <f t="shared" si="55"/>
+      <c r="BB63">
+        <f t="shared" si="101"/>
         <v>315</v>
       </c>
-      <c r="BC63" s="1">
-        <f>AD35</f>
+      <c r="BC63">
+        <f>BK55</f>
         <v>231</v>
       </c>
-      <c r="BD63" s="1">
+      <c r="BD63">
+        <f>BK56</f>
         <v>231</v>
       </c>
-      <c r="BE63" s="1">
-        <f>AE35</f>
-        <v>217</v>
-      </c>
-      <c r="BF63" s="1">
-        <v>129</v>
-      </c>
-      <c r="BG63" s="1">
-        <v>129</v>
-      </c>
-      <c r="BH63" s="1">
-        <v>129</v>
-      </c>
-      <c r="BI63" s="1">
-        <v>129</v>
-      </c>
-      <c r="BJ63" s="1">
-        <v>129</v>
-      </c>
-      <c r="BK63" s="1">
-        <f t="shared" ref="BK63" si="56">BK35</f>
+      <c r="BE63">
+        <f>BK57</f>
+        <v>231</v>
+      </c>
+      <c r="BF63">
+        <v>129</v>
+      </c>
+      <c r="BG63">
+        <v>129</v>
+      </c>
+      <c r="BH63">
+        <v>129</v>
+      </c>
+      <c r="BI63">
+        <v>129</v>
+      </c>
+      <c r="BJ63">
+        <v>129</v>
+      </c>
+      <c r="BK63">
+        <f t="shared" si="101"/>
         <v>0</v>
       </c>
     </row>
